--- a/assets/certificate.xlsx
+++ b/assets/certificate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8592"/>
+    <workbookView windowWidth="23040" windowHeight="9335"/>
   </bookViews>
   <sheets>
     <sheet name="Responses" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="244">
   <si>
     <t>S.NO</t>
   </si>
@@ -163,9 +163,6 @@
     <t>Devika BR</t>
   </si>
   <si>
-    <t>9400301761</t>
-  </si>
-  <si>
     <t>devikaraveendran0@gmail.com</t>
   </si>
   <si>
@@ -181,9 +178,6 @@
     <t>Gowri mohan</t>
   </si>
   <si>
-    <t>8943862081</t>
-  </si>
-  <si>
     <t>gowrimohan8620@gmail.com</t>
   </si>
   <si>
@@ -280,9 +274,6 @@
     <t>Gouri M Biju</t>
   </si>
   <si>
-    <t>7736702081</t>
-  </si>
-  <si>
     <t>gourigourimbiju@gmail.com</t>
   </si>
   <si>
@@ -379,9 +370,6 @@
     <t>Archana S</t>
   </si>
   <si>
-    <t>9400930260</t>
-  </si>
-  <si>
     <t>archanasanel10@gmail.com</t>
   </si>
   <si>
@@ -481,9 +469,6 @@
     <t>Aswathy Ashok</t>
   </si>
   <si>
-    <t>8129574840</t>
-  </si>
-  <si>
     <t>aswathyashok912@gmail.com</t>
   </si>
   <si>
@@ -499,9 +484,6 @@
     <t>Nesla</t>
   </si>
   <si>
-    <t>8590929802</t>
-  </si>
-  <si>
     <t>nesla2332004@gmail.com</t>
   </si>
   <si>
@@ -526,9 +508,6 @@
     <t>Abhiram m p</t>
   </si>
   <si>
-    <t>7510274318</t>
-  </si>
-  <si>
     <t>abhiram4318@gmail.com</t>
   </si>
   <si>
@@ -580,9 +559,6 @@
     <t>Abhiram Renjith</t>
   </si>
   <si>
-    <t>8089311685</t>
-  </si>
-  <si>
     <t>abhiramrenjith967@gmail.com</t>
   </si>
   <si>
@@ -706,9 +682,6 @@
     <t>Arun Krishna K U</t>
   </si>
   <si>
-    <t>9633082570</t>
-  </si>
-  <si>
     <t>arunkrishnaku2019@gmail.com</t>
   </si>
   <si>
@@ -740,9 +713,6 @@
   </si>
   <si>
     <t>Ebrahim Roshan U</t>
-  </si>
-  <si>
-    <t>9961840533</t>
   </si>
   <si>
     <t>roshandzire021@gmail.com</t>
@@ -786,10 +756,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -814,6 +784,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -828,45 +813,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -881,10 +829,26 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -900,14 +864,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -929,7 +885,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -937,7 +900,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -966,7 +936,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,19 +1002,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,25 +1074,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,121 +1116,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1157,6 +1127,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1171,32 +1156,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1234,6 +1193,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1260,148 +1230,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1791,13 +1761,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.71296296296296" customWidth="1"/>
     <col min="2" max="2" width="14.287037037037" customWidth="1"/>
@@ -2156,7 +2126,7 @@
         <v>53489325</v>
       </c>
     </row>
-    <row r="14" ht="14.4" spans="1:8">
+    <row r="14" ht="14.4" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2172,15 +2142,18 @@
       <c r="E14" t="s">
         <v>11</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14">
+        <v>940030761</v>
+      </c>
+      <c r="G14" t="s">
         <v>48</v>
       </c>
-      <c r="G14" t="s">
-        <v>49</v>
-      </c>
       <c r="H14">
         <f t="shared" si="0"/>
         <v>53489326</v>
+      </c>
+      <c r="I14">
+        <v>9400301761</v>
       </c>
     </row>
     <row r="15" ht="14.4" spans="1:8">
@@ -2191,7 +2164,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
@@ -2200,17 +2173,17 @@
         <v>11</v>
       </c>
       <c r="F15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" t="s">
         <v>51</v>
       </c>
-      <c r="G15" t="s">
-        <v>52</v>
-      </c>
       <c r="H15">
         <f t="shared" si="0"/>
         <v>53489327</v>
       </c>
     </row>
-    <row r="16" ht="14.4" spans="1:8">
+    <row r="16" ht="14.4" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2218,7 +2191,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
@@ -2226,15 +2199,18 @@
       <c r="E16" t="s">
         <v>11</v>
       </c>
-      <c r="F16" t="s">
-        <v>54</v>
+      <c r="F16">
+        <v>894362081</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
         <v>53489328</v>
+      </c>
+      <c r="I16">
+        <v>8943862081</v>
       </c>
     </row>
     <row r="17" ht="14.4" spans="1:8">
@@ -2245,7 +2221,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
         <v>33</v>
@@ -2254,10 +2230,10 @@
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
@@ -2272,7 +2248,7 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
         <v>33</v>
@@ -2281,10 +2257,10 @@
         <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
@@ -2299,7 +2275,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
@@ -2308,10 +2284,10 @@
         <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
@@ -2326,19 +2302,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="G20" t="s">
         <v>66</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" t="s">
-        <v>68</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
@@ -2353,7 +2329,7 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
@@ -2362,10 +2338,10 @@
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
@@ -2380,10 +2356,10 @@
         <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -2392,7 +2368,7 @@
         <v>8606976517</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
@@ -2407,7 +2383,7 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
         <v>33</v>
@@ -2416,10 +2392,10 @@
         <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
@@ -2434,7 +2410,7 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
@@ -2443,10 +2419,10 @@
         <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
@@ -2461,19 +2437,19 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" t="s">
         <v>80</v>
-      </c>
-      <c r="D25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" t="s">
-        <v>82</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
@@ -2488,7 +2464,7 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
         <v>33</v>
@@ -2497,17 +2473,17 @@
         <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
         <v>53489338</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1" spans="1:8">
+    <row r="27" ht="15.75" customHeight="1" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2515,7 +2491,7 @@
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
         <v>33</v>
@@ -2523,15 +2499,18 @@
       <c r="E27" t="s">
         <v>11</v>
       </c>
-      <c r="F27" t="s">
-        <v>87</v>
+      <c r="F27">
+        <v>776702081</v>
       </c>
       <c r="G27" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
         <v>53489339</v>
+      </c>
+      <c r="I27">
+        <v>7736702081</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1" spans="1:8">
@@ -2542,7 +2521,7 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
         <v>33</v>
@@ -2551,10 +2530,10 @@
         <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
@@ -2569,7 +2548,7 @@
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
         <v>33</v>
@@ -2578,10 +2557,10 @@
         <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G29" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
@@ -2596,7 +2575,7 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
         <v>10</v>
@@ -2605,10 +2584,10 @@
         <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
@@ -2623,7 +2602,7 @@
         <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>33</v>
@@ -2635,7 +2614,7 @@
         <v>9847568852</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
@@ -2650,7 +2629,7 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
         <v>10</v>
@@ -2659,10 +2638,10 @@
         <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
@@ -2677,7 +2656,7 @@
         <v>8</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
         <v>33</v>
@@ -2686,10 +2665,10 @@
         <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G33" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
@@ -2704,7 +2683,7 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
         <v>33</v>
@@ -2713,10 +2692,10 @@
         <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G34" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
@@ -2731,19 +2710,19 @@
         <v>8</v>
       </c>
       <c r="C35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>108</v>
+      </c>
+      <c r="G35" t="s">
         <v>109</v>
-      </c>
-      <c r="D35" t="s">
-        <v>110</v>
-      </c>
-      <c r="E35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" t="s">
-        <v>111</v>
-      </c>
-      <c r="G35" t="s">
-        <v>112</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
@@ -2758,19 +2737,19 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G36" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
@@ -2785,7 +2764,7 @@
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D37" t="s">
         <v>10</v>
@@ -2794,17 +2773,17 @@
         <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G37" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H37">
         <f t="shared" si="0"/>
         <v>53489349</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1" spans="1:8">
+    <row r="38" ht="15.75" customHeight="1" spans="1:9">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2812,7 +2791,7 @@
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D38" t="s">
         <v>33</v>
@@ -2820,15 +2799,18 @@
       <c r="E38" t="s">
         <v>11</v>
       </c>
-      <c r="F38" t="s">
-        <v>120</v>
+      <c r="F38">
+        <v>940930260</v>
       </c>
       <c r="G38" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
         <v>53489350</v>
+      </c>
+      <c r="I38">
+        <v>9400930260</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1" spans="1:8">
@@ -2839,7 +2821,7 @@
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D39" t="s">
         <v>33</v>
@@ -2848,10 +2830,10 @@
         <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G39" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H39">
         <f t="shared" si="0"/>
@@ -2866,10 +2848,10 @@
         <v>8</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
@@ -2878,7 +2860,7 @@
         <v>9946730277</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H40">
         <f t="shared" si="0"/>
@@ -2893,19 +2875,19 @@
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G41" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H41">
         <f t="shared" si="0"/>
@@ -2920,7 +2902,7 @@
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D42" t="s">
         <v>33</v>
@@ -2929,10 +2911,10 @@
         <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G42" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H42">
         <f t="shared" si="0"/>
@@ -2947,7 +2929,7 @@
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D43" t="s">
         <v>33</v>
@@ -2956,10 +2938,10 @@
         <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H43">
         <f t="shared" si="0"/>
@@ -2974,7 +2956,7 @@
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D44" t="s">
         <v>33</v>
@@ -2983,10 +2965,10 @@
         <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G44" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H44">
         <f t="shared" si="0"/>
@@ -3001,7 +2983,7 @@
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D45" t="s">
         <v>33</v>
@@ -3010,10 +2992,10 @@
         <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G45" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H45">
         <f t="shared" si="0"/>
@@ -3028,7 +3010,7 @@
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D46" t="s">
         <v>33</v>
@@ -3037,10 +3019,10 @@
         <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G46" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H46">
         <f t="shared" si="0"/>
@@ -3055,19 +3037,19 @@
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G47" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
@@ -3082,7 +3064,7 @@
         <v>8</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D48" t="s">
         <v>10</v>
@@ -3094,7 +3076,7 @@
         <v>9539244272</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
@@ -3109,26 +3091,26 @@
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D49" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G49" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
         <v>53489361</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1" spans="1:8">
+    <row r="50" ht="15.75" customHeight="1" spans="1:9">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3136,7 +3118,7 @@
         <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D50" t="s">
         <v>33</v>
@@ -3144,15 +3126,18 @@
       <c r="E50" t="s">
         <v>11</v>
       </c>
-      <c r="F50" t="s">
-        <v>154</v>
+      <c r="F50">
+        <v>812957440</v>
       </c>
       <c r="G50" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H50">
         <f t="shared" si="0"/>
         <v>53489362</v>
+      </c>
+      <c r="I50">
+        <v>8129574840</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1" spans="1:8">
@@ -3163,26 +3148,26 @@
         <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D51" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G51" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H51">
         <f t="shared" si="0"/>
         <v>53489363</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1" spans="1:8">
+    <row r="52" ht="15.75" customHeight="1" spans="1:9">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3190,23 +3175,26 @@
         <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D52" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
       </c>
-      <c r="F52" t="s">
-        <v>160</v>
+      <c r="F52">
+        <v>859092902</v>
       </c>
       <c r="G52" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H52">
         <f t="shared" si="0"/>
         <v>53489364</v>
+      </c>
+      <c r="I52">
+        <v>8590929802</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1" spans="1:8">
@@ -3217,19 +3205,19 @@
         <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D53" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G53" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H53">
         <f t="shared" si="0"/>
@@ -3244,7 +3232,7 @@
         <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D54" t="s">
         <v>10</v>
@@ -3253,17 +3241,17 @@
         <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G54" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H54">
         <f t="shared" si="0"/>
         <v>53489366</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1" spans="1:8">
+    <row r="55" ht="15.75" customHeight="1" spans="1:9">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3271,7 +3259,7 @@
         <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D55" t="s">
         <v>33</v>
@@ -3279,15 +3267,18 @@
       <c r="E55" t="s">
         <v>11</v>
       </c>
-      <c r="F55" t="s">
-        <v>169</v>
+      <c r="F55">
+        <v>751027418</v>
       </c>
       <c r="G55" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H55">
         <f t="shared" si="0"/>
         <v>53489367</v>
+      </c>
+      <c r="I55">
+        <v>7510274318</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1" spans="1:8">
@@ -3298,7 +3289,7 @@
         <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D56" t="s">
         <v>33</v>
@@ -3307,10 +3298,10 @@
         <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G56" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
@@ -3325,7 +3316,7 @@
         <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D57" t="s">
         <v>33</v>
@@ -3334,10 +3325,10 @@
         <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G57" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="H57">
         <f t="shared" si="0"/>
@@ -3352,7 +3343,7 @@
         <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D58" t="s">
         <v>10</v>
@@ -3361,10 +3352,10 @@
         <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G58" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
@@ -3379,19 +3370,19 @@
         <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D59" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G59" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="H59">
         <f t="shared" si="0"/>
@@ -3406,19 +3397,19 @@
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D60" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G60" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="H60">
         <f t="shared" si="0"/>
@@ -3433,7 +3424,7 @@
         <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D61" t="s">
         <v>33</v>
@@ -3441,11 +3432,11 @@
       <c r="E61" t="s">
         <v>11</v>
       </c>
-      <c r="F61" t="s">
-        <v>187</v>
+      <c r="F61">
+        <v>8089311685</v>
       </c>
       <c r="G61" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H61">
         <f t="shared" si="0"/>
@@ -3460,19 +3451,19 @@
         <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D62" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G62" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H62">
         <f t="shared" si="0"/>
@@ -3487,19 +3478,19 @@
         <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D63" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G63" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="H63">
         <f t="shared" si="0"/>
@@ -3514,7 +3505,7 @@
         <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D64" t="s">
         <v>33</v>
@@ -3523,10 +3514,10 @@
         <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G64" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H64">
         <f t="shared" si="0"/>
@@ -3541,7 +3532,7 @@
         <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D65" t="s">
         <v>33</v>
@@ -3550,10 +3541,10 @@
         <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G65" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H65">
         <f t="shared" si="0"/>
@@ -3568,19 +3559,19 @@
         <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G66" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H66">
         <f t="shared" si="0"/>
@@ -3595,22 +3586,22 @@
         <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D67" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G67" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="H67">
-        <f>H66+1</f>
+        <f t="shared" ref="H67:H72" si="1">H66+1</f>
         <v>53489379</v>
       </c>
     </row>
@@ -3622,22 +3613,22 @@
         <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D68" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G68" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H68">
-        <f>H67+1</f>
+        <f t="shared" si="1"/>
         <v>53489380</v>
       </c>
     </row>
@@ -3649,7 +3640,7 @@
         <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D69" t="s">
         <v>33</v>
@@ -3658,13 +3649,13 @@
         <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="G69" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="H69">
-        <f>H68+1</f>
+        <f t="shared" si="1"/>
         <v>53489381</v>
       </c>
     </row>
@@ -3676,7 +3667,7 @@
         <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D70" t="s">
         <v>33</v>
@@ -3685,13 +3676,13 @@
         <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G70" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="H70">
-        <f>H69+1</f>
+        <f t="shared" si="1"/>
         <v>53489382</v>
       </c>
     </row>
@@ -3703,22 +3694,22 @@
         <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D71" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="G71" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="H71">
-        <f>H70+1</f>
+        <f t="shared" si="1"/>
         <v>53489383</v>
       </c>
     </row>
@@ -3730,22 +3721,22 @@
         <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D72" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G72" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="H72">
-        <f>H71+1</f>
+        <f t="shared" si="1"/>
         <v>53489384</v>
       </c>
     </row>
@@ -3757,19 +3748,19 @@
         <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D73" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G73" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H73" t="e">
         <f>#REF!+1</f>
@@ -3784,7 +3775,7 @@
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D74" t="s">
         <v>10</v>
@@ -3793,17 +3784,17 @@
         <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G74" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H74" t="e">
         <f>H73+1</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1" spans="1:8">
+    <row r="75" ht="15.75" customHeight="1" spans="1:9">
       <c r="A75">
         <v>75</v>
       </c>
@@ -3811,24 +3802,27 @@
         <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D75" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
       </c>
-      <c r="F75" t="s">
-        <v>229</v>
+      <c r="F75">
+        <v>963082570</v>
       </c>
       <c r="G75" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="H75" t="e">
         <f>H74+1</f>
         <v>#REF!</v>
       </c>
+      <c r="I75">
+        <v>9633082570</v>
+      </c>
     </row>
     <row r="76" ht="15.75" customHeight="1" spans="1:8">
       <c r="A76">
@@ -3838,7 +3832,7 @@
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D76" t="s">
         <v>33</v>
@@ -3847,10 +3841,10 @@
         <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="G76" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="H76" t="e">
         <f>H75+1</f>
@@ -3865,19 +3859,19 @@
         <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E77" t="s">
         <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="G77" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="H77" t="e">
         <f>H76+1</f>
@@ -3892,26 +3886,26 @@
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D78" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="G78" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="H78" t="e">
         <f>H77+1</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1" spans="1:8">
+    <row r="79" ht="15.75" customHeight="1" spans="1:9">
       <c r="A79">
         <v>81</v>
       </c>
@@ -3919,7 +3913,7 @@
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D79" t="s">
         <v>33</v>
@@ -3927,16 +3921,19 @@
       <c r="E79" t="s">
         <v>11</v>
       </c>
-      <c r="F79" t="s">
-        <v>241</v>
+      <c r="F79">
+        <v>996184053</v>
       </c>
       <c r="G79" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H79" t="e">
         <f>#REF!+1</f>
         <v>#REF!</v>
       </c>
+      <c r="I79">
+        <v>9961840533</v>
+      </c>
     </row>
     <row r="80" ht="15.75" customHeight="1" spans="1:8">
       <c r="A80">
@@ -3946,7 +3943,7 @@
         <v>8</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>33</v>
@@ -3958,7 +3955,7 @@
         <v>7510941531</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="H80" t="e">
         <f>H79+1</f>
@@ -3973,19 +3970,19 @@
         <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D81" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E81" t="s">
         <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="G81" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="H81" t="e">
         <f>#REF!+1</f>
@@ -4000,7 +3997,7 @@
         <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D82" t="s">
         <v>33</v>
@@ -4009,10 +4006,10 @@
         <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="G82" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="H82" t="e">
         <f>H81+1</f>
@@ -4027,7 +4024,7 @@
         <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D83" t="s">
         <v>33</v>
@@ -4036,10 +4033,10 @@
         <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G83" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="H83" t="e">
         <f>H82+1</f>

--- a/assets/certificate.xlsx
+++ b/assets/certificate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="183">
   <si>
     <t>SI</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Al Ameen </t>
     </r>
     <r>
@@ -250,6 +256,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">S4 </t>
     </r>
     <r>
@@ -502,18 +514,140 @@
   <si>
     <t>Beneeta</t>
   </si>
+  <si>
+    <t>FIRST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARATH SANTHOSH </t>
+  </si>
+  <si>
+    <t>S8 EEE</t>
+  </si>
+  <si>
+    <t>VISHNU</t>
+  </si>
+  <si>
+    <t>SANJEEV S</t>
+  </si>
+  <si>
+    <t>SHYAMRAJ K R</t>
+  </si>
+  <si>
+    <t>KANNADEEPU MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bibin Xavier                                             </t>
+  </si>
+  <si>
+    <t>SECOND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senusam Biju                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jayakrishnan P                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amal V.S  </t>
+  </si>
+  <si>
+    <t>Mohammed Nihal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devanand J                                               </t>
+  </si>
+  <si>
+    <t>THIRD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freddy M Thomas                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anoop Chandran B                                       </t>
+  </si>
+  <si>
+    <r>
+      <t>Ananthakrishnan G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">                 </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Jean George JoY </t>
+  </si>
+  <si>
+    <t>Meenu</t>
+  </si>
+  <si>
+    <t>Anamika</t>
+  </si>
+  <si>
+    <t>Sreelekshmi Varma</t>
+  </si>
+  <si>
+    <t>Nesla</t>
+  </si>
+  <si>
+    <t>Nayana Raj</t>
+  </si>
+  <si>
+    <t>Megha</t>
+  </si>
+  <si>
+    <t>ANJALY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S4 CE</t>
+  </si>
+  <si>
+    <t>AKLEEMA M JAVED</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S2 CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANUSREE </t>
+  </si>
+  <si>
+    <t>SONA SASIKUMAR</t>
+  </si>
+  <si>
+    <t>ACHU RACHEL BABU</t>
+  </si>
+  <si>
+    <t>CARROMS</t>
+  </si>
+  <si>
+    <t>ANUSREE MS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,7 +690,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,36 +731,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,6 +749,14 @@
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -654,7 +800,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -662,15 +808,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -698,6 +843,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -708,19 +867,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,7 +885,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,19 +933,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,19 +999,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,79 +1035,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,26 +1113,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -993,6 +1137,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1008,22 +1161,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1051,12 +1199,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1065,143 +1224,143 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1255,6 +1414,30 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1575,13 +1758,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D141"/>
+  <dimension ref="A1:E221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="I147" sqref="I147"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="H217" sqref="H217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13.2222222222222" customWidth="1"/>
     <col min="2" max="2" width="16.5555555555556" customWidth="1"/>
@@ -3689,6 +3872,1124 @@
         <v>123</v>
       </c>
     </row>
+    <row r="142" spans="2:5">
+      <c r="B142" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5">
+      <c r="B143" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C143" t="s">
+        <v>151</v>
+      </c>
+      <c r="D143" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5">
+      <c r="B144" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C144" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5">
+      <c r="B145" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C145" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E145" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5">
+      <c r="B146" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C146" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5">
+      <c r="B147" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C147" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="148" ht="15.6" spans="2:5">
+      <c r="B148" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C148" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E148" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="149" ht="15.6" spans="2:5">
+      <c r="B149" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C149" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E149" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="150" ht="15.6" spans="2:5">
+      <c r="B150" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C150" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E150" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="151" ht="15.6" spans="2:5">
+      <c r="B151" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C151" t="s">
+        <v>30</v>
+      </c>
+      <c r="D151" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E151" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="152" ht="15.6" spans="2:5">
+      <c r="B152" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C152" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E152" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="153" ht="15.6" spans="2:5">
+      <c r="B153" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C153" t="s">
+        <v>63</v>
+      </c>
+      <c r="D153" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E153" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="154" ht="15.6" spans="2:5">
+      <c r="B154" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C154" t="s">
+        <v>32</v>
+      </c>
+      <c r="D154" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="155" ht="15.6" spans="2:5">
+      <c r="B155" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C155" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E155" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="156" ht="15.6" spans="2:5">
+      <c r="B156" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C156" t="s">
+        <v>30</v>
+      </c>
+      <c r="D156" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="157" ht="15.6" spans="2:5">
+      <c r="B157" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C157" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E157" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="158" ht="15.6" spans="2:5">
+      <c r="B158" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C158" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E158" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="159" ht="15.6" spans="2:5">
+      <c r="B159" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C159" t="s">
+        <v>63</v>
+      </c>
+      <c r="D159" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E159" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="160" ht="15.6" spans="2:5">
+      <c r="B160" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C160" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D160" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E160" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="161" ht="15.6" spans="2:5">
+      <c r="B161" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C161" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D161" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E161" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="162" ht="15.6" spans="2:5">
+      <c r="B162" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C162" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D162" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E162" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="163" ht="15.6" spans="2:5">
+      <c r="B163" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C163" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D163" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E163" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="164" ht="15.6" spans="2:5">
+      <c r="B164" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C164" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D164" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E164" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="165" ht="31.2" spans="2:5">
+      <c r="B165" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C165" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D165" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E165" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="166" ht="31.2" spans="2:5">
+      <c r="B166" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C166" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D166" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E166" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="167" ht="31.2" spans="2:5">
+      <c r="B167" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C167" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D167" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E167" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="168" ht="15.6" spans="2:5">
+      <c r="B168" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C168" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E168" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="169" ht="31.2" spans="2:5">
+      <c r="B169" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C169" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D169" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E169" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="170" ht="15.6" spans="2:5">
+      <c r="B170" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C170" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D170" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="171" ht="31.2" spans="2:5">
+      <c r="B171" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C171" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D171" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E171" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="172" ht="15.6" spans="2:5">
+      <c r="B172" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C172" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D172" t="s">
+        <v>6</v>
+      </c>
+      <c r="E172" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="173" ht="15.6" spans="2:5">
+      <c r="B173" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C173" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D173" t="s">
+        <v>6</v>
+      </c>
+      <c r="E173" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="174" ht="31.2" spans="2:5">
+      <c r="B174" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C174" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D174" t="s">
+        <v>6</v>
+      </c>
+      <c r="E174" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="175" ht="15.6" spans="2:5">
+      <c r="B175" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C175" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D175" t="s">
+        <v>6</v>
+      </c>
+      <c r="E175" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="176" ht="15.6" spans="2:5">
+      <c r="B176" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C176" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D176" t="s">
+        <v>6</v>
+      </c>
+      <c r="E176" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="177" ht="15.6" spans="2:5">
+      <c r="B177" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C177" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D177" t="s">
+        <v>6</v>
+      </c>
+      <c r="E177" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="178" ht="15.6" spans="2:5">
+      <c r="B178" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C178" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D178" t="s">
+        <v>123</v>
+      </c>
+      <c r="E178" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="179" ht="15.6" spans="2:5">
+      <c r="B179" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C179" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D179" t="s">
+        <v>123</v>
+      </c>
+      <c r="E179" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="180" ht="15.6" spans="2:5">
+      <c r="B180" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C180" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180" t="s">
+        <v>123</v>
+      </c>
+      <c r="E180" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="181" ht="15.6" spans="2:5">
+      <c r="B181" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C181" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D181" t="s">
+        <v>123</v>
+      </c>
+      <c r="E181" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="182" ht="15.6" spans="2:5">
+      <c r="B182" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C182" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D182" t="s">
+        <v>123</v>
+      </c>
+      <c r="E182" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="183" ht="15.6" spans="2:5">
+      <c r="B183" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C183" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D183" t="s">
+        <v>123</v>
+      </c>
+      <c r="E183" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="184" ht="15.6" spans="2:5">
+      <c r="B184" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C184" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D184" t="s">
+        <v>123</v>
+      </c>
+      <c r="E184" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="185" ht="15.6" spans="2:5">
+      <c r="B185" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C185" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D185" t="s">
+        <v>123</v>
+      </c>
+      <c r="E185" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="186" ht="15.6" spans="2:5">
+      <c r="B186" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C186" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D186" t="s">
+        <v>123</v>
+      </c>
+      <c r="E186" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="187" ht="15.6" spans="2:5">
+      <c r="B187" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C187" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D187" t="s">
+        <v>123</v>
+      </c>
+      <c r="E187" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="188" ht="15.6" spans="2:5">
+      <c r="B188" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C188" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D188" t="s">
+        <v>123</v>
+      </c>
+      <c r="E188" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="189" ht="15.6" spans="2:5">
+      <c r="B189" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C189" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D189" t="s">
+        <v>123</v>
+      </c>
+      <c r="E189" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="190" ht="15.6" spans="2:5">
+      <c r="B190" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C190" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D190" t="s">
+        <v>123</v>
+      </c>
+      <c r="E190" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="191" ht="15.6" spans="2:5">
+      <c r="B191" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C191" s="23"/>
+      <c r="D191" t="s">
+        <v>123</v>
+      </c>
+      <c r="E191" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="192" ht="15.6" spans="2:5">
+      <c r="B192" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C192" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D192" t="s">
+        <v>123</v>
+      </c>
+      <c r="E192" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="193" ht="15.6" spans="2:5">
+      <c r="B193" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C193" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D193" t="s">
+        <v>123</v>
+      </c>
+      <c r="E193" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="194" ht="15.6" spans="2:5">
+      <c r="B194" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C194" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D194" t="s">
+        <v>123</v>
+      </c>
+      <c r="E194" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="195" ht="15.6" spans="2:5">
+      <c r="B195" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C195" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D195" t="s">
+        <v>123</v>
+      </c>
+      <c r="E195" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="196" ht="15.6" spans="2:5">
+      <c r="B196" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C196" t="s">
+        <v>175</v>
+      </c>
+      <c r="D196" t="s">
+        <v>123</v>
+      </c>
+      <c r="E196" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="197" ht="15.6" spans="2:5">
+      <c r="B197" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C197" t="s">
+        <v>177</v>
+      </c>
+      <c r="D197" t="s">
+        <v>123</v>
+      </c>
+      <c r="E197" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="198" ht="15.6" spans="2:5">
+      <c r="B198" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C198" t="s">
+        <v>28</v>
+      </c>
+      <c r="D198" t="s">
+        <v>123</v>
+      </c>
+      <c r="E198" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="199" ht="15.6" spans="2:5">
+      <c r="B199" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C199" t="s">
+        <v>32</v>
+      </c>
+      <c r="D199" t="s">
+        <v>123</v>
+      </c>
+      <c r="E199" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="200" ht="15.6" spans="2:5">
+      <c r="B200" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C200" t="s">
+        <v>32</v>
+      </c>
+      <c r="D200" t="s">
+        <v>123</v>
+      </c>
+      <c r="E200" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="201" ht="15.6" spans="2:5">
+      <c r="B201" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C201" t="s">
+        <v>28</v>
+      </c>
+      <c r="D201" t="s">
+        <v>123</v>
+      </c>
+      <c r="E201" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="202" ht="15.6" spans="2:5">
+      <c r="B202" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C202" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="E202" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="203" ht="15.6" spans="2:5">
+      <c r="B203" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C203" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="E203" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="204" ht="15.6" spans="2:5">
+      <c r="B204" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C204" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E204" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="205" ht="15.6" spans="2:5">
+      <c r="B205" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C205" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D205" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E205" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="206" ht="15.6" spans="2:5">
+      <c r="B206" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C206" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D206" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E206" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="207" ht="15.6" spans="2:5">
+      <c r="B207" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C207" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D207" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E207" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="208" ht="15.6" spans="2:5">
+      <c r="B208" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C208" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D208" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E208" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="209" ht="15.6" spans="2:5">
+      <c r="B209" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C209" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D209" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E209" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="210" ht="15.6" spans="2:5">
+      <c r="B210" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C210" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D210" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E210" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="211" ht="15.6" spans="2:5">
+      <c r="B211" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C211" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D211" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E211" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="212" ht="15.6" spans="2:5">
+      <c r="B212" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C212" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D212" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E212" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="213" ht="15.6" spans="2:5">
+      <c r="B213" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C213" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D213" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E213" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="214" ht="15.6" spans="2:5">
+      <c r="B214" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C214" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D214" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E214" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="215" ht="15.6" spans="2:5">
+      <c r="B215" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C215" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D215" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E215" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="216" ht="31.2" spans="2:5">
+      <c r="B216" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C216" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D216" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E216" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="217" ht="15.6" spans="2:5">
+      <c r="B217" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C217" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D217" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E217" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="218" ht="15.6" spans="2:5">
+      <c r="B218" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C218" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D218" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E218" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="219" ht="15.6" spans="2:5">
+      <c r="B219" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C219" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D219" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E219" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="220" ht="15.6" spans="2:5">
+      <c r="B220" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C220" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D220" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E220" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="221" ht="15.6" spans="2:5">
+      <c r="B221" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C221" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D221" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E221" t="s">
+        <v>163</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/assets/certificate.xlsx
+++ b/assets/certificate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="229">
   <si>
     <t>SI</t>
   </si>
@@ -458,19 +458,409 @@
   </si>
   <si>
     <t>Runner Up</t>
+  </si>
+  <si>
+    <t>Ajaykrishna</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">               </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Rajagopal</t>
+    </r>
+  </si>
+  <si>
+    <t>Vishnu</t>
+  </si>
+  <si>
+    <t>Akash K S</t>
+  </si>
+  <si>
+    <t>Ouseph Thomas</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">             </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Shahin</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ME</t>
+    </r>
+  </si>
+  <si>
+    <t>+91 85473 68746</t>
+  </si>
+  <si>
+    <t>Vighnesh  kumar</t>
+  </si>
+  <si>
+    <t>+91 90619 40941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vishnu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEE </t>
+  </si>
+  <si>
+    <t>+91 90742 94234</t>
+  </si>
+  <si>
+    <t>Sarun shaji</t>
+  </si>
+  <si>
+    <t>+91 99467 25737</t>
+  </si>
+  <si>
+    <t>Muhammed Ashkar</t>
+  </si>
+  <si>
+    <t>Gopakumar .V</t>
+  </si>
+  <si>
+    <t>Praveen .P</t>
+  </si>
+  <si>
+    <t>Mushthak Ahmad</t>
+  </si>
+  <si>
+    <t>Aadhil Gafoor</t>
+  </si>
+  <si>
+    <t>Akshay lal</t>
+  </si>
+  <si>
+    <t>U Gopish</t>
+  </si>
+  <si>
+    <t>Devanand</t>
+  </si>
+  <si>
+    <t>Adithya</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>Amal madhu</t>
+  </si>
+  <si>
+    <t>Aswin</t>
+  </si>
+  <si>
+    <t>Fahad</t>
+  </si>
+  <si>
+    <t>85929 23398</t>
+  </si>
+  <si>
+    <t>Jean George Joy</t>
+  </si>
+  <si>
+    <t>6282 998 927</t>
+  </si>
+  <si>
+    <t>Jerry Varghese</t>
+  </si>
+  <si>
+    <t>79079 35316</t>
+  </si>
+  <si>
+    <t>77365 43858</t>
+  </si>
+  <si>
+    <t>Sarath Santhosh</t>
+  </si>
+  <si>
+    <t>73062 96594</t>
+  </si>
+  <si>
+    <t>Senu Sam Biju</t>
+  </si>
+  <si>
+    <t>SionDevassy Jibu</t>
+  </si>
+  <si>
+    <t>Vishnu Dev</t>
+  </si>
+  <si>
+    <t>Adithyan Udayakumar</t>
+  </si>
+  <si>
+    <t>Suhail Subair</t>
+  </si>
+  <si>
+    <t>AntonyBinu</t>
+  </si>
+  <si>
+    <t>Sreedarsh s</t>
+  </si>
+  <si>
+    <t>Adwaitha</t>
+  </si>
+  <si>
+    <t>Nandhana nambiar</t>
+  </si>
+  <si>
+    <t>Vishnupriya</t>
+  </si>
+  <si>
+    <t>parvathy</t>
+  </si>
+  <si>
+    <t>Haripriya K</t>
+  </si>
+  <si>
+    <t>+91 98476 30588</t>
+  </si>
+  <si>
+    <t>Saptha Pramod</t>
+  </si>
+  <si>
+    <t>+91 97460 89633</t>
+  </si>
+  <si>
+    <t>Aiswarya K S</t>
+  </si>
+  <si>
+    <t>+91 97443 51170</t>
+  </si>
+  <si>
+    <t>Anju Priya</t>
+  </si>
+  <si>
+    <t>+91 81294 52165</t>
+  </si>
+  <si>
+    <t>Bhagya</t>
+  </si>
+  <si>
+    <t>+91 77365 93660</t>
+  </si>
+  <si>
+    <t>Gadha</t>
+  </si>
+  <si>
+    <t>+91 77367 34410</t>
+  </si>
+  <si>
+    <t>Gopika prasad</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>Gopika Manoj</t>
+  </si>
+  <si>
+    <t>Priyanka K</t>
+  </si>
+  <si>
+    <t>Anusree M S</t>
+  </si>
+  <si>
+    <t>Achu Rachel Babu</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Christeena Thomas</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CSE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Renit Joby</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Vrinda Vavachan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ashitha Prabhan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ranjana</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Varsha</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Sayana k s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ME</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Dhanishma s s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Archana k c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Anna</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Harithra</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Lakshmi g harikumar</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="\+#,##0;\-#,##0"/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="\+0;\-0"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,8 +888,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Droid Sans"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Roboto Bk"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,6 +938,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,23 +966,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,52 +1028,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -621,7 +1045,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -640,6 +1064,11 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -663,13 +1092,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,13 +1152,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,55 +1188,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,13 +1224,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,25 +1254,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,42 +1272,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -872,17 +1301,73 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="medium">
+        <color auto="1"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="medium">
+        <color auto="1"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="medium">
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,11 +1387,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,7 +1406,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -938,8 +1429,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -961,6 +1452,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -974,152 +1474,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1143,6 +1643,60 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1462,10 +2016,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G234"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1474,7 +2028,7 @@
     <col min="5" max="5" width="13.1111111111111"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" customHeight="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1514,7 +2068,7 @@
         <v>6282875767</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1537,13 +2091,13 @@
         <v>9562095212</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" customHeight="1" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1560,7 +2114,7 @@
         <v>7356369408</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1583,7 +2137,7 @@
         <v>9946835329</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1606,13 +2160,13 @@
         <v>8943407218</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" customHeight="1" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1629,7 +2183,7 @@
         <v>9496174807</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1652,7 +2206,7 @@
         <v>6282490059</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1675,13 +2229,13 @@
         <v>6282985023</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" customHeight="1" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1698,7 +2252,7 @@
         <v>7356507849</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1721,7 +2275,7 @@
         <v>8590890766</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1744,13 +2298,13 @@
         <v>9995602471</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" customHeight="1" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1767,7 +2321,7 @@
         <v>8921856638</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1790,7 +2344,7 @@
         <v>6282626468</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1813,13 +2367,13 @@
         <v>8129517468</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" customHeight="1" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1836,7 +2390,7 @@
         <v>9072954352</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1859,7 +2413,7 @@
         <v>7510931712</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1882,7 +2436,7 @@
         <v>9497281498</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1905,7 +2459,7 @@
         <v>7994350470</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1928,7 +2482,7 @@
         <v>7736396406</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1951,7 +2505,7 @@
         <v>77369788446</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1974,7 +2528,7 @@
         <v>7994536847</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1997,7 +2551,7 @@
         <v>9567329604</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2020,7 +2574,7 @@
         <v>9633627752</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2043,7 +2597,7 @@
         <v>7356416056</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2066,7 +2620,7 @@
         <v>8592810114</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2089,7 +2643,7 @@
         <v>7356666820</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2112,7 +2666,7 @@
         <v>9061609384</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2135,7 +2689,7 @@
         <v>40</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2158,7 +2712,7 @@
         <v>8921868698</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2181,7 +2735,7 @@
         <v>43</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2204,7 +2758,7 @@
         <v>45</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2227,7 +2781,7 @@
         <v>47</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2250,7 +2804,7 @@
         <v>49</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2273,7 +2827,7 @@
         <v>51</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2296,7 +2850,7 @@
         <v>9633420604</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2319,7 +2873,7 @@
         <v>9061321636</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2342,7 +2896,7 @@
         <v>9188504295</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2365,7 +2919,7 @@
         <v>7736124331</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2388,7 +2942,7 @@
         <v>6238617743</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2411,7 +2965,7 @@
         <v>8593920843</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2434,7 +2988,7 @@
         <v>8139824787</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2457,7 +3011,7 @@
         <v>7356812910</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2480,7 +3034,7 @@
         <v>9645638968</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2503,7 +3057,7 @@
         <v>8921531028</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2526,7 +3080,7 @@
         <v>9497876115</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2549,7 +3103,7 @@
         <v>8593937916</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2572,7 +3126,7 @@
         <v>9207995289</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2595,7 +3149,7 @@
         <v>9074014595</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -2618,7 +3172,7 @@
         <v>8157953321</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2641,7 +3195,7 @@
         <v>8848033811</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2664,7 +3218,7 @@
         <v>8848558738</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2687,7 +3241,7 @@
         <v>7012399245</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2710,7 +3264,7 @@
         <v>9061769935</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -2733,7 +3287,7 @@
         <v>8606896123</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2756,7 +3310,7 @@
         <v>9072980414</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2779,7 +3333,7 @@
         <v>7994227837</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2802,7 +3356,7 @@
         <v>6282220849</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2825,7 +3379,7 @@
         <v>9562062908</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -2848,7 +3402,7 @@
         <v>9744801916</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -2871,7 +3425,7 @@
         <v>8113833189</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -2894,7 +3448,7 @@
         <v>9946758817</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -2917,7 +3471,7 @@
         <v>9072085733</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2940,7 +3494,7 @@
         <v>8606406074</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -2963,7 +3517,7 @@
         <v>7560959766</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -2986,7 +3540,7 @@
         <v>8891418626</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -3009,7 +3563,7 @@
         <v>9539231717</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -3032,7 +3586,7 @@
         <v>7994322927</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -3055,7 +3609,7 @@
         <v>8848015210</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -3078,7 +3632,7 @@
         <v>90</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -3101,7 +3655,7 @@
         <v>92</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -3124,7 +3678,7 @@
         <v>7736750537</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -3147,7 +3701,7 @@
         <v>8547368746</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -3170,7 +3724,7 @@
         <v>9946725737</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -3193,7 +3747,7 @@
         <v>9074294234</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -3216,7 +3770,7 @@
         <v>7736543858</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -3239,7 +3793,7 @@
         <v>9567530432</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -3262,7 +3816,7 @@
         <v>8921804295</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -3285,7 +3839,7 @@
         <v>8592923398</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -3308,7 +3862,7 @@
         <v>103</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -3331,7 +3885,7 @@
         <v>105</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -3354,7 +3908,7 @@
         <v>107</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -3377,7 +3931,7 @@
         <v>7306520052</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -3400,7 +3954,7 @@
         <v>97466492170</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -3423,7 +3977,7 @@
         <v>9633082570</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -3446,7 +4000,7 @@
         <v>9497072437</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -3469,7 +4023,7 @@
         <v>6238897855</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -3492,7 +4046,7 @@
         <v>9747563742</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3515,7 +4069,7 @@
         <v>7306162569</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -3538,7 +4092,7 @@
         <v>6238411568</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3561,7 +4115,7 @@
         <v>117</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -3584,7 +4138,7 @@
         <v>7510113156</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -3607,7 +4161,7 @@
         <v>9400608992</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3630,7 +4184,7 @@
         <v>9400116311</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -3653,7 +4207,7 @@
         <v>8139092707</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3676,7 +4230,7 @@
         <v>8921424844</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -3699,7 +4253,7 @@
         <v>7902736011</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -3722,7 +4276,7 @@
         <v>9744455155</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -3745,7 +4299,7 @@
         <v>6235932573</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -3768,7 +4322,7 @@
         <v>9961840533</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -3791,7 +4345,7 @@
         <v>978721533</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -3814,7 +4368,7 @@
         <v>9207046742</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -3837,7 +4391,7 @@
         <v>9496602578</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -3860,7 +4414,7 @@
         <v>7511135015</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -3883,7 +4437,7 @@
         <v>907223341</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -3906,7 +4460,7 @@
         <v>7736418308</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3929,7 +4483,7 @@
         <v>9400810007</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -3952,7 +4506,7 @@
         <v>7306446316</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3975,7 +4529,7 @@
         <v>7012207366</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3998,7 +4552,7 @@
         <v>9037438264</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -4021,7 +4575,7 @@
         <v>6282944718</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -4044,7 +4598,7 @@
         <v>8606894357</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -4067,7 +4621,7 @@
         <v>6235227452</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -4090,7 +4644,7 @@
         <v>85905299774</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -4113,7 +4667,7 @@
         <v>7306157217</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -4136,7 +4690,7 @@
         <v>6282579453</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -4159,7 +4713,7 @@
         <v>7356861293</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -4182,7 +4736,7 @@
         <v>7593996528</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -4205,7 +4759,7 @@
         <v>7736418308</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119" t="s">
         <v>146</v>
@@ -4228,7 +4782,7 @@
         <v>9400810007</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120" t="s">
         <v>146</v>
@@ -4251,7 +4805,7 @@
         <v>7306446316</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121" t="s">
         <v>146</v>
@@ -4274,7 +4828,7 @@
         <v>7012207366</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G122" t="s">
         <v>146</v>
@@ -4297,7 +4851,7 @@
         <v>9037438264</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123" t="s">
         <v>146</v>
@@ -4320,7 +4874,7 @@
         <v>6282944718</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124" t="s">
         <v>146</v>
@@ -4343,7 +4897,7 @@
         <v>8606894357</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125" t="s">
         <v>146</v>
@@ -4366,7 +4920,7 @@
         <v>6235227452</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126" t="s">
         <v>146</v>
@@ -4389,7 +4943,7 @@
         <v>85905299774</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127" t="s">
         <v>146</v>
@@ -4412,7 +4966,7 @@
         <v>7306157217</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" t="s">
         <v>146</v>
@@ -4435,7 +4989,7 @@
         <v>6282579453</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" t="s">
         <v>146</v>
@@ -4458,7 +5012,7 @@
         <v>7356861293</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130" t="s">
         <v>146</v>
@@ -4481,7 +5035,7 @@
         <v>7593996528</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G131" t="s">
         <v>146</v>
@@ -4504,7 +5058,7 @@
         <v>8848558738</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G132" t="s">
         <v>147</v>
@@ -4527,7 +5081,7 @@
         <v>7012399245</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G133" t="s">
         <v>147</v>
@@ -4550,7 +5104,7 @@
         <v>9061769935</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G134" t="s">
         <v>147</v>
@@ -4573,7 +5127,7 @@
         <v>8606896123</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135" t="s">
         <v>147</v>
@@ -4596,7 +5150,7 @@
         <v>9072980414</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G136" t="s">
         <v>147</v>
@@ -4619,7 +5173,7 @@
         <v>7994227837</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G137" t="s">
         <v>147</v>
@@ -4642,7 +5196,7 @@
         <v>6282220849</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G138" t="s">
         <v>147</v>
@@ -4665,7 +5219,7 @@
         <v>9562062908</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G139" t="s">
         <v>147</v>
@@ -4688,7 +5242,7 @@
         <v>9744801916</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G140" t="s">
         <v>147</v>
@@ -4711,7 +5265,7 @@
         <v>8113833189</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G141" t="s">
         <v>147</v>
@@ -4734,7 +5288,7 @@
         <v>9946758817</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G142" t="s">
         <v>147</v>
@@ -4757,7 +5311,7 @@
         <v>9072085733</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G143" t="s">
         <v>147</v>
@@ -4780,13 +5334,13 @@
         <v>8606406074</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G144" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" ht="15.15" spans="1:7">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4803,9 +5357,2056 @@
         <v>7560959766</v>
       </c>
       <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="146" ht="15.15" spans="1:7">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E146" s="9">
+        <v>9946312522</v>
+      </c>
+      <c r="F146">
+        <v>2</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" ht="15.15" spans="1:7">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E147" s="10">
+        <v>9567621720</v>
+      </c>
+      <c r="F147">
+        <v>2</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" ht="15.15" spans="1:7">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E148" s="10">
+        <v>7994322927</v>
+      </c>
+      <c r="F148">
+        <v>2</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" ht="15.15" spans="1:7">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E149" s="10">
+        <v>9539231717</v>
+      </c>
+      <c r="F149">
+        <v>2</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" ht="16.35" spans="1:7">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D150" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150" s="10">
+        <v>9072980414</v>
+      </c>
+      <c r="F150">
+        <v>2</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" ht="15.15" spans="1:7">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C151" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D151" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E151" s="10">
+        <v>9061769935</v>
+      </c>
+      <c r="F151">
+        <v>2</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" ht="15.15" spans="1:7">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D152" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E152" s="10">
+        <v>8848558738</v>
+      </c>
+      <c r="F152">
+        <v>2</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" ht="15.15" spans="1:7">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C153" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D153" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" s="10">
+        <v>8301975837</v>
+      </c>
+      <c r="F153">
+        <v>2</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" ht="15.15" spans="1:7">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C154" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E154" s="10">
+        <v>9846869428</v>
+      </c>
+      <c r="F154">
+        <v>2</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" ht="15.15" spans="1:7">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D155" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155" s="10">
+        <v>8606406074</v>
+      </c>
+      <c r="F155">
+        <v>2</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>93</v>
+      </c>
+      <c r="C156" t="s">
+        <v>94</v>
+      </c>
+      <c r="D156" t="s">
+        <v>55</v>
+      </c>
+      <c r="E156">
+        <v>7736750537</v>
+      </c>
+      <c r="F156">
+        <v>2</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>95</v>
+      </c>
+      <c r="C157" t="s">
+        <v>94</v>
+      </c>
+      <c r="D157" t="s">
+        <v>55</v>
+      </c>
+      <c r="E157" t="s">
+        <v>155</v>
+      </c>
+      <c r="F157">
+        <v>2</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>156</v>
+      </c>
+      <c r="C158" t="s">
+        <v>94</v>
+      </c>
+      <c r="D158" t="s">
+        <v>55</v>
+      </c>
+      <c r="E158" t="s">
+        <v>157</v>
+      </c>
+      <c r="F158">
+        <v>2</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>158</v>
+      </c>
+      <c r="C159" t="s">
+        <v>159</v>
+      </c>
+      <c r="D159" t="s">
+        <v>55</v>
+      </c>
+      <c r="E159" t="s">
+        <v>160</v>
+      </c>
+      <c r="F159">
+        <v>2</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" ht="15.15" spans="1:7">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>161</v>
+      </c>
+      <c r="C160" t="s">
+        <v>94</v>
+      </c>
+      <c r="D160" t="s">
+        <v>55</v>
+      </c>
+      <c r="E160" t="s">
+        <v>162</v>
+      </c>
+      <c r="F160">
+        <v>2</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" ht="15.15" spans="1:7">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C161" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D161" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E161" s="13">
+        <v>8921868698</v>
+      </c>
+      <c r="F161">
+        <v>2</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" ht="15.15" spans="1:7">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C162" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D162" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E162" s="14">
+        <v>8089800559</v>
+      </c>
+      <c r="F162">
+        <v>2</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" ht="15.15" spans="1:7">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C163" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D163" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E163" s="14">
+        <v>7510369715</v>
+      </c>
+      <c r="F163">
+        <v>2</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" ht="15.15" spans="1:7">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C164" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D164" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E164" s="14">
+        <v>8075783780</v>
+      </c>
+      <c r="F164">
+        <v>2</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" ht="15.15" spans="1:7">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C165" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D165" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E165" s="14">
+        <v>9995390406</v>
+      </c>
+      <c r="F165">
+        <v>2</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" ht="15.15" spans="1:7">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C166" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D166" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E166" s="14">
+        <v>8593873511</v>
+      </c>
+      <c r="F166">
+        <v>2</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" ht="15.15" spans="1:7">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C167" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E167" s="15">
+        <v>6238379932</v>
+      </c>
+      <c r="F167">
+        <v>2</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" ht="15.15" spans="1:7">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C168" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E168" s="16">
+        <v>8281961005</v>
+      </c>
+      <c r="F168">
+        <v>2</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" ht="15.15" spans="1:7">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C169" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E169" s="16">
+        <v>8921856638</v>
+      </c>
+      <c r="F169">
+        <v>2</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" ht="15.15" spans="1:7">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D170" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E170" s="9">
+        <v>7306121582</v>
+      </c>
+      <c r="F170">
+        <v>2</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" ht="15.15" spans="1:7">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D171" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E171" s="10">
+        <v>8921470483</v>
+      </c>
+      <c r="F171">
+        <v>2</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" ht="15.15" spans="1:7">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D172" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E172" s="10">
+        <v>9072165548</v>
+      </c>
+      <c r="F172">
+        <v>2</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" ht="15.15" spans="1:7">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D173" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E173" s="10">
+        <v>9567530432</v>
+      </c>
+      <c r="F173">
+        <v>2</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" ht="15.15" spans="1:7">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C174" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D174" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E174" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="F174">
+        <v>2</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" ht="15.15" spans="1:7">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C175" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D175" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E175" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F175">
+        <v>2</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" ht="15.15" spans="1:7">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C176" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D176" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E176" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F176">
+        <v>2</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" ht="15.15" spans="1:7">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C177" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D177" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E177" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F177">
+        <v>2</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" ht="15.15" spans="1:7">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C178" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D178" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E178" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F178">
+        <v>2</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" ht="15.15" spans="1:7">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C179" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D179" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E179" s="12">
+        <v>8281315583</v>
+      </c>
+      <c r="F179">
+        <v>2</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" ht="16.35" spans="1:7">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C180" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E180" s="20">
+        <v>919496174807</v>
+      </c>
+      <c r="F180" s="21">
+        <v>2</v>
+      </c>
+      <c r="G180" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" ht="16.35" spans="1:7">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C181" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D181" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E181" s="22">
+        <v>919847133127</v>
+      </c>
+      <c r="F181" s="21">
+        <v>2</v>
+      </c>
+      <c r="G181" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" ht="16.35" spans="1:7">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C182" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D182" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E182" s="22">
+        <v>919562875205</v>
+      </c>
+      <c r="F182" s="21">
+        <v>2</v>
+      </c>
+      <c r="G182" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" ht="16.35" spans="1:7">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C183" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E183" s="22">
+        <v>918606749298</v>
+      </c>
+      <c r="F183" s="21">
+        <v>2</v>
+      </c>
+      <c r="G183" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" ht="16.35" spans="1:7">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C184" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D184" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E184" s="22">
+        <v>919947663257</v>
+      </c>
+      <c r="F184" s="21">
+        <v>2</v>
+      </c>
+      <c r="G184" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" ht="16.35" spans="1:7">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C185" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E185" s="22">
+        <v>919744087257</v>
+      </c>
+      <c r="F185" s="21">
+        <v>2</v>
+      </c>
+      <c r="G185" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" ht="15.15" spans="1:7">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C186" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D186" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E186" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="F186">
+        <v>2</v>
+      </c>
+      <c r="G186" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="187" ht="15.15" spans="1:7">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C187" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D187" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E187" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F187">
+        <v>2</v>
+      </c>
+      <c r="G187" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="188" ht="15.15" spans="1:7">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C188" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D188" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E188" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F188">
+        <v>2</v>
+      </c>
+      <c r="G188" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="189" ht="15.15" spans="1:7">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C189" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D189" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E189" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F189">
+        <v>2</v>
+      </c>
+      <c r="G189" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="190" ht="15.15" spans="1:7">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C190" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D190" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E190" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F190">
+        <v>2</v>
+      </c>
+      <c r="G190" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="191" ht="15.15" spans="1:7">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C191" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D191" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E191" s="12">
+        <v>8281315583</v>
+      </c>
+      <c r="F191">
+        <v>2</v>
+      </c>
+      <c r="G191" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>93</v>
+      </c>
+      <c r="C192" t="s">
+        <v>94</v>
+      </c>
+      <c r="D192" t="s">
+        <v>55</v>
+      </c>
+      <c r="E192">
+        <v>7736750537</v>
+      </c>
+      <c r="F192">
+        <v>2</v>
+      </c>
+      <c r="G192" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>95</v>
+      </c>
+      <c r="C193" t="s">
+        <v>94</v>
+      </c>
+      <c r="D193" t="s">
+        <v>55</v>
+      </c>
+      <c r="E193" t="s">
+        <v>155</v>
+      </c>
+      <c r="F193">
+        <v>2</v>
+      </c>
+      <c r="G193" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>156</v>
+      </c>
+      <c r="C194" t="s">
+        <v>94</v>
+      </c>
+      <c r="D194" t="s">
+        <v>55</v>
+      </c>
+      <c r="E194" t="s">
+        <v>157</v>
+      </c>
+      <c r="F194">
+        <v>2</v>
+      </c>
+      <c r="G194" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>158</v>
+      </c>
+      <c r="C195" t="s">
+        <v>159</v>
+      </c>
+      <c r="D195" t="s">
+        <v>55</v>
+      </c>
+      <c r="E195" t="s">
+        <v>160</v>
+      </c>
+      <c r="F195">
+        <v>2</v>
+      </c>
+      <c r="G195" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="196" ht="15.15" spans="1:7">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>161</v>
+      </c>
+      <c r="C196" t="s">
+        <v>94</v>
+      </c>
+      <c r="D196" t="s">
+        <v>55</v>
+      </c>
+      <c r="E196" t="s">
+        <v>162</v>
+      </c>
+      <c r="F196">
+        <v>2</v>
+      </c>
+      <c r="G196" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="197" ht="15.15" spans="1:7">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D197" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E197" s="9">
+        <v>9526690977</v>
+      </c>
+      <c r="F197">
         <v>1</v>
       </c>
-      <c r="G145" t="s">
+      <c r="G197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" ht="15.15" spans="1:7">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C198" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D198" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E198" s="10">
+        <v>6282859883</v>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" ht="15.15" spans="1:7">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C199" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D199" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E199" s="10">
+        <v>8089669983</v>
+      </c>
+      <c r="F199">
+        <v>1</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" ht="15.15" spans="1:7">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D200" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E200" s="10">
+        <v>6238053445</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" ht="29.55" spans="1:7">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C201" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D201" s="10">
+        <v>6</v>
+      </c>
+      <c r="E201" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" ht="29.55" spans="1:7">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C202" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D202" s="10">
+        <v>6</v>
+      </c>
+      <c r="E202" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" ht="29.55" spans="1:7">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" s="10">
+        <v>6</v>
+      </c>
+      <c r="E203" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" ht="29.55" spans="1:7">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C204" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D204" s="10">
+        <v>6</v>
+      </c>
+      <c r="E204" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" ht="29.55" spans="1:7">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C205" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D205" s="10">
+        <v>6</v>
+      </c>
+      <c r="E205" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" ht="29.55" spans="1:7">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C206" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D206" s="10">
+        <v>6</v>
+      </c>
+      <c r="E206" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" ht="15.15" spans="1:7">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C207" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D207" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E207" s="9">
+        <v>9447347122</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" ht="15.15" spans="1:7">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C208" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D208" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E208" s="10">
+        <v>9961993695</v>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" ht="15.15" spans="1:7">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C209" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D209" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E209" s="10">
+        <v>9633408966</v>
+      </c>
+      <c r="F209">
+        <v>1</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" ht="15.15" spans="1:7">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C210" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D210" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E210" s="10">
+        <v>8157837213</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" ht="15.15" spans="1:7">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C211" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D211" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E211" s="10">
+        <v>7306489549</v>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C212" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="D212" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E212" s="24">
+        <v>8590817029</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="C213" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="D213" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E213" s="24">
+        <v>9605817028</v>
+      </c>
+      <c r="F213">
+        <v>1</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="C214" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="D214" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E214" s="24">
+        <v>9871435146</v>
+      </c>
+      <c r="F214">
+        <v>1</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C215" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="D215" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E215" s="24">
+        <v>7012876954</v>
+      </c>
+      <c r="F215">
+        <v>1</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="C216" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="D216" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E216" s="24">
+        <v>8089039551</v>
+      </c>
+      <c r="F216">
+        <v>1</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C217" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="D217" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E217" s="24">
+        <v>7902305635</v>
+      </c>
+      <c r="F217">
+        <v>1</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="C218" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="D218" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="E218" s="24">
+        <v>8593899311</v>
+      </c>
+      <c r="F218">
+        <v>1</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C219" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="D219" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="E219" s="25">
+        <v>9744554438</v>
+      </c>
+      <c r="F219">
+        <v>1</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="C220" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="D220" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="E220" s="25">
+        <v>9964957091</v>
+      </c>
+      <c r="F220">
+        <v>1</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C221" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="D221" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="E221" s="26">
+        <v>7560959766</v>
+      </c>
+      <c r="F221">
+        <v>1</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="C222" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="D222" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="E222" s="24">
+        <v>9495160498</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" ht="15.15" spans="1:7">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="C223" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="D223" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="E223" s="26">
+        <v>8113846597</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" ht="15.15" spans="1:7">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C224" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D224" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E224" s="9">
+        <v>9447347122</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="225" ht="15.15" spans="1:7">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C225" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D225" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E225" s="10">
+        <v>9961993695</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="226" ht="15.15" spans="1:7">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C226" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D226" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E226" s="10">
+        <v>9633408966</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="227" ht="15.15" spans="1:7">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C227" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D227" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E227" s="10">
+        <v>8157837213</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="228" ht="15.15" spans="1:7">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C228" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D228" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E228" s="10">
+        <v>7306489549</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="229" ht="29.55" spans="1:7">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C229" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D229" s="10">
+        <v>6</v>
+      </c>
+      <c r="E229" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="230" ht="29.55" spans="1:7">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C230" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D230" s="10">
+        <v>6</v>
+      </c>
+      <c r="E230" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="231" ht="29.55" spans="1:7">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C231" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D231" s="10">
+        <v>6</v>
+      </c>
+      <c r="E231" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="232" ht="29.55" spans="1:7">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C232" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D232" s="10">
+        <v>6</v>
+      </c>
+      <c r="E232" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="233" ht="29.55" spans="1:7">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C233" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D233" s="10">
+        <v>6</v>
+      </c>
+      <c r="E233" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="234" ht="29.55" spans="1:7">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C234" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D234" s="10">
+        <v>6</v>
+      </c>
+      <c r="E234" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F234">
+        <v>1</v>
+      </c>
+      <c r="G234" t="s">
         <v>147</v>
       </c>
     </row>

--- a/assets/certificate.xlsx
+++ b/assets/certificate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="260">
   <si>
     <t>SI</t>
   </si>
@@ -464,6 +464,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">               </t>
     </r>
     <r>
@@ -487,6 +493,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">             </t>
     </r>
     <r>
@@ -501,6 +513,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">       </t>
     </r>
     <r>
@@ -847,16 +865,236 @@
       <t>Lakshmi g harikumar</t>
     </r>
   </si>
+  <si>
+    <t>Anirudh M</t>
+  </si>
+  <si>
+    <t>Vyshak K</t>
+  </si>
+  <si>
+    <t>Sethumadhavan N S</t>
+  </si>
+  <si>
+    <t>Fathih Mohammed</t>
+  </si>
+  <si>
+    <t>Athul Vinayak S M</t>
+  </si>
+  <si>
+    <t>Abhiram P</t>
+  </si>
+  <si>
+    <t>Dalvin Jaijan</t>
+  </si>
+  <si>
+    <t>Sibin Sabu</t>
+  </si>
+  <si>
+    <t>86064 48184</t>
+  </si>
+  <si>
+    <t>Amal V S</t>
+  </si>
+  <si>
+    <t>Midhun Mohan</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Adarsh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A S</t>
+    </r>
+  </si>
+  <si>
+    <t>99616 90690</t>
+  </si>
+  <si>
+    <t>MITHUN MURALI</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>86068 96123</t>
+    </r>
+  </si>
+  <si>
+    <t>SREERAG</t>
+  </si>
+  <si>
+    <t>95623 71022</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MIDHUN N A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NAAIF M SHAFI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HARI DARSSAN. M</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HISHAMSHA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ANANDHAKRISHNAN T A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AKSHAY KARMA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Adithya</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>EC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Amal Madhu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Aswin</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Samuel</t>
+    </r>
+  </si>
+  <si>
+    <t>Ajomon biju</t>
+  </si>
+  <si>
+    <t>75929 69978</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="\+#,##0;\-#,##0"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="\+#,##0;\-#,##0"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="181" formatCode="\+0;\-0"/>
   </numFmts>
@@ -922,15 +1160,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -943,16 +1197,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -974,16 +1229,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -997,23 +1244,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1022,9 +1253,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1037,8 +1268,22 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1054,13 +1299,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1092,13 +1330,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1110,37 +1390,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1152,31 +1414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1194,13 +1432,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,13 +1456,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1236,25 +1486,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,13 +1504,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1372,6 +1610,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1383,30 +1639,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1426,11 +1658,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1474,152 +1712,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1673,16 +1911,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="181" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2016,10 +2251,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G234"/>
+  <dimension ref="A1:G267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="L235" sqref="L235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -6155,16 +6390,16 @@
       <c r="C180" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D180" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E180" s="20">
+      <c r="D180" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E180" s="19">
         <v>919496174807</v>
       </c>
-      <c r="F180" s="21">
+      <c r="F180" s="20">
         <v>2</v>
       </c>
-      <c r="G180" s="21">
+      <c r="G180" s="20">
         <v>0</v>
       </c>
     </row>
@@ -6178,16 +6413,16 @@
       <c r="C181" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D181" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E181" s="22">
+      <c r="D181" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E181" s="21">
         <v>919847133127</v>
       </c>
-      <c r="F181" s="21">
+      <c r="F181" s="20">
         <v>2</v>
       </c>
-      <c r="G181" s="21">
+      <c r="G181" s="20">
         <v>0</v>
       </c>
     </row>
@@ -6201,16 +6436,16 @@
       <c r="C182" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D182" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E182" s="22">
+      <c r="D182" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E182" s="21">
         <v>919562875205</v>
       </c>
-      <c r="F182" s="21">
+      <c r="F182" s="20">
         <v>2</v>
       </c>
-      <c r="G182" s="21">
+      <c r="G182" s="20">
         <v>0</v>
       </c>
     </row>
@@ -6224,16 +6459,16 @@
       <c r="C183" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D183" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E183" s="22">
+      <c r="D183" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E183" s="21">
         <v>918606749298</v>
       </c>
-      <c r="F183" s="21">
+      <c r="F183" s="20">
         <v>2</v>
       </c>
-      <c r="G183" s="21">
+      <c r="G183" s="20">
         <v>0</v>
       </c>
     </row>
@@ -6247,16 +6482,16 @@
       <c r="C184" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D184" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E184" s="22">
+      <c r="D184" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E184" s="21">
         <v>919947663257</v>
       </c>
-      <c r="F184" s="21">
+      <c r="F184" s="20">
         <v>2</v>
       </c>
-      <c r="G184" s="21">
+      <c r="G184" s="20">
         <v>0</v>
       </c>
     </row>
@@ -6270,16 +6505,16 @@
       <c r="C185" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D185" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E185" s="22">
+      <c r="D185" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E185" s="21">
         <v>919744087257</v>
       </c>
-      <c r="F185" s="21">
+      <c r="F185" s="20">
         <v>2</v>
       </c>
-      <c r="G185" s="21">
+      <c r="G185" s="20">
         <v>0</v>
       </c>
     </row>
@@ -6885,16 +7120,16 @@
       <c r="A212">
         <v>211</v>
       </c>
-      <c r="B212" s="23" t="s">
+      <c r="B212" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="C212" s="23" t="s">
+      <c r="C212" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="D212" s="24" t="s">
+      <c r="D212" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E212" s="24">
+      <c r="E212" s="23">
         <v>8590817029</v>
       </c>
       <c r="F212">
@@ -6908,16 +7143,16 @@
       <c r="A213">
         <v>212</v>
       </c>
-      <c r="B213" s="23" t="s">
+      <c r="B213" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="C213" s="23" t="s">
+      <c r="C213" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="D213" s="24" t="s">
+      <c r="D213" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E213" s="24">
+      <c r="E213" s="23">
         <v>9605817028</v>
       </c>
       <c r="F213">
@@ -6931,16 +7166,16 @@
       <c r="A214">
         <v>213</v>
       </c>
-      <c r="B214" s="23" t="s">
+      <c r="B214" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="C214" s="23" t="s">
+      <c r="C214" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="D214" s="24" t="s">
+      <c r="D214" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E214" s="24">
+      <c r="E214" s="23">
         <v>9871435146</v>
       </c>
       <c r="F214">
@@ -6954,16 +7189,16 @@
       <c r="A215">
         <v>214</v>
       </c>
-      <c r="B215" s="23" t="s">
+      <c r="B215" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="C215" s="23" t="s">
+      <c r="C215" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="D215" s="24" t="s">
+      <c r="D215" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E215" s="24">
+      <c r="E215" s="23">
         <v>7012876954</v>
       </c>
       <c r="F215">
@@ -6977,16 +7212,16 @@
       <c r="A216">
         <v>215</v>
       </c>
-      <c r="B216" s="23" t="s">
+      <c r="B216" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="C216" s="23" t="s">
+      <c r="C216" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="D216" s="24" t="s">
+      <c r="D216" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E216" s="24">
+      <c r="E216" s="23">
         <v>8089039551</v>
       </c>
       <c r="F216">
@@ -7000,16 +7235,16 @@
       <c r="A217">
         <v>216</v>
       </c>
-      <c r="B217" s="23" t="s">
+      <c r="B217" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="C217" s="23" t="s">
+      <c r="C217" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="D217" s="24" t="s">
+      <c r="D217" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E217" s="24">
+      <c r="E217" s="23">
         <v>7902305635</v>
       </c>
       <c r="F217">
@@ -7023,16 +7258,16 @@
       <c r="A218">
         <v>217</v>
       </c>
-      <c r="B218" s="23" t="s">
+      <c r="B218" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="C218" s="23" t="s">
+      <c r="C218" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="D218" s="23" t="s">
+      <c r="D218" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="E218" s="24">
+      <c r="E218" s="23">
         <v>8593899311</v>
       </c>
       <c r="F218">
@@ -7046,16 +7281,16 @@
       <c r="A219">
         <v>218</v>
       </c>
-      <c r="B219" s="23" t="s">
+      <c r="B219" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="C219" s="23" t="s">
+      <c r="C219" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="D219" s="23" t="s">
+      <c r="D219" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="E219" s="25">
+      <c r="E219" s="24">
         <v>9744554438</v>
       </c>
       <c r="F219">
@@ -7069,16 +7304,16 @@
       <c r="A220">
         <v>219</v>
       </c>
-      <c r="B220" s="23" t="s">
+      <c r="B220" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="C220" s="23" t="s">
+      <c r="C220" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="D220" s="23" t="s">
+      <c r="D220" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="E220" s="25">
+      <c r="E220" s="24">
         <v>9964957091</v>
       </c>
       <c r="F220">
@@ -7092,16 +7327,16 @@
       <c r="A221">
         <v>220</v>
       </c>
-      <c r="B221" s="23" t="s">
+      <c r="B221" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="C221" s="23" t="s">
+      <c r="C221" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="D221" s="23" t="s">
+      <c r="D221" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="E221" s="26">
+      <c r="E221" s="25">
         <v>7560959766</v>
       </c>
       <c r="F221">
@@ -7115,16 +7350,16 @@
       <c r="A222">
         <v>221</v>
       </c>
-      <c r="B222" s="23" t="s">
+      <c r="B222" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="C222" s="23" t="s">
+      <c r="C222" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="D222" s="23" t="s">
+      <c r="D222" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="E222" s="24">
+      <c r="E222" s="23">
         <v>9495160498</v>
       </c>
       <c r="F222">
@@ -7138,16 +7373,16 @@
       <c r="A223">
         <v>222</v>
       </c>
-      <c r="B223" s="23" t="s">
+      <c r="B223" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="C223" s="23" t="s">
+      <c r="C223" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="D223" s="23" t="s">
+      <c r="D223" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="E223" s="26">
+      <c r="E223" s="25">
         <v>8113846597</v>
       </c>
       <c r="F223">
@@ -7408,6 +7643,765 @@
       </c>
       <c r="G234" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>229</v>
+      </c>
+      <c r="C235" t="s">
+        <v>8</v>
+      </c>
+      <c r="D235" t="s">
+        <v>55</v>
+      </c>
+      <c r="E235">
+        <v>8943449525</v>
+      </c>
+      <c r="F235">
+        <v>4</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>230</v>
+      </c>
+      <c r="C236" t="s">
+        <v>8</v>
+      </c>
+      <c r="D236" t="s">
+        <v>55</v>
+      </c>
+      <c r="E236">
+        <v>9567945899</v>
+      </c>
+      <c r="F236">
+        <v>4</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>231</v>
+      </c>
+      <c r="C237" t="s">
+        <v>8</v>
+      </c>
+      <c r="D237" t="s">
+        <v>55</v>
+      </c>
+      <c r="E237">
+        <v>9961732138</v>
+      </c>
+      <c r="F237">
+        <v>4</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>232</v>
+      </c>
+      <c r="C238" t="s">
+        <v>8</v>
+      </c>
+      <c r="D238" t="s">
+        <v>55</v>
+      </c>
+      <c r="E238">
+        <v>8547500275</v>
+      </c>
+      <c r="F238">
+        <v>4</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>233</v>
+      </c>
+      <c r="C239" t="s">
+        <v>8</v>
+      </c>
+      <c r="D239" t="s">
+        <v>55</v>
+      </c>
+      <c r="E239">
+        <v>7034592048</v>
+      </c>
+      <c r="F239">
+        <v>4</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" ht="15.15" spans="1:7">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>234</v>
+      </c>
+      <c r="C240" t="s">
+        <v>8</v>
+      </c>
+      <c r="D240" t="s">
+        <v>55</v>
+      </c>
+      <c r="E240">
+        <v>9539472384</v>
+      </c>
+      <c r="F240">
+        <v>4</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" ht="15.15" spans="1:7">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C241" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D241" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E241" s="9">
+        <v>8848516212</v>
+      </c>
+      <c r="F241">
+        <v>4</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" ht="15.15" spans="1:7">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C242" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D242" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E242" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F242">
+        <v>4</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" ht="15.15" spans="1:7">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C243" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D243" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E243" s="10">
+        <v>8921571451</v>
+      </c>
+      <c r="F243">
+        <v>4</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" ht="15.15" spans="1:7">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C244" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D244" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E244" s="10">
+        <v>8113907228</v>
+      </c>
+      <c r="F244">
+        <v>4</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" ht="15.15" spans="1:7">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C245" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E245" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F245">
+        <v>4</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" ht="15.15" spans="1:7">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C246" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D246" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E246" s="9">
+        <v>8301975837</v>
+      </c>
+      <c r="F246">
+        <v>4</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" ht="15.15" spans="1:7">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C247" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D247" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E247" s="10">
+        <v>9061769935</v>
+      </c>
+      <c r="F247">
+        <v>4</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" ht="15.15" spans="1:7">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C248" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D248" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E248" s="10">
+        <v>9072980414</v>
+      </c>
+      <c r="F248">
+        <v>4</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" ht="15.15" spans="1:7">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C249" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D249" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E249" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F249">
+        <v>4</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" ht="15.15" spans="1:7">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C250" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D250" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E250" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="F250">
+        <v>4</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="C251" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="D251" t="s">
+        <v>55</v>
+      </c>
+      <c r="E251" s="23">
+        <v>9188324563</v>
+      </c>
+      <c r="F251">
+        <v>4</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="C252" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="D252" t="s">
+        <v>55</v>
+      </c>
+      <c r="E252" s="23">
+        <v>9207995289</v>
+      </c>
+      <c r="F252">
+        <v>4</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="C253" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="D253" t="s">
+        <v>55</v>
+      </c>
+      <c r="E253" s="23">
+        <v>7736124331</v>
+      </c>
+      <c r="F253">
+        <v>4</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="C254" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="D254" t="s">
+        <v>55</v>
+      </c>
+      <c r="E254" s="23">
+        <v>9188504295</v>
+      </c>
+      <c r="F254">
+        <v>4</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="C255" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="D255" t="s">
+        <v>55</v>
+      </c>
+      <c r="E255" s="23">
+        <v>8921531028</v>
+      </c>
+      <c r="F255">
+        <v>4</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="C256" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="D256" t="s">
+        <v>55</v>
+      </c>
+      <c r="E256" s="23">
+        <v>8593861069</v>
+      </c>
+      <c r="F256">
+        <v>4</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="C257" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="D257" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="E257" s="23">
+        <v>7306121582</v>
+      </c>
+      <c r="F257">
+        <v>4</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="C258" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="D258" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="E258" s="23">
+        <v>8921470483</v>
+      </c>
+      <c r="F258">
+        <v>4</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C259" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="D259" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="E259" s="23">
+        <v>9072165548</v>
+      </c>
+      <c r="F259">
+        <v>4</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="C260" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="D260" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="E260" s="23">
+        <v>9400984870</v>
+      </c>
+      <c r="F260">
+        <v>4</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="C261" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="D261" t="s">
+        <v>55</v>
+      </c>
+      <c r="E261" s="23">
+        <v>9188324563</v>
+      </c>
+      <c r="F261">
+        <v>4</v>
+      </c>
+      <c r="G261" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="C262" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="D262" t="s">
+        <v>55</v>
+      </c>
+      <c r="E262" s="23">
+        <v>9207995289</v>
+      </c>
+      <c r="F262">
+        <v>4</v>
+      </c>
+      <c r="G262" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="C263" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="D263" t="s">
+        <v>55</v>
+      </c>
+      <c r="E263" s="23">
+        <v>7736124331</v>
+      </c>
+      <c r="F263">
+        <v>4</v>
+      </c>
+      <c r="G263" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="C264" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="D264" t="s">
+        <v>55</v>
+      </c>
+      <c r="E264" s="23">
+        <v>9188504295</v>
+      </c>
+      <c r="F264">
+        <v>4</v>
+      </c>
+      <c r="G264" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="C265" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="D265" t="s">
+        <v>55</v>
+      </c>
+      <c r="E265" s="23">
+        <v>8921531028</v>
+      </c>
+      <c r="F265">
+        <v>4</v>
+      </c>
+      <c r="G265" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="C266" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="D266" t="s">
+        <v>55</v>
+      </c>
+      <c r="E266" s="23">
+        <v>8593861069</v>
+      </c>
+      <c r="F266">
+        <v>4</v>
+      </c>
+      <c r="G266" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>258</v>
+      </c>
+      <c r="C267" t="s">
+        <v>8</v>
+      </c>
+      <c r="D267" t="s">
+        <v>55</v>
+      </c>
+      <c r="E267" t="s">
+        <v>259</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/assets/certificate.xlsx
+++ b/assets/certificate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="297">
   <si>
     <t>SI</t>
   </si>
@@ -864,6 +864,9 @@
       </rPr>
       <t>Lakshmi g harikumar</t>
     </r>
+  </si>
+  <si>
+    <t>Gadha krishan</t>
   </si>
   <si>
     <t>Anirudh M</t>
@@ -1085,18 +1088,244 @@
   <si>
     <t>75929 69978</t>
   </si>
+  <si>
+    <r>
+      <t>SAYANA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ARCHANA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>99649</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>57091</t>
+    </r>
+  </si>
+  <si>
+    <t>Diya raj</t>
+  </si>
+  <si>
+    <t>Achu R b</t>
+  </si>
+  <si>
+    <t>73064 89549</t>
+  </si>
+  <si>
+    <t>81578 37213</t>
+  </si>
+  <si>
+    <t>Sona Sasikumar M</t>
+  </si>
+  <si>
+    <t>Ashitha Prabhan</t>
+  </si>
+  <si>
+    <t>70128 76954</t>
+  </si>
+  <si>
+    <t>Renit Joby</t>
+  </si>
+  <si>
+    <t>96058 17028</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>97443 51170</t>
+    </r>
+  </si>
+  <si>
+    <t>Christeena Thomas</t>
+  </si>
+  <si>
+    <t>85908 17029</t>
+  </si>
+  <si>
+    <t>Astha G Pillai</t>
+  </si>
+  <si>
+    <t>Aisha H</t>
+  </si>
+  <si>
+    <t>6235 374 096</t>
+  </si>
+  <si>
+    <t>9496174807</t>
+  </si>
+  <si>
+    <t>9847133127</t>
+  </si>
+  <si>
+    <t>Rishi A</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>70122 07366</t>
+    </r>
+  </si>
+  <si>
+    <t>Nithin S</t>
+  </si>
+  <si>
+    <t>85905 29974</t>
+  </si>
+  <si>
+    <t>V Navaneeth Krishna</t>
+  </si>
+  <si>
+    <t>92070 46742</t>
+  </si>
+  <si>
+    <t>Sangeeth</t>
+  </si>
+  <si>
+    <t>Arjun Sivan</t>
+  </si>
+  <si>
+    <t>75101 13156</t>
+  </si>
+  <si>
+    <t>Ananthu Sathyanpalan</t>
+  </si>
+  <si>
+    <t>87142 91586</t>
+  </si>
+  <si>
+    <t>Aadarsh Manoj</t>
+  </si>
+  <si>
+    <t>85475 80861</t>
+  </si>
+  <si>
+    <t>Anoop Chandran</t>
+  </si>
+  <si>
+    <t>85473 68746</t>
+  </si>
+  <si>
+    <t>AnanthaKrishnan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="\+#,##0;\-#,##0"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="\+0;\-0"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="\+#,##0;\-#,##0"/>
     <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="\+0;\-0"/>
+    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1160,26 +1389,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1190,8 +1411,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1205,9 +1442,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1216,52 +1468,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1276,14 +1482,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1298,7 +1520,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1330,7 +1559,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1342,19 +1577,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1366,55 +1637,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1426,31 +1655,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1468,25 +1679,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1504,18 +1709,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1610,6 +1839,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1621,8 +1872,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1643,6 +1896,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1654,21 +1922,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1696,168 +1949,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1911,13 +2153,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1931,6 +2173,45 @@
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2251,16 +2532,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G267"/>
+  <dimension ref="A1:G311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="L235" sqref="L235"/>
+    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
+      <selection activeCell="H306" sqref="H306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="22.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="13.1111111111111"/>
+    <col min="5" max="6" width="15.6666666666667"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
@@ -7627,7 +7908,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="C234" s="10" t="s">
         <v>8</v>
@@ -7650,7 +7931,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C235" t="s">
         <v>8</v>
@@ -7673,7 +7954,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C236" t="s">
         <v>8</v>
@@ -7696,7 +7977,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C237" t="s">
         <v>8</v>
@@ -7719,7 +8000,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C238" t="s">
         <v>8</v>
@@ -7742,7 +8023,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C239" t="s">
         <v>8</v>
@@ -7765,7 +8046,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C240" t="s">
         <v>8</v>
@@ -7788,7 +8069,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C241" s="9" t="s">
         <v>8</v>
@@ -7811,7 +8092,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C242" s="10" t="s">
         <v>8</v>
@@ -7820,7 +8101,7 @@
         <v>55</v>
       </c>
       <c r="E242" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F242">
         <v>4</v>
@@ -7834,7 +8115,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C243" s="10" t="s">
         <v>8</v>
@@ -7857,7 +8138,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C244" s="10" t="s">
         <v>8</v>
@@ -7880,7 +8161,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C245" s="10" t="s">
         <v>8</v>
@@ -7889,7 +8170,7 @@
         <v>55</v>
       </c>
       <c r="E245" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F245">
         <v>4</v>
@@ -7972,7 +8253,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C249" s="10" t="s">
         <v>54</v>
@@ -7981,7 +8262,7 @@
         <v>9</v>
       </c>
       <c r="E249" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F249">
         <v>4</v>
@@ -7990,12 +8271,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" ht="15.15" spans="1:7">
+    <row r="250" spans="1:7">
       <c r="A250">
         <v>249</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C250" s="10" t="s">
         <v>54</v>
@@ -8004,7 +8285,7 @@
         <v>9</v>
       </c>
       <c r="E250" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F250">
         <v>4</v>
@@ -8018,7 +8299,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="22" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C251" s="22" t="s">
         <v>221</v>
@@ -8041,7 +8322,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="22" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C252" s="22" t="s">
         <v>221</v>
@@ -8064,7 +8345,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C253" s="22" t="s">
         <v>221</v>
@@ -8087,7 +8368,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C254" s="22" t="s">
         <v>221</v>
@@ -8110,7 +8391,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="22" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C255" s="22" t="s">
         <v>221</v>
@@ -8133,7 +8414,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="22" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C256" s="22" t="s">
         <v>221</v>
@@ -8156,13 +8437,13 @@
         <v>256</v>
       </c>
       <c r="B257" s="22" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C257" s="22" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D257" s="22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E257" s="23">
         <v>7306121582</v>
@@ -8179,10 +8460,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C258" s="22" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D258" s="22" t="s">
         <v>226</v>
@@ -8202,13 +8483,13 @@
         <v>258</v>
       </c>
       <c r="B259" s="22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C259" s="22" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D259" s="22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E259" s="23">
         <v>9072165548</v>
@@ -8225,10 +8506,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C260" s="22" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D260" s="22" t="s">
         <v>226</v>
@@ -8248,7 +8529,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="22" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C261" s="22" t="s">
         <v>221</v>
@@ -8271,7 +8552,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="22" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C262" s="22" t="s">
         <v>221</v>
@@ -8294,7 +8575,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C263" s="22" t="s">
         <v>221</v>
@@ -8317,7 +8598,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C264" s="22" t="s">
         <v>221</v>
@@ -8340,7 +8621,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="22" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C265" s="22" t="s">
         <v>221</v>
@@ -8363,7 +8644,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="22" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C266" s="22" t="s">
         <v>221</v>
@@ -8381,12 +8662,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" ht="15.15" spans="1:7">
       <c r="A267">
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C267" t="s">
         <v>8</v>
@@ -8395,12 +8676,949 @@
         <v>55</v>
       </c>
       <c r="E267" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F267">
         <v>0</v>
       </c>
       <c r="G267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" ht="15.15" spans="1:7">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="C268" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D268" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E268" s="26">
+        <v>8593899311</v>
+      </c>
+      <c r="F268">
+        <v>3</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" ht="15.15" spans="1:7">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="C269" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D269" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E269" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="F269">
+        <v>3</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" ht="15.15" spans="1:7">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="C270" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="D270" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E270" s="30">
+        <v>9188648541</v>
+      </c>
+      <c r="F270">
+        <v>3</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" ht="15.15" spans="1:7">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="C271" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="D271" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E271" s="31">
+        <v>9447347122</v>
+      </c>
+      <c r="F271">
+        <v>3</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" ht="15.15" spans="1:7">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="C272" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="D272" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E272" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="F272">
+        <v>3</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" ht="15.15" spans="1:7">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C273" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="D273" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E273" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="F273">
+        <v>3</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" ht="15.15" spans="1:7">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="C274" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D274" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E274" s="29">
+        <v>7994474783</v>
+      </c>
+      <c r="F274">
+        <v>3</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" ht="15.15" spans="1:7">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="C275" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D275" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E275" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="F275">
+        <v>3</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" ht="15.15" spans="1:7">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="C276" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D276" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E276" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="F276">
+        <v>3</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" ht="15.15" spans="1:7">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="C277" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D277" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E277" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="F277">
+        <v>3</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" ht="15.15" spans="1:7">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="C278" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D278" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E278" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="F278">
+        <v>3</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" ht="15.15" spans="1:7">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="C279" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D279" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E279" s="29">
+        <v>9447672198</v>
+      </c>
+      <c r="F279">
+        <v>3</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" ht="15.15" spans="1:7">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="C280" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D280" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E280" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="F280">
+        <v>3</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" ht="15.15" spans="1:7">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="C281" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D281" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E281" s="29">
+        <v>9447672198</v>
+      </c>
+      <c r="F281">
+        <v>3</v>
+      </c>
+      <c r="G281" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="282" ht="15.15" spans="1:7">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="C282" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D282" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E282" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="F282">
+        <v>3</v>
+      </c>
+      <c r="G282" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="283" ht="15.15" spans="1:7">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="C283" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="D283" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E283" s="30">
+        <v>9188648541</v>
+      </c>
+      <c r="F283">
+        <v>3</v>
+      </c>
+      <c r="G283" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="284" ht="15.15" spans="1:7">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="C284" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="D284" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E284" s="31">
+        <v>9447347122</v>
+      </c>
+      <c r="F284">
+        <v>3</v>
+      </c>
+      <c r="G284" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="285" ht="15.15" spans="1:7">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="C285" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="D285" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E285" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="F285">
+        <v>3</v>
+      </c>
+      <c r="G285" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="286" ht="15.15" spans="1:7">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C286" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="D286" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E286" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="F286">
+        <v>3</v>
+      </c>
+      <c r="G286" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="287" ht="15.15" spans="2:7">
+      <c r="B287" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="C287" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D287" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E287" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="F287" s="34">
+        <v>2</v>
+      </c>
+      <c r="G287" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" ht="15.15" spans="2:7">
+      <c r="B288" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C288" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D288" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E288" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="F288" s="34">
+        <v>2</v>
+      </c>
+      <c r="G288" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" ht="15.15" spans="2:7">
+      <c r="B289" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C289" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D289" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E289" s="36">
+        <v>9562875205</v>
+      </c>
+      <c r="F289" s="34">
+        <v>2</v>
+      </c>
+      <c r="G289" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" ht="15.15" spans="2:7">
+      <c r="B290" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="C290" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D290" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E290" s="36">
+        <v>8606749298</v>
+      </c>
+      <c r="F290" s="34">
+        <v>2</v>
+      </c>
+      <c r="G290" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" ht="15.15" spans="2:7">
+      <c r="B291" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="C291" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D291" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E291" s="36">
+        <v>9947663257</v>
+      </c>
+      <c r="F291" s="34">
+        <v>2</v>
+      </c>
+      <c r="G291" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" ht="15.15" spans="2:7">
+      <c r="B292" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C292" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D292" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E292" s="36">
+        <v>9744087257</v>
+      </c>
+      <c r="F292" s="34">
+        <v>2</v>
+      </c>
+      <c r="G292" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" ht="15.15" spans="2:7">
+      <c r="B293" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="C293" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D293" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E293" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="F293">
+        <v>4</v>
+      </c>
+      <c r="G293" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" ht="15.15" spans="2:7">
+      <c r="B294" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="C294" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="D294" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E294" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="F294">
+        <v>4</v>
+      </c>
+      <c r="G294" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" ht="15.15" spans="2:7">
+      <c r="B295" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="C295" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="D295" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E295" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="F295">
+        <v>4</v>
+      </c>
+      <c r="G295" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" ht="15.15" spans="2:7">
+      <c r="B296" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="C296" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="D296" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E296" s="27">
+        <v>7306446316</v>
+      </c>
+      <c r="F296">
+        <v>4</v>
+      </c>
+      <c r="G296" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" ht="15.15" spans="2:7">
+      <c r="B297" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="C297" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="D297" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E297" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="F297">
+        <v>4</v>
+      </c>
+      <c r="G297" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" ht="15.15" spans="2:7">
+      <c r="B298" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="C298" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="D298" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E298" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="F298">
+        <v>4</v>
+      </c>
+      <c r="G298" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" ht="15.15" spans="2:7">
+      <c r="B299" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="C299" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D299" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E299" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="F299">
+        <v>4</v>
+      </c>
+      <c r="G299" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" ht="15.15" spans="2:7">
+      <c r="B300" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="C300" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D300" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E300" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="F300">
+        <v>4</v>
+      </c>
+      <c r="G300" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" ht="15.15" spans="2:7">
+      <c r="B301" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C301" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D301" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E301" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F301">
+        <v>4</v>
+      </c>
+      <c r="G301" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" ht="15.15" spans="2:7">
+      <c r="B302" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C302" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D302" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E302" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="F302">
+        <v>4</v>
+      </c>
+      <c r="G302" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" ht="15.15" spans="2:7">
+      <c r="B303" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="C303" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D303" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E303" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="F303">
+        <v>4</v>
+      </c>
+      <c r="G303" s="34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="304" ht="15.15" spans="2:7">
+      <c r="B304" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="C304" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D304" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E304" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="F304">
+        <v>4</v>
+      </c>
+      <c r="G304" s="34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="305" ht="15.15" spans="2:7">
+      <c r="B305" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C305" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D305" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E305" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F305">
+        <v>4</v>
+      </c>
+      <c r="G305" s="34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="306" ht="15.15" spans="2:7">
+      <c r="B306" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C306" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D306" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E306" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="F306">
+        <v>4</v>
+      </c>
+      <c r="G306" s="34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="307" ht="15.15" spans="2:7">
+      <c r="B307" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C307" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D307" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E307" s="29">
+        <v>7994322927</v>
+      </c>
+      <c r="F307">
+        <v>4</v>
+      </c>
+      <c r="G307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" ht="15.15" spans="2:7">
+      <c r="B308" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C308" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D308" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E308" s="31">
+        <v>9539231717</v>
+      </c>
+      <c r="F308">
+        <v>4</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" ht="15.15" spans="2:7">
+      <c r="B309" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="C309" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D309" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E309" s="31">
+        <v>8891418626</v>
+      </c>
+      <c r="F309">
+        <v>4</v>
+      </c>
+      <c r="G309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" ht="15.15" spans="2:7">
+      <c r="B310" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C310" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D310" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E310" s="31">
+        <v>9188025758</v>
+      </c>
+      <c r="F310">
+        <v>4</v>
+      </c>
+      <c r="G310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" ht="15.15" spans="2:7">
+      <c r="B311" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C311" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D311" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E311" s="31">
+        <v>9946312522</v>
+      </c>
+      <c r="F311">
+        <v>4</v>
+      </c>
+      <c r="G311">
         <v>0</v>
       </c>
     </row>

--- a/assets/certificate.xlsx
+++ b/assets/certificate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="296">
   <si>
     <t>SI</t>
   </si>
@@ -682,10 +682,10 @@
     <t>+91 77365 93660</t>
   </si>
   <si>
-    <t>Gadha</t>
-  </si>
-  <si>
-    <t>+91 77367 34410</t>
+    <t>Gadha Krishnan</t>
+  </si>
+  <si>
+    <t>77367 34410</t>
   </si>
   <si>
     <t>Gopika prasad</t>
@@ -864,9 +864,6 @@
       </rPr>
       <t>Lakshmi g harikumar</t>
     </r>
-  </si>
-  <si>
-    <t>Gadha krishan</t>
   </si>
   <si>
     <t>Anirudh M</t>
@@ -1090,6 +1087,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>SAYANA</t>
     </r>
     <r>
@@ -1131,6 +1134,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>ARCHANA</t>
     </r>
     <r>
@@ -1172,6 +1181,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>99649</t>
     </r>
     <r>
@@ -1222,6 +1237,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -1260,6 +1281,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -1321,11 +1348,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="\+0;\-0"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="\+#,##0;\-#,##0"/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="\+#,##0;\-#,##0"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1389,13 +1416,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1405,7 +1425,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1419,10 +1454,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1434,17 +1500,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1459,60 +1524,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1526,8 +1538,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1559,7 +1586,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1571,7 +1676,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1583,7 +1712,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1595,43 +1742,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1643,103 +1760,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1856,7 +1883,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1865,33 +1892,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1927,6 +1928,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1954,7 +1981,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1963,143 +1993,140 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2159,7 +2186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2174,34 +2201,10 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2534,8 +2537,8 @@
   <sheetPr/>
   <dimension ref="A1:G311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
-      <selection activeCell="H306" sqref="H306"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="F207" sqref="F207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -7144,7 +7147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" ht="29.55" spans="1:7">
+    <row r="201" ht="15.15" spans="1:7">
       <c r="A201">
         <v>200</v>
       </c>
@@ -7167,7 +7170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" ht="29.55" spans="1:7">
+    <row r="202" ht="15.15" spans="1:7">
       <c r="A202">
         <v>201</v>
       </c>
@@ -7190,7 +7193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" ht="29.55" spans="1:7">
+    <row r="203" ht="15.15" spans="1:7">
       <c r="A203">
         <v>202</v>
       </c>
@@ -7213,7 +7216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" ht="29.55" spans="1:7">
+    <row r="204" ht="15.15" spans="1:7">
       <c r="A204">
         <v>203</v>
       </c>
@@ -7236,7 +7239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" ht="29.55" spans="1:7">
+    <row r="205" ht="15.15" spans="1:7">
       <c r="A205">
         <v>204</v>
       </c>
@@ -7259,7 +7262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" ht="29.55" spans="1:7">
+    <row r="206" ht="15.15" spans="1:7">
       <c r="A206">
         <v>205</v>
       </c>
@@ -7788,7 +7791,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="229" ht="29.55" spans="1:7">
+    <row r="229" ht="15.15" spans="1:7">
       <c r="A229">
         <v>228</v>
       </c>
@@ -7811,7 +7814,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="230" ht="29.55" spans="1:7">
+    <row r="230" ht="15.15" spans="1:7">
       <c r="A230">
         <v>229</v>
       </c>
@@ -7834,7 +7837,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="231" ht="29.55" spans="1:7">
+    <row r="231" ht="15.15" spans="1:7">
       <c r="A231">
         <v>230</v>
       </c>
@@ -7857,7 +7860,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="232" ht="29.55" spans="1:7">
+    <row r="232" ht="15.15" spans="1:7">
       <c r="A232">
         <v>231</v>
       </c>
@@ -7880,7 +7883,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="233" ht="29.55" spans="1:7">
+    <row r="233" ht="15.15" spans="1:7">
       <c r="A233">
         <v>232</v>
       </c>
@@ -7903,12 +7906,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="234" ht="29.55" spans="1:7">
+    <row r="234" ht="15.15" spans="1:7">
       <c r="A234">
         <v>233</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="C234" s="10" t="s">
         <v>8</v>
@@ -7931,7 +7934,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C235" t="s">
         <v>8</v>
@@ -7954,7 +7957,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C236" t="s">
         <v>8</v>
@@ -7977,7 +7980,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C237" t="s">
         <v>8</v>
@@ -8000,7 +8003,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C238" t="s">
         <v>8</v>
@@ -8023,7 +8026,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C239" t="s">
         <v>8</v>
@@ -8046,7 +8049,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C240" t="s">
         <v>8</v>
@@ -8069,7 +8072,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C241" s="9" t="s">
         <v>8</v>
@@ -8092,7 +8095,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C242" s="10" t="s">
         <v>8</v>
@@ -8101,7 +8104,7 @@
         <v>55</v>
       </c>
       <c r="E242" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F242">
         <v>4</v>
@@ -8115,7 +8118,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C243" s="10" t="s">
         <v>8</v>
@@ -8138,7 +8141,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C244" s="10" t="s">
         <v>8</v>
@@ -8161,7 +8164,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C245" s="10" t="s">
         <v>8</v>
@@ -8170,7 +8173,7 @@
         <v>55</v>
       </c>
       <c r="E245" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F245">
         <v>4</v>
@@ -8253,7 +8256,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C249" s="10" t="s">
         <v>54</v>
@@ -8262,7 +8265,7 @@
         <v>9</v>
       </c>
       <c r="E249" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F249">
         <v>4</v>
@@ -8271,12 +8274,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" ht="15.15" spans="1:7">
       <c r="A250">
         <v>249</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C250" s="10" t="s">
         <v>54</v>
@@ -8285,7 +8288,7 @@
         <v>9</v>
       </c>
       <c r="E250" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F250">
         <v>4</v>
@@ -8299,7 +8302,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C251" s="22" t="s">
         <v>221</v>
@@ -8322,7 +8325,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C252" s="22" t="s">
         <v>221</v>
@@ -8345,7 +8348,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C253" s="22" t="s">
         <v>221</v>
@@ -8368,7 +8371,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C254" s="22" t="s">
         <v>221</v>
@@ -8391,7 +8394,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C255" s="22" t="s">
         <v>221</v>
@@ -8414,7 +8417,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C256" s="22" t="s">
         <v>221</v>
@@ -8437,13 +8440,13 @@
         <v>256</v>
       </c>
       <c r="B257" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="C257" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="C257" s="22" t="s">
+      <c r="D257" s="22" t="s">
         <v>254</v>
-      </c>
-      <c r="D257" s="22" t="s">
-        <v>255</v>
       </c>
       <c r="E257" s="23">
         <v>7306121582</v>
@@ -8460,10 +8463,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C258" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D258" s="22" t="s">
         <v>226</v>
@@ -8483,13 +8486,13 @@
         <v>258</v>
       </c>
       <c r="B259" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C259" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="D259" s="22" t="s">
         <v>254</v>
-      </c>
-      <c r="D259" s="22" t="s">
-        <v>255</v>
       </c>
       <c r="E259" s="23">
         <v>9072165548</v>
@@ -8506,10 +8509,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C260" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D260" s="22" t="s">
         <v>226</v>
@@ -8529,7 +8532,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C261" s="22" t="s">
         <v>221</v>
@@ -8552,7 +8555,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C262" s="22" t="s">
         <v>221</v>
@@ -8575,7 +8578,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C263" s="22" t="s">
         <v>221</v>
@@ -8598,7 +8601,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C264" s="22" t="s">
         <v>221</v>
@@ -8621,7 +8624,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C265" s="22" t="s">
         <v>221</v>
@@ -8644,7 +8647,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C266" s="22" t="s">
         <v>221</v>
@@ -8667,7 +8670,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C267" t="s">
         <v>8</v>
@@ -8676,7 +8679,7 @@
         <v>55</v>
       </c>
       <c r="E267" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F267">
         <v>0</v>
@@ -8689,16 +8692,16 @@
       <c r="A268">
         <v>267</v>
       </c>
-      <c r="B268" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="C268" s="26" t="s">
+      <c r="B268" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="C268" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D268" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E268" s="26">
+      <c r="D268" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E268" s="15">
         <v>8593899311</v>
       </c>
       <c r="F268">
@@ -8712,17 +8715,17 @@
       <c r="A269">
         <v>268</v>
       </c>
-      <c r="B269" s="27" t="s">
+      <c r="B269" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C269" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D269" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E269" s="16" t="s">
         <v>262</v>
-      </c>
-      <c r="C269" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D269" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E269" s="27" t="s">
-        <v>263</v>
       </c>
       <c r="F269">
         <v>3</v>
@@ -8735,16 +8738,16 @@
       <c r="A270">
         <v>269</v>
       </c>
-      <c r="B270" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="C270" s="29" t="s">
+      <c r="B270" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C270" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="D270" s="29" t="s">
+      <c r="D270" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E270" s="30">
+      <c r="E270" s="26">
         <v>9188648541</v>
       </c>
       <c r="F270">
@@ -8758,16 +8761,16 @@
       <c r="A271">
         <v>270</v>
       </c>
-      <c r="B271" s="31" t="s">
+      <c r="B271" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C271" s="31" t="s">
+      <c r="C271" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D271" s="31" t="s">
+      <c r="D271" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E271" s="31">
+      <c r="E271" s="10">
         <v>9447347122</v>
       </c>
       <c r="F271">
@@ -8781,17 +8784,17 @@
       <c r="A272">
         <v>271</v>
       </c>
-      <c r="B272" s="31" t="s">
+      <c r="B272" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C272" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D272" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E272" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="C272" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="D272" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E272" s="31" t="s">
-        <v>266</v>
       </c>
       <c r="F272">
         <v>3</v>
@@ -8804,17 +8807,17 @@
       <c r="A273">
         <v>272</v>
       </c>
-      <c r="B273" s="31" t="s">
+      <c r="B273" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C273" s="32" t="s">
+      <c r="C273" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="D273" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E273" s="31" t="s">
-        <v>267</v>
+      <c r="D273" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E273" s="10" t="s">
+        <v>266</v>
       </c>
       <c r="F273">
         <v>3</v>
@@ -8827,16 +8830,16 @@
       <c r="A274">
         <v>273</v>
       </c>
-      <c r="B274" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="C274" s="29" t="s">
+      <c r="B274" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C274" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D274" s="29" t="s">
+      <c r="D274" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E274" s="29">
+      <c r="E274" s="9">
         <v>7994474783</v>
       </c>
       <c r="F274">
@@ -8850,17 +8853,17 @@
       <c r="A275">
         <v>274</v>
       </c>
-      <c r="B275" s="31" t="s">
+      <c r="B275" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C275" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D275" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E275" s="10" t="s">
         <v>269</v>
-      </c>
-      <c r="C275" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D275" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E275" s="31" t="s">
-        <v>270</v>
       </c>
       <c r="F275">
         <v>3</v>
@@ -8873,17 +8876,17 @@
       <c r="A276">
         <v>275</v>
       </c>
-      <c r="B276" s="31" t="s">
+      <c r="B276" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C276" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D276" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E276" s="10" t="s">
         <v>271</v>
-      </c>
-      <c r="C276" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D276" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E276" s="31" t="s">
-        <v>272</v>
       </c>
       <c r="F276">
         <v>3</v>
@@ -8896,17 +8899,17 @@
       <c r="A277">
         <v>276</v>
       </c>
-      <c r="B277" s="31" t="s">
+      <c r="B277" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C277" s="31" t="s">
+      <c r="C277" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D277" s="31" t="s">
+      <c r="D277" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E277" s="31" t="s">
-        <v>273</v>
+      <c r="E277" s="10" t="s">
+        <v>272</v>
       </c>
       <c r="F277">
         <v>3</v>
@@ -8919,17 +8922,17 @@
       <c r="A278">
         <v>277</v>
       </c>
-      <c r="B278" s="31" t="s">
+      <c r="B278" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C278" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D278" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E278" s="10" t="s">
         <v>274</v>
-      </c>
-      <c r="C278" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D278" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E278" s="31" t="s">
-        <v>275</v>
       </c>
       <c r="F278">
         <v>3</v>
@@ -8942,16 +8945,16 @@
       <c r="A279">
         <v>278</v>
       </c>
-      <c r="B279" s="29" t="s">
-        <v>276</v>
-      </c>
-      <c r="C279" s="29" t="s">
+      <c r="B279" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C279" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D279" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E279" s="29">
+      <c r="D279" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E279" s="9">
         <v>9447672198</v>
       </c>
       <c r="F279">
@@ -8965,17 +8968,17 @@
       <c r="A280">
         <v>279</v>
       </c>
-      <c r="B280" s="31" t="s">
+      <c r="B280" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C280" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D280" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E280" s="10" t="s">
         <v>277</v>
-      </c>
-      <c r="C280" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="D280" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E280" s="31" t="s">
-        <v>278</v>
       </c>
       <c r="F280">
         <v>3</v>
@@ -8988,16 +8991,16 @@
       <c r="A281">
         <v>280</v>
       </c>
-      <c r="B281" s="29" t="s">
-        <v>276</v>
-      </c>
-      <c r="C281" s="29" t="s">
+      <c r="B281" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C281" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D281" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E281" s="29">
+      <c r="D281" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E281" s="9">
         <v>9447672198</v>
       </c>
       <c r="F281">
@@ -9011,17 +9014,17 @@
       <c r="A282">
         <v>281</v>
       </c>
-      <c r="B282" s="31" t="s">
+      <c r="B282" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C282" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D282" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E282" s="10" t="s">
         <v>277</v>
-      </c>
-      <c r="C282" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="D282" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E282" s="31" t="s">
-        <v>278</v>
       </c>
       <c r="F282">
         <v>3</v>
@@ -9034,16 +9037,16 @@
       <c r="A283">
         <v>282</v>
       </c>
-      <c r="B283" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="C283" s="29" t="s">
+      <c r="B283" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C283" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="D283" s="29" t="s">
+      <c r="D283" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E283" s="30">
+      <c r="E283" s="26">
         <v>9188648541</v>
       </c>
       <c r="F283">
@@ -9057,16 +9060,16 @@
       <c r="A284">
         <v>283</v>
       </c>
-      <c r="B284" s="31" t="s">
+      <c r="B284" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C284" s="31" t="s">
+      <c r="C284" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D284" s="31" t="s">
+      <c r="D284" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E284" s="31">
+      <c r="E284" s="10">
         <v>9447347122</v>
       </c>
       <c r="F284">
@@ -9080,17 +9083,17 @@
       <c r="A285">
         <v>284</v>
       </c>
-      <c r="B285" s="31" t="s">
+      <c r="B285" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C285" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D285" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E285" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="C285" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="D285" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E285" s="31" t="s">
-        <v>266</v>
       </c>
       <c r="F285">
         <v>3</v>
@@ -9103,17 +9106,17 @@
       <c r="A286">
         <v>285</v>
       </c>
-      <c r="B286" s="31" t="s">
+      <c r="B286" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C286" s="32" t="s">
+      <c r="C286" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="D286" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E286" s="31" t="s">
-        <v>267</v>
+      <c r="D286" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E286" s="10" t="s">
+        <v>266</v>
       </c>
       <c r="F286">
         <v>3</v>
@@ -9123,416 +9126,416 @@
       </c>
     </row>
     <row r="287" ht="15.15" spans="2:7">
-      <c r="B287" s="33" t="s">
+      <c r="B287" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="C287" s="33" t="s">
+      <c r="C287" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D287" s="33" t="s">
+      <c r="D287" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E287" s="37" t="s">
+      <c r="E287" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="F287" s="20">
+        <v>2</v>
+      </c>
+      <c r="G287" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" ht="15.15" spans="2:7">
+      <c r="B288" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="C288" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D288" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E288" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="F287" s="34">
+      <c r="F288" s="20">
         <v>2</v>
       </c>
-      <c r="G287" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" ht="15.15" spans="2:7">
-      <c r="B288" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C288" s="35" t="s">
+      <c r="G288" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" ht="15.15" spans="2:7">
+      <c r="B289" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C289" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D288" s="35" t="s">
+      <c r="D289" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E288" s="38" t="s">
+      <c r="E289" s="28">
+        <v>9562875205</v>
+      </c>
+      <c r="F289" s="20">
+        <v>2</v>
+      </c>
+      <c r="G289" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" ht="15.15" spans="2:7">
+      <c r="B290" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="C290" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D290" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E290" s="28">
+        <v>8606749298</v>
+      </c>
+      <c r="F290" s="20">
+        <v>2</v>
+      </c>
+      <c r="G290" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" ht="15.15" spans="2:7">
+      <c r="B291" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C291" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D291" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E291" s="28">
+        <v>9947663257</v>
+      </c>
+      <c r="F291" s="20">
+        <v>2</v>
+      </c>
+      <c r="G291" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" ht="15.15" spans="2:7">
+      <c r="B292" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C292" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D292" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E292" s="28">
+        <v>9744087257</v>
+      </c>
+      <c r="F292" s="20">
+        <v>2</v>
+      </c>
+      <c r="G292" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" ht="15.15" spans="2:7">
+      <c r="B293" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="F288" s="34">
-        <v>2</v>
-      </c>
-      <c r="G288" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" ht="15.15" spans="2:7">
-      <c r="B289" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="C289" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D289" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E289" s="36">
-        <v>9562875205</v>
-      </c>
-      <c r="F289" s="34">
-        <v>2</v>
-      </c>
-      <c r="G289" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" ht="15.15" spans="2:7">
-      <c r="B290" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="C290" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D290" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E290" s="36">
-        <v>8606749298</v>
-      </c>
-      <c r="F290" s="34">
-        <v>2</v>
-      </c>
-      <c r="G290" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" ht="15.15" spans="2:7">
-      <c r="B291" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="C291" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D291" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E291" s="36">
-        <v>9947663257</v>
-      </c>
-      <c r="F291" s="34">
-        <v>2</v>
-      </c>
-      <c r="G291" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" ht="15.15" spans="2:7">
-      <c r="B292" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C292" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D292" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E292" s="36">
-        <v>9744087257</v>
-      </c>
-      <c r="F292" s="34">
-        <v>2</v>
-      </c>
-      <c r="G292" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" ht="15.15" spans="2:7">
-      <c r="B293" s="26" t="s">
+      <c r="C293" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="D293" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E293" s="15" t="s">
         <v>281</v>
-      </c>
-      <c r="C293" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="D293" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E293" s="26" t="s">
-        <v>282</v>
       </c>
       <c r="F293">
         <v>4</v>
       </c>
-      <c r="G293" s="34">
+      <c r="G293" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="294" ht="15.15" spans="2:7">
-      <c r="B294" s="27" t="s">
+      <c r="B294" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C294" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D294" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E294" s="16" t="s">
         <v>283</v>
-      </c>
-      <c r="C294" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="D294" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E294" s="27" t="s">
-        <v>284</v>
       </c>
       <c r="F294">
         <v>4</v>
       </c>
-      <c r="G294" s="34">
+      <c r="G294" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="295" ht="15.15" spans="2:7">
-      <c r="B295" s="27" t="s">
+      <c r="B295" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="C295" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D295" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E295" s="16" t="s">
         <v>285</v>
-      </c>
-      <c r="C295" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="D295" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E295" s="27" t="s">
-        <v>286</v>
       </c>
       <c r="F295">
         <v>4</v>
       </c>
-      <c r="G295" s="34">
+      <c r="G295" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="296" ht="15.15" spans="2:7">
-      <c r="B296" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="C296" s="27" t="s">
+      <c r="B296" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C296" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="D296" s="27" t="s">
+      <c r="D296" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E296" s="27">
+      <c r="E296" s="16">
         <v>7306446316</v>
       </c>
       <c r="F296">
         <v>4</v>
       </c>
-      <c r="G296" s="34">
+      <c r="G296" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="297" ht="15.15" spans="2:7">
-      <c r="B297" s="27" t="s">
+      <c r="B297" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C297" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D297" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E297" s="16" t="s">
         <v>288</v>
-      </c>
-      <c r="C297" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="D297" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E297" s="27" t="s">
-        <v>289</v>
       </c>
       <c r="F297">
         <v>4</v>
       </c>
-      <c r="G297" s="34">
+      <c r="G297" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="298" ht="15.15" spans="2:7">
-      <c r="B298" s="27" t="s">
+      <c r="B298" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C298" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D298" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E298" s="16" t="s">
         <v>290</v>
-      </c>
-      <c r="C298" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="D298" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E298" s="27" t="s">
-        <v>291</v>
       </c>
       <c r="F298">
         <v>4</v>
       </c>
-      <c r="G298" s="34">
+      <c r="G298" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="299" ht="15.15" spans="2:7">
-      <c r="B299" s="29" t="s">
+      <c r="B299" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C299" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D299" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E299" s="9" t="s">
         <v>292</v>
-      </c>
-      <c r="C299" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="D299" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E299" s="29" t="s">
-        <v>293</v>
       </c>
       <c r="F299">
         <v>4</v>
       </c>
-      <c r="G299" s="34">
+      <c r="G299" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="300" ht="15.15" spans="2:7">
-      <c r="B300" s="31" t="s">
-        <v>294</v>
-      </c>
-      <c r="C300" s="31" t="s">
+      <c r="B300" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C300" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D300" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E300" s="31" t="s">
+      <c r="D300" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E300" s="10" t="s">
         <v>155</v>
       </c>
       <c r="F300">
         <v>4</v>
       </c>
-      <c r="G300" s="34">
+      <c r="G300" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="301" ht="15.15" spans="2:7">
-      <c r="B301" s="31" t="s">
+      <c r="B301" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C301" s="31" t="s">
+      <c r="C301" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D301" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E301" s="31" t="s">
+      <c r="D301" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E301" s="10" t="s">
         <v>178</v>
       </c>
       <c r="F301">
         <v>4</v>
       </c>
-      <c r="G301" s="34">
+      <c r="G301" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="302" ht="15.15" spans="2:7">
-      <c r="B302" s="31" t="s">
+      <c r="B302" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C302" s="31" t="s">
+      <c r="C302" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D302" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E302" s="31" t="s">
+      <c r="D302" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E302" s="10" t="s">
         <v>181</v>
       </c>
       <c r="F302">
         <v>4</v>
       </c>
-      <c r="G302" s="34">
+      <c r="G302" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="303" ht="15.15" spans="2:7">
-      <c r="B303" s="29" t="s">
+      <c r="B303" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C303" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D303" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E303" s="9" t="s">
         <v>292</v>
-      </c>
-      <c r="C303" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="D303" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E303" s="29" t="s">
-        <v>293</v>
       </c>
       <c r="F303">
         <v>4</v>
       </c>
-      <c r="G303" s="34" t="s">
+      <c r="G303" s="20" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="304" ht="15.15" spans="2:7">
-      <c r="B304" s="31" t="s">
+      <c r="B304" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C304" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D304" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E304" s="10" t="s">
         <v>294</v>
-      </c>
-      <c r="C304" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="D304" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E304" s="31" t="s">
-        <v>295</v>
       </c>
       <c r="F304">
         <v>4</v>
       </c>
-      <c r="G304" s="34" t="s">
+      <c r="G304" s="20" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="305" ht="15.15" spans="2:7">
-      <c r="B305" s="31" t="s">
+      <c r="B305" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C305" s="31" t="s">
+      <c r="C305" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D305" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E305" s="31" t="s">
+      <c r="D305" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E305" s="10" t="s">
         <v>178</v>
       </c>
       <c r="F305">
         <v>4</v>
       </c>
-      <c r="G305" s="34" t="s">
+      <c r="G305" s="20" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="306" ht="15.15" spans="2:7">
-      <c r="B306" s="31" t="s">
+    <row r="306" spans="2:7">
+      <c r="B306" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C306" s="31" t="s">
+      <c r="C306" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D306" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E306" s="31" t="s">
+      <c r="D306" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E306" s="10" t="s">
         <v>181</v>
       </c>
       <c r="F306">
         <v>4</v>
       </c>
-      <c r="G306" s="34" t="s">
+      <c r="G306" s="20" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="307" ht="15.15" spans="2:7">
-      <c r="B307" s="29" t="s">
+      <c r="B307" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C307" s="29" t="s">
+      <c r="C307" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D307" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E307" s="29">
+      <c r="D307" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E307" s="9">
         <v>7994322927</v>
       </c>
       <c r="F307">
@@ -9543,16 +9546,16 @@
       </c>
     </row>
     <row r="308" ht="15.15" spans="2:7">
-      <c r="B308" s="31" t="s">
+      <c r="B308" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C308" s="31" t="s">
+      <c r="C308" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D308" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E308" s="31">
+      <c r="D308" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E308" s="10">
         <v>9539231717</v>
       </c>
       <c r="F308">
@@ -9563,16 +9566,16 @@
       </c>
     </row>
     <row r="309" ht="15.15" spans="2:7">
-      <c r="B309" s="31" t="s">
-        <v>296</v>
-      </c>
-      <c r="C309" s="31" t="s">
+      <c r="B309" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C309" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D309" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E309" s="31">
+      <c r="D309" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E309" s="10">
         <v>8891418626</v>
       </c>
       <c r="F309">
@@ -9583,16 +9586,16 @@
       </c>
     </row>
     <row r="310" ht="15.15" spans="2:7">
-      <c r="B310" s="31" t="s">
+      <c r="B310" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C310" s="31" t="s">
+      <c r="C310" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D310" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E310" s="31">
+      <c r="D310" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E310" s="10">
         <v>9188025758</v>
       </c>
       <c r="F310">
@@ -9602,17 +9605,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" ht="15.15" spans="2:7">
-      <c r="B311" s="31" t="s">
+    <row r="311" spans="2:7">
+      <c r="B311" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C311" s="31" t="s">
+      <c r="C311" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D311" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E311" s="31">
+      <c r="D311" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E311" s="10">
         <v>9946312522</v>
       </c>
       <c r="F311">

--- a/assets/certificate.xlsx
+++ b/assets/certificate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="296">
   <si>
     <t>SI</t>
   </si>
@@ -2537,8 +2537,8 @@
   <sheetPr/>
   <dimension ref="A1:G311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="F207" sqref="F207"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D230" sqref="D230:D234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -7147,7 +7147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" ht="15.15" spans="1:7">
+    <row r="201" spans="1:7">
       <c r="A201">
         <v>200</v>
       </c>
@@ -7157,8 +7157,8 @@
       <c r="C201" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D201" s="10">
-        <v>6</v>
+      <c r="D201" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="E201" s="10" t="s">
         <v>196</v>
@@ -7170,7 +7170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" ht="15.15" spans="1:7">
+    <row r="202" spans="1:7">
       <c r="A202">
         <v>201</v>
       </c>
@@ -7180,8 +7180,8 @@
       <c r="C202" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D202" s="10">
-        <v>6</v>
+      <c r="D202" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="E202" s="10" t="s">
         <v>198</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" ht="15.15" spans="1:7">
+    <row r="203" spans="1:7">
       <c r="A203">
         <v>202</v>
       </c>
@@ -7203,8 +7203,8 @@
       <c r="C203" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D203" s="10">
-        <v>6</v>
+      <c r="D203" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="E203" s="10" t="s">
         <v>200</v>
@@ -7216,7 +7216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" ht="15.15" spans="1:7">
+    <row r="204" spans="1:7">
       <c r="A204">
         <v>203</v>
       </c>
@@ -7226,8 +7226,8 @@
       <c r="C204" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D204" s="10">
-        <v>6</v>
+      <c r="D204" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="E204" s="10" t="s">
         <v>202</v>
@@ -7239,7 +7239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" ht="15.15" spans="1:7">
+    <row r="205" spans="1:7">
       <c r="A205">
         <v>204</v>
       </c>
@@ -7249,8 +7249,8 @@
       <c r="C205" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D205" s="10">
-        <v>6</v>
+      <c r="D205" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="E205" s="10" t="s">
         <v>204</v>
@@ -7272,8 +7272,8 @@
       <c r="C206" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D206" s="10">
-        <v>6</v>
+      <c r="D206" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="E206" s="10" t="s">
         <v>206</v>
@@ -7801,8 +7801,8 @@
       <c r="C229" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D229" s="10">
-        <v>6</v>
+      <c r="D229" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="E229" s="10" t="s">
         <v>196</v>
@@ -7824,8 +7824,8 @@
       <c r="C230" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D230" s="10">
-        <v>6</v>
+      <c r="D230" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="E230" s="10" t="s">
         <v>198</v>
@@ -7847,8 +7847,8 @@
       <c r="C231" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D231" s="10">
-        <v>6</v>
+      <c r="D231" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="E231" s="10" t="s">
         <v>200</v>
@@ -7870,8 +7870,8 @@
       <c r="C232" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D232" s="10">
-        <v>6</v>
+      <c r="D232" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="E232" s="10" t="s">
         <v>202</v>
@@ -7893,8 +7893,8 @@
       <c r="C233" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D233" s="10">
-        <v>6</v>
+      <c r="D233" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="E233" s="10" t="s">
         <v>204</v>
@@ -7916,8 +7916,8 @@
       <c r="C234" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D234" s="10">
-        <v>6</v>
+      <c r="D234" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="E234" s="10" t="s">
         <v>206</v>

--- a/assets/certificate.xlsx
+++ b/assets/certificate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="296">
   <si>
     <t>SI</t>
   </si>
@@ -608,9 +608,6 @@
   </si>
   <si>
     <t>79079 35316</t>
-  </si>
-  <si>
-    <t>77365 43858</t>
   </si>
   <si>
     <t>Sarath Santhosh</t>
@@ -1334,6 +1331,9 @@
   </si>
   <si>
     <t>Anoop Chandran</t>
+  </si>
+  <si>
+    <t>77365 43858</t>
   </si>
   <si>
     <t>85473 68746</t>
@@ -2535,10 +2535,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G311"/>
+  <dimension ref="A1:G308"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D230" sqref="D230:D234"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="H184" sqref="H184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -6572,7 +6572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" ht="15.15" spans="1:7">
+    <row r="176" spans="1:7">
       <c r="A176">
         <v>175</v>
       </c>
@@ -6595,12 +6595,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" ht="15.15" spans="1:7">
+    <row r="177" spans="1:7">
       <c r="A177">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="C177" s="12" t="s">
         <v>94</v>
@@ -6609,7 +6609,7 @@
         <v>55</v>
       </c>
       <c r="E177" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F177">
         <v>2</v>
@@ -6618,12 +6618,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" ht="15.15" spans="1:7">
+    <row r="178" spans="1:7">
       <c r="A178">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C178" s="12" t="s">
         <v>94</v>
@@ -6631,8 +6631,8 @@
       <c r="D178" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E178" s="12" t="s">
-        <v>183</v>
+      <c r="E178" s="12">
+        <v>8281315583</v>
       </c>
       <c r="F178">
         <v>2</v>
@@ -6641,32 +6641,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" ht="15.15" spans="1:7">
+    <row r="179" ht="16.35" spans="1:7">
       <c r="A179">
-        <v>178</v>
-      </c>
-      <c r="B179" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="C179" s="12" t="s">
-        <v>94</v>
+      <c r="C179" s="18" t="s">
+        <v>8</v>
       </c>
       <c r="D179" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E179" s="12">
-        <v>8281315583</v>
-      </c>
-      <c r="F179">
+      <c r="E179" s="19">
+        <v>919496174807</v>
+      </c>
+      <c r="F179" s="20">
         <v>2</v>
       </c>
-      <c r="G179">
+      <c r="G179" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="180" ht="16.35" spans="1:7">
       <c r="A180">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B180" s="18" t="s">
         <v>185</v>
@@ -6677,8 +6677,8 @@
       <c r="D180" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E180" s="19">
-        <v>919496174807</v>
+      <c r="E180" s="21">
+        <v>919847133127</v>
       </c>
       <c r="F180" s="20">
         <v>2</v>
@@ -6689,7 +6689,7 @@
     </row>
     <row r="181" ht="16.35" spans="1:7">
       <c r="A181">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B181" s="18" t="s">
         <v>186</v>
@@ -6701,7 +6701,7 @@
         <v>55</v>
       </c>
       <c r="E181" s="21">
-        <v>919847133127</v>
+        <v>919562875205</v>
       </c>
       <c r="F181" s="20">
         <v>2</v>
@@ -6712,7 +6712,7 @@
     </row>
     <row r="182" ht="16.35" spans="1:7">
       <c r="A182">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B182" s="18" t="s">
         <v>187</v>
@@ -6724,7 +6724,7 @@
         <v>55</v>
       </c>
       <c r="E182" s="21">
-        <v>919562875205</v>
+        <v>918606749298</v>
       </c>
       <c r="F182" s="20">
         <v>2</v>
@@ -6735,7 +6735,7 @@
     </row>
     <row r="183" ht="16.35" spans="1:7">
       <c r="A183">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B183" s="18" t="s">
         <v>188</v>
@@ -6747,7 +6747,7 @@
         <v>55</v>
       </c>
       <c r="E183" s="21">
-        <v>918606749298</v>
+        <v>919947663257</v>
       </c>
       <c r="F183" s="20">
         <v>2</v>
@@ -6758,7 +6758,7 @@
     </row>
     <row r="184" ht="16.35" spans="1:7">
       <c r="A184">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B184" s="18" t="s">
         <v>189</v>
@@ -6770,7 +6770,7 @@
         <v>55</v>
       </c>
       <c r="E184" s="21">
-        <v>919947663257</v>
+        <v>919744087257</v>
       </c>
       <c r="F184" s="20">
         <v>2</v>
@@ -6779,44 +6779,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" ht="16.35" spans="1:7">
+    <row r="185" spans="1:7">
       <c r="A185">
-        <v>184</v>
-      </c>
-      <c r="B185" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="C185" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D185" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E185" s="21">
-        <v>919744087257</v>
-      </c>
-      <c r="F185" s="20">
+        <v>185</v>
+      </c>
+      <c r="B185" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C185" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D185" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E185" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="F185">
         <v>2</v>
       </c>
-      <c r="G185" s="20">
-        <v>0</v>
+      <c r="G185" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="186" ht="15.15" spans="1:7">
       <c r="A186">
-        <v>185</v>
-      </c>
-      <c r="B186" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C186" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B186" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C186" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D186" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E186" s="17" t="s">
-        <v>176</v>
+      <c r="D186" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E186" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="F186">
         <v>2</v>
@@ -6827,10 +6827,10 @@
     </row>
     <row r="187" ht="15.15" spans="1:7">
       <c r="A187">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C187" s="12" t="s">
         <v>94</v>
@@ -6839,7 +6839,7 @@
         <v>55</v>
       </c>
       <c r="E187" s="12" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F187">
         <v>2</v>
@@ -6848,12 +6848,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="188" ht="15.15" spans="1:7">
+    <row r="188" spans="1:7">
       <c r="A188">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C188" s="12" t="s">
         <v>94</v>
@@ -6861,8 +6861,8 @@
       <c r="D188" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E188" s="12" t="s">
-        <v>180</v>
+      <c r="E188" s="12">
+        <v>8281315583</v>
       </c>
       <c r="F188">
         <v>2</v>
@@ -6871,90 +6871,90 @@
         <v>146</v>
       </c>
     </row>
-    <row r="189" ht="15.15" spans="1:7">
+    <row r="189" spans="1:7">
       <c r="A189">
-        <v>188</v>
-      </c>
-      <c r="B189" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C189" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B189" t="s">
+        <v>93</v>
+      </c>
+      <c r="C189" t="s">
         <v>94</v>
       </c>
-      <c r="D189" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E189" s="12" t="s">
-        <v>181</v>
+      <c r="D189" t="s">
+        <v>55</v>
+      </c>
+      <c r="E189">
+        <v>7736750537</v>
       </c>
       <c r="F189">
         <v>2</v>
       </c>
       <c r="G189" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="190" ht="15.15" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190">
-        <v>189</v>
-      </c>
-      <c r="B190" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C190" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B190" t="s">
+        <v>95</v>
+      </c>
+      <c r="C190" t="s">
         <v>94</v>
       </c>
-      <c r="D190" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E190" s="12" t="s">
-        <v>183</v>
+      <c r="D190" t="s">
+        <v>55</v>
+      </c>
+      <c r="E190" t="s">
+        <v>155</v>
       </c>
       <c r="F190">
         <v>2</v>
       </c>
       <c r="G190" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="191" ht="15.15" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191">
-        <v>190</v>
-      </c>
-      <c r="B191" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C191" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B191" t="s">
+        <v>156</v>
+      </c>
+      <c r="C191" t="s">
         <v>94</v>
       </c>
-      <c r="D191" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E191" s="12">
-        <v>8281315583</v>
+      <c r="D191" t="s">
+        <v>55</v>
+      </c>
+      <c r="E191" t="s">
+        <v>157</v>
       </c>
       <c r="F191">
         <v>2</v>
       </c>
       <c r="G191" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B192" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="C192" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="D192" t="s">
         <v>55</v>
       </c>
-      <c r="E192">
-        <v>7736750537</v>
+      <c r="E192" t="s">
+        <v>160</v>
       </c>
       <c r="F192">
         <v>2</v>
@@ -6963,12 +6963,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" ht="15.15" spans="1:7">
       <c r="A193">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B193" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="C193" t="s">
         <v>94</v>
@@ -6977,7 +6977,7 @@
         <v>55</v>
       </c>
       <c r="E193" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F193">
         <v>2</v>
@@ -6986,90 +6986,90 @@
         <v>147</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" ht="15.15" spans="1:7">
       <c r="A194">
-        <v>193</v>
-      </c>
-      <c r="B194" t="s">
-        <v>156</v>
-      </c>
-      <c r="C194" t="s">
-        <v>94</v>
-      </c>
-      <c r="D194" t="s">
-        <v>55</v>
-      </c>
-      <c r="E194" t="s">
-        <v>157</v>
+        <v>196</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C194" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D194" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E194" s="9">
+        <v>9526690977</v>
       </c>
       <c r="F194">
-        <v>2</v>
-      </c>
-      <c r="G194" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" ht="15.15" spans="1:7">
       <c r="A195">
-        <v>194</v>
-      </c>
-      <c r="B195" t="s">
-        <v>158</v>
-      </c>
-      <c r="C195" t="s">
-        <v>159</v>
-      </c>
-      <c r="D195" t="s">
-        <v>55</v>
-      </c>
-      <c r="E195" t="s">
-        <v>160</v>
+        <v>197</v>
+      </c>
+      <c r="B195" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D195" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E195" s="10">
+        <v>6282859883</v>
       </c>
       <c r="F195">
-        <v>2</v>
-      </c>
-      <c r="G195" t="s">
-        <v>147</v>
+        <v>1</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
       </c>
     </row>
     <row r="196" ht="15.15" spans="1:7">
       <c r="A196">
-        <v>195</v>
-      </c>
-      <c r="B196" t="s">
-        <v>161</v>
-      </c>
-      <c r="C196" t="s">
-        <v>94</v>
-      </c>
-      <c r="D196" t="s">
-        <v>55</v>
-      </c>
-      <c r="E196" t="s">
-        <v>162</v>
+        <v>198</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D196" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E196" s="10">
+        <v>8089669983</v>
       </c>
       <c r="F196">
-        <v>2</v>
-      </c>
-      <c r="G196" t="s">
-        <v>147</v>
+        <v>1</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
       </c>
     </row>
     <row r="197" ht="15.15" spans="1:7">
       <c r="A197">
-        <v>196</v>
-      </c>
-      <c r="B197" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C197" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C197" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D197" s="9" t="s">
+      <c r="D197" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E197" s="9">
-        <v>9526690977</v>
+      <c r="E197" s="10">
+        <v>6238053445</v>
       </c>
       <c r="F197">
         <v>1</v>
@@ -7078,21 +7078,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" ht="15.15" spans="1:7">
+    <row r="198" spans="1:7">
       <c r="A198">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>172</v>
+        <v>8</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E198" s="10">
-        <v>6282859883</v>
+        <v>9</v>
+      </c>
+      <c r="E198" s="10" t="s">
+        <v>195</v>
       </c>
       <c r="F198">
         <v>1</v>
@@ -7101,21 +7101,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" ht="15.15" spans="1:7">
+    <row r="199" spans="1:7">
       <c r="A199">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>172</v>
+        <v>8</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E199" s="10">
-        <v>8089669983</v>
+        <v>9</v>
+      </c>
+      <c r="E199" s="10" t="s">
+        <v>197</v>
       </c>
       <c r="F199">
         <v>1</v>
@@ -7124,21 +7124,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" ht="15.15" spans="1:7">
+    <row r="200" spans="1:7">
       <c r="A200">
+        <v>202</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D200" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E200" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="B200" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C200" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="D200" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E200" s="10">
-        <v>6238053445</v>
       </c>
       <c r="F200">
         <v>1</v>
@@ -7149,10 +7149,10 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201">
+        <v>203</v>
+      </c>
+      <c r="B201" s="10" t="s">
         <v>200</v>
-      </c>
-      <c r="B201" s="10" t="s">
-        <v>195</v>
       </c>
       <c r="C201" s="10" t="s">
         <v>8</v>
@@ -7161,7 +7161,7 @@
         <v>9</v>
       </c>
       <c r="E201" s="10" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F201">
         <v>1</v>
@@ -7172,10 +7172,10 @@
     </row>
     <row r="202" spans="1:7">
       <c r="A202">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C202" s="10" t="s">
         <v>8</v>
@@ -7184,7 +7184,7 @@
         <v>9</v>
       </c>
       <c r="E202" s="10" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="F202">
         <v>1</v>
@@ -7193,12 +7193,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" ht="15.15" spans="1:7">
       <c r="A203">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C203" s="10" t="s">
         <v>8</v>
@@ -7207,7 +7207,7 @@
         <v>9</v>
       </c>
       <c r="E203" s="10" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F203">
         <v>1</v>
@@ -7216,21 +7216,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" ht="15.15" spans="1:7">
       <c r="A204">
-        <v>203</v>
-      </c>
-      <c r="B204" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C204" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D204" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E204" s="10" t="s">
-        <v>202</v>
+        <v>206</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C204" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D204" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E204" s="9">
+        <v>9447347122</v>
       </c>
       <c r="F204">
         <v>1</v>
@@ -7239,21 +7239,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" ht="15.15" spans="1:7">
       <c r="A205">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>8</v>
+        <v>207</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E205" s="10" t="s">
-        <v>204</v>
+        <v>55</v>
+      </c>
+      <c r="E205" s="10">
+        <v>9961993695</v>
       </c>
       <c r="F205">
         <v>1</v>
@@ -7264,19 +7264,19 @@
     </row>
     <row r="206" ht="15.15" spans="1:7">
       <c r="A206">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>8</v>
+        <v>207</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E206" s="10" t="s">
-        <v>206</v>
+        <v>55</v>
+      </c>
+      <c r="E206" s="10">
+        <v>9633408966</v>
       </c>
       <c r="F206">
         <v>1</v>
@@ -7287,19 +7287,19 @@
     </row>
     <row r="207" ht="15.15" spans="1:7">
       <c r="A207">
-        <v>206</v>
-      </c>
-      <c r="B207" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B207" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C207" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C207" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D207" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E207" s="9">
-        <v>9447347122</v>
+      <c r="D207" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E207" s="10">
+        <v>8157837213</v>
       </c>
       <c r="F207">
         <v>1</v>
@@ -7310,19 +7310,19 @@
     </row>
     <row r="208" ht="15.15" spans="1:7">
       <c r="A208">
+        <v>210</v>
+      </c>
+      <c r="B208" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C208" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B208" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="C208" s="10" t="s">
-        <v>208</v>
-      </c>
       <c r="D208" s="10" t="s">
         <v>55</v>
       </c>
       <c r="E208" s="10">
-        <v>9961993695</v>
+        <v>7306489549</v>
       </c>
       <c r="F208">
         <v>1</v>
@@ -7331,21 +7331,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" ht="15.15" spans="1:7">
+    <row r="209" spans="1:7">
       <c r="A209">
-        <v>208</v>
-      </c>
-      <c r="B209" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C209" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D209" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E209" s="10">
-        <v>9633408966</v>
+        <v>211</v>
+      </c>
+      <c r="B209" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C209" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="D209" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E209" s="23">
+        <v>8590817029</v>
       </c>
       <c r="F209">
         <v>1</v>
@@ -7354,21 +7354,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" ht="15.15" spans="1:7">
+    <row r="210" spans="1:7">
       <c r="A210">
-        <v>209</v>
-      </c>
-      <c r="B210" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="C210" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D210" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E210" s="10">
-        <v>8157837213</v>
+        <v>212</v>
+      </c>
+      <c r="B210" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="C210" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="D210" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E210" s="23">
+        <v>9605817028</v>
       </c>
       <c r="F210">
         <v>1</v>
@@ -7377,21 +7377,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" ht="15.15" spans="1:7">
+    <row r="211" spans="1:7">
       <c r="A211">
-        <v>210</v>
-      </c>
-      <c r="B211" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C211" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D211" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E211" s="10">
-        <v>7306489549</v>
+        <v>213</v>
+      </c>
+      <c r="B211" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="C211" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="D211" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E211" s="23">
+        <v>9871435146</v>
       </c>
       <c r="F211">
         <v>1</v>
@@ -7402,19 +7402,19 @@
     </row>
     <row r="212" spans="1:7">
       <c r="A212">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B212" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="C212" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="C212" s="22" t="s">
-        <v>214</v>
-      </c>
       <c r="D212" s="23" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E212" s="23">
-        <v>8590817029</v>
+        <v>7012876954</v>
       </c>
       <c r="F212">
         <v>1</v>
@@ -7425,19 +7425,19 @@
     </row>
     <row r="213" spans="1:7">
       <c r="A213">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B213" s="22" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C213" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D213" s="23" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E213" s="23">
-        <v>9605817028</v>
+        <v>8089039551</v>
       </c>
       <c r="F213">
         <v>1</v>
@@ -7448,19 +7448,19 @@
     </row>
     <row r="214" spans="1:7">
       <c r="A214">
+        <v>216</v>
+      </c>
+      <c r="B214" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="C214" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="B214" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="C214" s="22" t="s">
-        <v>214</v>
-      </c>
       <c r="D214" s="23" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E214" s="23">
-        <v>9871435146</v>
+        <v>7902305635</v>
       </c>
       <c r="F214">
         <v>1</v>
@@ -7471,19 +7471,19 @@
     </row>
     <row r="215" spans="1:7">
       <c r="A215">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B215" s="22" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C215" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="D215" s="23" t="s">
-        <v>15</v>
+        <v>220</v>
+      </c>
+      <c r="D215" s="22" t="s">
+        <v>221</v>
       </c>
       <c r="E215" s="23">
-        <v>7012876954</v>
+        <v>8593899311</v>
       </c>
       <c r="F215">
         <v>1</v>
@@ -7494,19 +7494,19 @@
     </row>
     <row r="216" spans="1:7">
       <c r="A216">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B216" s="22" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C216" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="D216" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E216" s="23">
-        <v>8089039551</v>
+        <v>220</v>
+      </c>
+      <c r="D216" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="E216" s="24">
+        <v>9744554438</v>
       </c>
       <c r="F216">
         <v>1</v>
@@ -7517,19 +7517,19 @@
     </row>
     <row r="217" spans="1:7">
       <c r="A217">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B217" s="22" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C217" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="D217" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E217" s="23">
-        <v>7902305635</v>
+        <v>220</v>
+      </c>
+      <c r="D217" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="E217" s="24">
+        <v>9964957091</v>
       </c>
       <c r="F217">
         <v>1</v>
@@ -7540,19 +7540,19 @@
     </row>
     <row r="218" spans="1:7">
       <c r="A218">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B218" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="C218" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="C218" s="22" t="s">
-        <v>221</v>
-      </c>
       <c r="D218" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="E218" s="23">
-        <v>8593899311</v>
+        <v>225</v>
+      </c>
+      <c r="E218" s="25">
+        <v>7560959766</v>
       </c>
       <c r="F218">
         <v>1</v>
@@ -7563,19 +7563,19 @@
     </row>
     <row r="219" spans="1:7">
       <c r="A219">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B219" s="22" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C219" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D219" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="E219" s="24">
-        <v>9744554438</v>
+        <v>225</v>
+      </c>
+      <c r="E219" s="23">
+        <v>9495160498</v>
       </c>
       <c r="F219">
         <v>1</v>
@@ -7584,21 +7584,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" ht="15.15" spans="1:7">
       <c r="A220">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B220" s="22" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C220" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D220" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="E220" s="24">
-        <v>9964957091</v>
+        <v>225</v>
+      </c>
+      <c r="E220" s="25">
+        <v>8113846597</v>
       </c>
       <c r="F220">
         <v>1</v>
@@ -7607,90 +7607,90 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" ht="15.15" spans="1:7">
       <c r="A221">
-        <v>220</v>
-      </c>
-      <c r="B221" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="C221" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="D221" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="E221" s="25">
-        <v>7560959766</v>
+        <v>223</v>
+      </c>
+      <c r="B221" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C221" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D221" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E221" s="9">
+        <v>9447347122</v>
       </c>
       <c r="F221">
         <v>1</v>
       </c>
-      <c r="G221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7">
+      <c r="G221" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="222" ht="15.15" spans="1:7">
       <c r="A222">
-        <v>221</v>
-      </c>
-      <c r="B222" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="C222" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="D222" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="E222" s="23">
-        <v>9495160498</v>
+        <v>224</v>
+      </c>
+      <c r="B222" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C222" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D222" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E222" s="10">
+        <v>9961993695</v>
       </c>
       <c r="F222">
         <v>1</v>
       </c>
-      <c r="G222">
-        <v>0</v>
+      <c r="G222" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="223" ht="15.15" spans="1:7">
       <c r="A223">
-        <v>222</v>
-      </c>
-      <c r="B223" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="C223" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="D223" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="E223" s="25">
-        <v>8113846597</v>
+        <v>225</v>
+      </c>
+      <c r="B223" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C223" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D223" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E223" s="10">
+        <v>9633408966</v>
       </c>
       <c r="F223">
         <v>1</v>
       </c>
-      <c r="G223">
-        <v>0</v>
+      <c r="G223" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="224" ht="15.15" spans="1:7">
       <c r="A224">
-        <v>223</v>
-      </c>
-      <c r="B224" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B224" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C224" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C224" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D224" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E224" s="9">
-        <v>9447347122</v>
+      <c r="D224" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E224" s="10">
+        <v>8157837213</v>
       </c>
       <c r="F224">
         <v>1</v>
@@ -7701,19 +7701,19 @@
     </row>
     <row r="225" ht="15.15" spans="1:7">
       <c r="A225">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D225" s="10" t="s">
         <v>55</v>
       </c>
       <c r="E225" s="10">
-        <v>9961993695</v>
+        <v>7306489549</v>
       </c>
       <c r="F225">
         <v>1</v>
@@ -7724,79 +7724,79 @@
     </row>
     <row r="226" ht="15.15" spans="1:7">
       <c r="A226">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>208</v>
+        <v>8</v>
       </c>
       <c r="D226" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E226" s="10">
-        <v>9633408966</v>
+        <v>9</v>
+      </c>
+      <c r="E226" s="10" t="s">
+        <v>195</v>
       </c>
       <c r="F226">
         <v>1</v>
       </c>
       <c r="G226" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="227" ht="15.15" spans="1:7">
       <c r="A227">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>208</v>
+        <v>8</v>
       </c>
       <c r="D227" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E227" s="10">
-        <v>8157837213</v>
+        <v>9</v>
+      </c>
+      <c r="E227" s="10" t="s">
+        <v>197</v>
       </c>
       <c r="F227">
         <v>1</v>
       </c>
       <c r="G227" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="228" ht="15.15" spans="1:7">
       <c r="A228">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>208</v>
+        <v>8</v>
       </c>
       <c r="D228" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E228" s="10">
-        <v>7306489549</v>
+        <v>9</v>
+      </c>
+      <c r="E228" s="10" t="s">
+        <v>199</v>
       </c>
       <c r="F228">
         <v>1</v>
       </c>
       <c r="G228" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="229" ht="15.15" spans="1:7">
       <c r="A229">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C229" s="10" t="s">
         <v>8</v>
@@ -7805,7 +7805,7 @@
         <v>9</v>
       </c>
       <c r="E229" s="10" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F229">
         <v>1</v>
@@ -7816,10 +7816,10 @@
     </row>
     <row r="230" ht="15.15" spans="1:7">
       <c r="A230">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C230" s="10" t="s">
         <v>8</v>
@@ -7828,7 +7828,7 @@
         <v>9</v>
       </c>
       <c r="E230" s="10" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="F230">
         <v>1</v>
@@ -7839,10 +7839,10 @@
     </row>
     <row r="231" ht="15.15" spans="1:7">
       <c r="A231">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C231" s="10" t="s">
         <v>8</v>
@@ -7851,7 +7851,7 @@
         <v>9</v>
       </c>
       <c r="E231" s="10" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F231">
         <v>1</v>
@@ -7860,81 +7860,81 @@
         <v>147</v>
       </c>
     </row>
-    <row r="232" ht="15.15" spans="1:7">
+    <row r="232" spans="1:7">
       <c r="A232">
-        <v>231</v>
-      </c>
-      <c r="B232" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C232" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B232" t="s">
+        <v>228</v>
+      </c>
+      <c r="C232" t="s">
         <v>8</v>
       </c>
-      <c r="D232" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E232" s="10" t="s">
-        <v>202</v>
+      <c r="D232" t="s">
+        <v>55</v>
+      </c>
+      <c r="E232">
+        <v>8943449525</v>
       </c>
       <c r="F232">
-        <v>1</v>
-      </c>
-      <c r="G232" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="233" ht="15.15" spans="1:7">
+        <v>4</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
       <c r="A233">
-        <v>232</v>
-      </c>
-      <c r="B233" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C233" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B233" t="s">
+        <v>229</v>
+      </c>
+      <c r="C233" t="s">
         <v>8</v>
       </c>
-      <c r="D233" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E233" s="10" t="s">
-        <v>204</v>
+      <c r="D233" t="s">
+        <v>55</v>
+      </c>
+      <c r="E233">
+        <v>9567945899</v>
       </c>
       <c r="F233">
-        <v>1</v>
-      </c>
-      <c r="G233" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="234" ht="15.15" spans="1:7">
+        <v>4</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
       <c r="A234">
-        <v>233</v>
-      </c>
-      <c r="B234" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C234" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B234" t="s">
+        <v>230</v>
+      </c>
+      <c r="C234" t="s">
         <v>8</v>
       </c>
-      <c r="D234" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E234" s="10" t="s">
-        <v>206</v>
+      <c r="D234" t="s">
+        <v>55</v>
+      </c>
+      <c r="E234">
+        <v>9961732138</v>
       </c>
       <c r="F234">
-        <v>1</v>
-      </c>
-      <c r="G234" t="s">
-        <v>147</v>
+        <v>4</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B235" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C235" t="s">
         <v>8</v>
@@ -7943,7 +7943,7 @@
         <v>55</v>
       </c>
       <c r="E235">
-        <v>8943449525</v>
+        <v>8547500275</v>
       </c>
       <c r="F235">
         <v>4</v>
@@ -7954,10 +7954,10 @@
     </row>
     <row r="236" spans="1:7">
       <c r="A236">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B236" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C236" t="s">
         <v>8</v>
@@ -7966,7 +7966,7 @@
         <v>55</v>
       </c>
       <c r="E236">
-        <v>9567945899</v>
+        <v>7034592048</v>
       </c>
       <c r="F236">
         <v>4</v>
@@ -7975,12 +7975,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" ht="15.15" spans="1:7">
       <c r="A237">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B237" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C237" t="s">
         <v>8</v>
@@ -7989,7 +7989,7 @@
         <v>55</v>
       </c>
       <c r="E237">
-        <v>9961732138</v>
+        <v>9539472384</v>
       </c>
       <c r="F237">
         <v>4</v>
@@ -7998,21 +7998,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" ht="15.15" spans="1:7">
       <c r="A238">
-        <v>237</v>
-      </c>
-      <c r="B238" t="s">
-        <v>232</v>
-      </c>
-      <c r="C238" t="s">
+        <v>240</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C238" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D238" t="s">
-        <v>55</v>
-      </c>
-      <c r="E238">
-        <v>8547500275</v>
+      <c r="D238" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E238" s="9">
+        <v>8848516212</v>
       </c>
       <c r="F238">
         <v>4</v>
@@ -8021,21 +8021,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" ht="15.15" spans="1:7">
       <c r="A239">
-        <v>238</v>
-      </c>
-      <c r="B239" t="s">
-        <v>233</v>
-      </c>
-      <c r="C239" t="s">
+        <v>241</v>
+      </c>
+      <c r="B239" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C239" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D239" t="s">
-        <v>55</v>
-      </c>
-      <c r="E239">
-        <v>7034592048</v>
+      <c r="D239" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E239" s="10" t="s">
+        <v>236</v>
       </c>
       <c r="F239">
         <v>4</v>
@@ -8046,19 +8046,19 @@
     </row>
     <row r="240" ht="15.15" spans="1:7">
       <c r="A240">
-        <v>239</v>
-      </c>
-      <c r="B240" t="s">
-        <v>234</v>
-      </c>
-      <c r="C240" t="s">
+        <v>242</v>
+      </c>
+      <c r="B240" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C240" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D240" t="s">
-        <v>55</v>
-      </c>
-      <c r="E240">
-        <v>9539472384</v>
+      <c r="D240" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E240" s="10">
+        <v>8921571451</v>
       </c>
       <c r="F240">
         <v>4</v>
@@ -8069,19 +8069,19 @@
     </row>
     <row r="241" ht="15.15" spans="1:7">
       <c r="A241">
-        <v>240</v>
-      </c>
-      <c r="B241" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C241" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B241" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C241" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D241" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E241" s="9">
-        <v>8848516212</v>
+      <c r="D241" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E241" s="10">
+        <v>8113907228</v>
       </c>
       <c r="F241">
         <v>4</v>
@@ -8092,10 +8092,10 @@
     </row>
     <row r="242" ht="15.15" spans="1:7">
       <c r="A242">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C242" s="10" t="s">
         <v>8</v>
@@ -8104,7 +8104,7 @@
         <v>55</v>
       </c>
       <c r="E242" s="10" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F242">
         <v>4</v>
@@ -8115,19 +8115,19 @@
     </row>
     <row r="243" ht="15.15" spans="1:7">
       <c r="A243">
-        <v>242</v>
-      </c>
-      <c r="B243" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C243" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D243" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E243" s="10">
-        <v>8921571451</v>
+        <v>245</v>
+      </c>
+      <c r="B243" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C243" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D243" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E243" s="9">
+        <v>8301975837</v>
       </c>
       <c r="F243">
         <v>4</v>
@@ -8138,19 +8138,19 @@
     </row>
     <row r="244" ht="15.15" spans="1:7">
       <c r="A244">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>239</v>
+        <v>72</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D244" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="D244" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="E244" s="10">
-        <v>8113907228</v>
+        <v>9061769935</v>
       </c>
       <c r="F244">
         <v>4</v>
@@ -8161,19 +8161,19 @@
     </row>
     <row r="245" ht="15.15" spans="1:7">
       <c r="A245">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>240</v>
+        <v>74</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D245" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E245" s="10" t="s">
-        <v>241</v>
+        <v>54</v>
+      </c>
+      <c r="D245" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E245" s="10">
+        <v>9072980414</v>
       </c>
       <c r="F245">
         <v>4</v>
@@ -8184,19 +8184,19 @@
     </row>
     <row r="246" ht="15.15" spans="1:7">
       <c r="A246">
-        <v>245</v>
-      </c>
-      <c r="B246" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C246" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B246" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C246" s="10" t="s">
         <v>54</v>
       </c>
       <c r="D246" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E246" s="9">
-        <v>8301975837</v>
+      <c r="E246" s="10" t="s">
+        <v>242</v>
       </c>
       <c r="F246">
         <v>4</v>
@@ -8207,10 +8207,10 @@
     </row>
     <row r="247" ht="15.15" spans="1:7">
       <c r="A247">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>72</v>
+        <v>243</v>
       </c>
       <c r="C247" s="10" t="s">
         <v>54</v>
@@ -8218,8 +8218,8 @@
       <c r="D247" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E247" s="10">
-        <v>9061769935</v>
+      <c r="E247" s="10" t="s">
+        <v>244</v>
       </c>
       <c r="F247">
         <v>4</v>
@@ -8228,21 +8228,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" ht="15.15" spans="1:7">
+    <row r="248" spans="1:7">
       <c r="A248">
-        <v>247</v>
-      </c>
-      <c r="B248" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C248" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D248" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E248" s="10">
-        <v>9072980414</v>
+        <v>250</v>
+      </c>
+      <c r="B248" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="C248" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="D248" t="s">
+        <v>55</v>
+      </c>
+      <c r="E248" s="23">
+        <v>9188324563</v>
       </c>
       <c r="F248">
         <v>4</v>
@@ -8251,21 +8251,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" ht="15.15" spans="1:7">
+    <row r="249" spans="1:7">
       <c r="A249">
-        <v>248</v>
-      </c>
-      <c r="B249" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="C249" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D249" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E249" s="10" t="s">
-        <v>243</v>
+        <v>251</v>
+      </c>
+      <c r="B249" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="C249" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="D249" t="s">
+        <v>55</v>
+      </c>
+      <c r="E249" s="23">
+        <v>9207995289</v>
       </c>
       <c r="F249">
         <v>4</v>
@@ -8274,21 +8274,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" ht="15.15" spans="1:7">
+    <row r="250" spans="1:7">
       <c r="A250">
-        <v>249</v>
-      </c>
-      <c r="B250" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C250" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D250" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E250" s="10" t="s">
-        <v>245</v>
+        <v>252</v>
+      </c>
+      <c r="B250" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="C250" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="D250" t="s">
+        <v>55</v>
+      </c>
+      <c r="E250" s="23">
+        <v>7736124331</v>
       </c>
       <c r="F250">
         <v>4</v>
@@ -8299,19 +8299,19 @@
     </row>
     <row r="251" spans="1:7">
       <c r="A251">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B251" s="22" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C251" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D251" t="s">
         <v>55</v>
       </c>
       <c r="E251" s="23">
-        <v>9188324563</v>
+        <v>9188504295</v>
       </c>
       <c r="F251">
         <v>4</v>
@@ -8322,19 +8322,19 @@
     </row>
     <row r="252" spans="1:7">
       <c r="A252">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B252" s="22" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C252" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D252" t="s">
         <v>55</v>
       </c>
       <c r="E252" s="23">
-        <v>9207995289</v>
+        <v>8921531028</v>
       </c>
       <c r="F252">
         <v>4</v>
@@ -8345,19 +8345,19 @@
     </row>
     <row r="253" spans="1:7">
       <c r="A253">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B253" s="22" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C253" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D253" t="s">
         <v>55</v>
       </c>
       <c r="E253" s="23">
-        <v>7736124331</v>
+        <v>8593861069</v>
       </c>
       <c r="F253">
         <v>4</v>
@@ -8368,19 +8368,19 @@
     </row>
     <row r="254" spans="1:7">
       <c r="A254">
+        <v>256</v>
+      </c>
+      <c r="B254" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="C254" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="D254" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="B254" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="C254" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="D254" t="s">
-        <v>55</v>
-      </c>
       <c r="E254" s="23">
-        <v>9188504295</v>
+        <v>7306121582</v>
       </c>
       <c r="F254">
         <v>4</v>
@@ -8391,19 +8391,19 @@
     </row>
     <row r="255" spans="1:7">
       <c r="A255">
+        <v>257</v>
+      </c>
+      <c r="B255" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="B255" s="22" t="s">
-        <v>250</v>
-      </c>
       <c r="C255" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="D255" t="s">
-        <v>55</v>
+        <v>252</v>
+      </c>
+      <c r="D255" s="22" t="s">
+        <v>225</v>
       </c>
       <c r="E255" s="23">
-        <v>8921531028</v>
+        <v>8921470483</v>
       </c>
       <c r="F255">
         <v>4</v>
@@ -8414,19 +8414,19 @@
     </row>
     <row r="256" spans="1:7">
       <c r="A256">
+        <v>258</v>
+      </c>
+      <c r="B256" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="B256" s="22" t="s">
-        <v>251</v>
-      </c>
       <c r="C256" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="D256" t="s">
-        <v>55</v>
+        <v>252</v>
+      </c>
+      <c r="D256" s="22" t="s">
+        <v>253</v>
       </c>
       <c r="E256" s="23">
-        <v>8593861069</v>
+        <v>9072165548</v>
       </c>
       <c r="F256">
         <v>4</v>
@@ -8437,19 +8437,19 @@
     </row>
     <row r="257" spans="1:7">
       <c r="A257">
+        <v>259</v>
+      </c>
+      <c r="B257" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="B257" s="22" t="s">
+      <c r="C257" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C257" s="22" t="s">
-        <v>253</v>
-      </c>
       <c r="D257" s="22" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="E257" s="23">
-        <v>7306121582</v>
+        <v>9400984870</v>
       </c>
       <c r="F257">
         <v>4</v>
@@ -8460,88 +8460,88 @@
     </row>
     <row r="258" spans="1:7">
       <c r="A258">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B258" s="22" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C258" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="D258" s="22" t="s">
-        <v>226</v>
+        <v>220</v>
+      </c>
+      <c r="D258" t="s">
+        <v>55</v>
       </c>
       <c r="E258" s="23">
-        <v>8921470483</v>
+        <v>9188324563</v>
       </c>
       <c r="F258">
         <v>4</v>
       </c>
-      <c r="G258">
-        <v>0</v>
+      <c r="G258" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="259" spans="1:7">
       <c r="A259">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B259" s="22" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C259" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="D259" s="22" t="s">
-        <v>254</v>
+        <v>220</v>
+      </c>
+      <c r="D259" t="s">
+        <v>55</v>
       </c>
       <c r="E259" s="23">
-        <v>9072165548</v>
+        <v>9207995289</v>
       </c>
       <c r="F259">
         <v>4</v>
       </c>
-      <c r="G259">
-        <v>0</v>
+      <c r="G259" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="260" spans="1:7">
       <c r="A260">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B260" s="22" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C260" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="D260" s="22" t="s">
-        <v>226</v>
+        <v>220</v>
+      </c>
+      <c r="D260" t="s">
+        <v>55</v>
       </c>
       <c r="E260" s="23">
-        <v>9400984870</v>
+        <v>7736124331</v>
       </c>
       <c r="F260">
         <v>4</v>
       </c>
-      <c r="G260">
-        <v>0</v>
+      <c r="G260" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="261" spans="1:7">
       <c r="A261">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B261" s="22" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C261" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D261" t="s">
         <v>55</v>
       </c>
       <c r="E261" s="23">
-        <v>9188324563</v>
+        <v>9188504295</v>
       </c>
       <c r="F261">
         <v>4</v>
@@ -8552,19 +8552,19 @@
     </row>
     <row r="262" spans="1:7">
       <c r="A262">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B262" s="22" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C262" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D262" t="s">
         <v>55</v>
       </c>
       <c r="E262" s="23">
-        <v>9207995289</v>
+        <v>8921531028</v>
       </c>
       <c r="F262">
         <v>4</v>
@@ -8575,19 +8575,19 @@
     </row>
     <row r="263" spans="1:7">
       <c r="A263">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B263" s="22" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C263" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D263" t="s">
         <v>55</v>
       </c>
       <c r="E263" s="23">
-        <v>7736124331</v>
+        <v>8593861069</v>
       </c>
       <c r="F263">
         <v>4</v>
@@ -8596,93 +8596,93 @@
         <v>147</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" ht="15.15" spans="1:7">
       <c r="A264">
-        <v>263</v>
-      </c>
-      <c r="B264" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="C264" s="22" t="s">
-        <v>221</v>
+        <v>266</v>
+      </c>
+      <c r="B264" t="s">
+        <v>257</v>
+      </c>
+      <c r="C264" t="s">
+        <v>8</v>
       </c>
       <c r="D264" t="s">
         <v>55</v>
       </c>
-      <c r="E264" s="23">
-        <v>9188504295</v>
+      <c r="E264" t="s">
+        <v>258</v>
       </c>
       <c r="F264">
-        <v>4</v>
-      </c>
-      <c r="G264" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" ht="15.15" spans="1:7">
       <c r="A265">
-        <v>264</v>
-      </c>
-      <c r="B265" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="C265" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="D265" t="s">
-        <v>55</v>
-      </c>
-      <c r="E265" s="23">
-        <v>8921531028</v>
+        <v>267</v>
+      </c>
+      <c r="B265" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C265" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D265" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E265" s="15">
+        <v>8593899311</v>
       </c>
       <c r="F265">
-        <v>4</v>
-      </c>
-      <c r="G265" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" ht="15.15" spans="1:7">
       <c r="A266">
-        <v>265</v>
-      </c>
-      <c r="B266" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="C266" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="D266" t="s">
-        <v>55</v>
-      </c>
-      <c r="E266" s="23">
-        <v>8593861069</v>
+        <v>268</v>
+      </c>
+      <c r="B266" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C266" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D266" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E266" s="16" t="s">
+        <v>261</v>
       </c>
       <c r="F266">
-        <v>4</v>
-      </c>
-      <c r="G266" t="s">
-        <v>147</v>
+        <v>3</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
       </c>
     </row>
     <row r="267" ht="15.15" spans="1:7">
       <c r="A267">
-        <v>266</v>
-      </c>
-      <c r="B267" t="s">
-        <v>258</v>
-      </c>
-      <c r="C267" t="s">
-        <v>8</v>
-      </c>
-      <c r="D267" t="s">
-        <v>55</v>
-      </c>
-      <c r="E267" t="s">
-        <v>259</v>
+        <v>269</v>
+      </c>
+      <c r="B267" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C267" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D267" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E267" s="26">
+        <v>9188648541</v>
       </c>
       <c r="F267">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G267">
         <v>0</v>
@@ -8690,19 +8690,19 @@
     </row>
     <row r="268" ht="15.15" spans="1:7">
       <c r="A268">
-        <v>267</v>
-      </c>
-      <c r="B268" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="C268" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D268" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E268" s="15">
-        <v>8593899311</v>
+        <v>270</v>
+      </c>
+      <c r="B268" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C268" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D268" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E268" s="10">
+        <v>9447347122</v>
       </c>
       <c r="F268">
         <v>3</v>
@@ -8713,19 +8713,19 @@
     </row>
     <row r="269" ht="15.15" spans="1:7">
       <c r="A269">
-        <v>268</v>
-      </c>
-      <c r="B269" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C269" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D269" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E269" s="16" t="s">
-        <v>262</v>
+        <v>271</v>
+      </c>
+      <c r="B269" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C269" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D269" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E269" s="10" t="s">
+        <v>264</v>
       </c>
       <c r="F269">
         <v>3</v>
@@ -8736,19 +8736,19 @@
     </row>
     <row r="270" ht="15.15" spans="1:7">
       <c r="A270">
-        <v>269</v>
-      </c>
-      <c r="B270" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="C270" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D270" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E270" s="26">
-        <v>9188648541</v>
+        <v>272</v>
+      </c>
+      <c r="B270" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C270" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D270" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E270" s="10" t="s">
+        <v>265</v>
       </c>
       <c r="F270">
         <v>3</v>
@@ -8759,19 +8759,19 @@
     </row>
     <row r="271" ht="15.15" spans="1:7">
       <c r="A271">
-        <v>270</v>
-      </c>
-      <c r="B271" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C271" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D271" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E271" s="10">
-        <v>9447347122</v>
+        <v>273</v>
+      </c>
+      <c r="B271" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C271" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D271" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E271" s="9">
+        <v>7994474783</v>
       </c>
       <c r="F271">
         <v>3</v>
@@ -8782,19 +8782,19 @@
     </row>
     <row r="272" ht="15.15" spans="1:7">
       <c r="A272">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="C272" s="12" t="s">
-        <v>208</v>
+        <v>267</v>
+      </c>
+      <c r="C272" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="D272" s="10" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E272" s="10" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F272">
         <v>3</v>
@@ -8805,19 +8805,19 @@
     </row>
     <row r="273" ht="15.15" spans="1:7">
       <c r="A273">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="C273" s="12" t="s">
-        <v>208</v>
+        <v>269</v>
+      </c>
+      <c r="C273" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="D273" s="10" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="E273" s="10" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F273">
         <v>3</v>
@@ -8828,19 +8828,19 @@
     </row>
     <row r="274" ht="15.15" spans="1:7">
       <c r="A274">
-        <v>273</v>
-      </c>
-      <c r="B274" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="C274" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B274" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C274" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D274" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E274" s="9">
-        <v>7994474783</v>
+      <c r="D274" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E274" s="10" t="s">
+        <v>271</v>
       </c>
       <c r="F274">
         <v>3</v>
@@ -8851,19 +8851,19 @@
     </row>
     <row r="275" ht="15.15" spans="1:7">
       <c r="A275">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C275" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D275" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E275" s="10" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F275">
         <v>3</v>
@@ -8874,19 +8874,19 @@
     </row>
     <row r="276" ht="15.15" spans="1:7">
       <c r="A276">
-        <v>275</v>
-      </c>
-      <c r="B276" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C276" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D276" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E276" s="10" t="s">
-        <v>271</v>
+        <v>278</v>
+      </c>
+      <c r="B276" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="C276" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D276" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E276" s="9">
+        <v>9447672198</v>
       </c>
       <c r="F276">
         <v>3</v>
@@ -8897,19 +8897,19 @@
     </row>
     <row r="277" ht="15.15" spans="1:7">
       <c r="A277">
+        <v>279</v>
+      </c>
+      <c r="B277" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C277" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D277" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E277" s="10" t="s">
         <v>276</v>
-      </c>
-      <c r="B277" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C277" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D277" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E277" s="10" t="s">
-        <v>272</v>
       </c>
       <c r="F277">
         <v>3</v>
@@ -8920,134 +8920,134 @@
     </row>
     <row r="278" ht="15.15" spans="1:7">
       <c r="A278">
-        <v>277</v>
-      </c>
-      <c r="B278" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="C278" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D278" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E278" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B278" s="9" t="s">
         <v>274</v>
+      </c>
+      <c r="C278" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D278" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E278" s="9">
+        <v>9447672198</v>
       </c>
       <c r="F278">
         <v>3</v>
       </c>
-      <c r="G278">
-        <v>0</v>
+      <c r="G278" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="279" ht="15.15" spans="1:7">
       <c r="A279">
-        <v>278</v>
-      </c>
-      <c r="B279" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B279" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="C279" s="9" t="s">
+      <c r="C279" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D279" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E279" s="9">
-        <v>9447672198</v>
+      <c r="D279" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E279" s="10" t="s">
+        <v>276</v>
       </c>
       <c r="F279">
         <v>3</v>
       </c>
-      <c r="G279">
-        <v>0</v>
+      <c r="G279" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="280" ht="15.15" spans="1:7">
       <c r="A280">
-        <v>279</v>
-      </c>
-      <c r="B280" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C280" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D280" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E280" s="10" t="s">
-        <v>277</v>
+        <v>282</v>
+      </c>
+      <c r="B280" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C280" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D280" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E280" s="26">
+        <v>9188648541</v>
       </c>
       <c r="F280">
         <v>3</v>
       </c>
-      <c r="G280">
-        <v>0</v>
+      <c r="G280" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="281" ht="15.15" spans="1:7">
       <c r="A281">
-        <v>280</v>
-      </c>
-      <c r="B281" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="C281" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D281" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E281" s="9">
-        <v>9447672198</v>
+        <v>283</v>
+      </c>
+      <c r="B281" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C281" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D281" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E281" s="10">
+        <v>9447347122</v>
       </c>
       <c r="F281">
         <v>3</v>
       </c>
       <c r="G281" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="282" ht="15.15" spans="1:7">
       <c r="A282">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B282" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C282" s="10" t="s">
-        <v>85</v>
+        <v>263</v>
+      </c>
+      <c r="C282" s="12" t="s">
+        <v>207</v>
       </c>
       <c r="D282" s="10" t="s">
         <v>55</v>
       </c>
       <c r="E282" s="10" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="F282">
         <v>3</v>
       </c>
       <c r="G282" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="283" ht="15.15" spans="1:7">
       <c r="A283">
-        <v>282</v>
-      </c>
-      <c r="B283" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="C283" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D283" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E283" s="26">
-        <v>9188648541</v>
+        <v>285</v>
+      </c>
+      <c r="B283" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C283" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D283" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E283" s="10" t="s">
+        <v>265</v>
       </c>
       <c r="F283">
         <v>3</v>
@@ -9056,87 +9056,78 @@
         <v>147</v>
       </c>
     </row>
-    <row r="284" ht="15.15" spans="1:7">
-      <c r="A284">
-        <v>283</v>
-      </c>
-      <c r="B284" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C284" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D284" s="10" t="s">
+    <row r="284" ht="15.15" spans="2:7">
+      <c r="B284" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C284" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D284" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E284" s="10">
-        <v>9447347122</v>
-      </c>
-      <c r="F284">
-        <v>3</v>
-      </c>
-      <c r="G284" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="285" ht="15.15" spans="1:7">
-      <c r="A285">
-        <v>284</v>
-      </c>
-      <c r="B285" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="C285" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D285" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E285" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="F285">
-        <v>3</v>
-      </c>
-      <c r="G285" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="286" ht="15.15" spans="1:7">
-      <c r="A286">
-        <v>285</v>
-      </c>
-      <c r="B286" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="C286" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D286" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E286" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="F286">
-        <v>3</v>
-      </c>
-      <c r="G286" t="s">
-        <v>147</v>
+      <c r="E284" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="F284" s="20">
+        <v>2</v>
+      </c>
+      <c r="G284" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" ht="15.15" spans="2:7">
+      <c r="B285" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C285" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D285" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E285" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="F285" s="20">
+        <v>2</v>
+      </c>
+      <c r="G285" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" ht="15.15" spans="2:7">
+      <c r="B286" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="C286" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D286" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E286" s="28">
+        <v>9562875205</v>
+      </c>
+      <c r="F286" s="20">
+        <v>2</v>
+      </c>
+      <c r="G286" s="20">
+        <v>0</v>
       </c>
     </row>
     <row r="287" ht="15.15" spans="2:7">
-      <c r="B287" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="C287" s="27" t="s">
+      <c r="B287" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C287" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D287" s="27" t="s">
+      <c r="D287" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E287" s="29" t="s">
-        <v>278</v>
+      <c r="E287" s="28">
+        <v>8606749298</v>
       </c>
       <c r="F287" s="20">
         <v>2</v>
@@ -9147,7 +9138,7 @@
     </row>
     <row r="288" ht="15.15" spans="2:7">
       <c r="B288" s="28" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C288" s="28" t="s">
         <v>8</v>
@@ -9155,8 +9146,8 @@
       <c r="D288" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E288" s="30" t="s">
-        <v>279</v>
+      <c r="E288" s="28">
+        <v>9947663257</v>
       </c>
       <c r="F288" s="20">
         <v>2</v>
@@ -9167,7 +9158,7 @@
     </row>
     <row r="289" ht="15.15" spans="2:7">
       <c r="B289" s="28" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C289" s="28" t="s">
         <v>8</v>
@@ -9176,7 +9167,7 @@
         <v>15</v>
       </c>
       <c r="E289" s="28">
-        <v>9562875205</v>
+        <v>9744087257</v>
       </c>
       <c r="F289" s="20">
         <v>2</v>
@@ -9186,77 +9177,77 @@
       </c>
     </row>
     <row r="290" ht="15.15" spans="2:7">
-      <c r="B290" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="C290" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D290" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E290" s="28">
-        <v>8606749298</v>
-      </c>
-      <c r="F290" s="20">
-        <v>2</v>
+      <c r="B290" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C290" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="D290" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E290" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="F290">
+        <v>4</v>
       </c>
       <c r="G290" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="291" ht="15.15" spans="2:7">
-      <c r="B291" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="C291" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D291" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E291" s="28">
-        <v>9947663257</v>
-      </c>
-      <c r="F291" s="20">
-        <v>2</v>
+      <c r="B291" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C291" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D291" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E291" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="F291">
+        <v>4</v>
       </c>
       <c r="G291" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="292" ht="15.15" spans="2:7">
-      <c r="B292" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="C292" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D292" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E292" s="28">
-        <v>9744087257</v>
-      </c>
-      <c r="F292" s="20">
-        <v>2</v>
+      <c r="B292" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C292" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D292" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E292" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="F292">
+        <v>4</v>
       </c>
       <c r="G292" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="293" ht="15.15" spans="2:7">
-      <c r="B293" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="C293" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="D293" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E293" s="15" t="s">
-        <v>281</v>
+      <c r="B293" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C293" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D293" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E293" s="16">
+        <v>7306446316</v>
       </c>
       <c r="F293">
         <v>4</v>
@@ -9267,16 +9258,16 @@
     </row>
     <row r="294" ht="15.15" spans="2:7">
       <c r="B294" s="16" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D294" s="16" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F294">
         <v>4</v>
@@ -9287,16 +9278,16 @@
     </row>
     <row r="295" ht="15.15" spans="2:7">
       <c r="B295" s="16" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D295" s="16" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F295">
         <v>4</v>
@@ -9306,17 +9297,17 @@
       </c>
     </row>
     <row r="296" ht="15.15" spans="2:7">
-      <c r="B296" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="C296" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="D296" s="16" t="s">
+      <c r="B296" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C296" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D296" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E296" s="16">
-        <v>7306446316</v>
+      <c r="E296" s="9" t="s">
+        <v>291</v>
       </c>
       <c r="F296">
         <v>4</v>
@@ -9326,17 +9317,17 @@
       </c>
     </row>
     <row r="297" ht="15.15" spans="2:7">
-      <c r="B297" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="C297" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="D297" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E297" s="16" t="s">
-        <v>288</v>
+      <c r="B297" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C297" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D297" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E297" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="F297">
         <v>4</v>
@@ -9346,17 +9337,17 @@
       </c>
     </row>
     <row r="298" ht="15.15" spans="2:7">
-      <c r="B298" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="C298" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="D298" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E298" s="16" t="s">
-        <v>290</v>
+      <c r="B298" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C298" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D298" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E298" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="F298">
         <v>4</v>
@@ -9366,17 +9357,17 @@
       </c>
     </row>
     <row r="299" ht="15.15" spans="2:7">
-      <c r="B299" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="C299" s="9" t="s">
+      <c r="B299" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C299" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D299" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E299" s="9" t="s">
-        <v>292</v>
+      <c r="D299" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E299" s="10" t="s">
+        <v>293</v>
       </c>
       <c r="F299">
         <v>4</v>
@@ -9386,28 +9377,28 @@
       </c>
     </row>
     <row r="300" ht="15.15" spans="2:7">
-      <c r="B300" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="C300" s="10" t="s">
+      <c r="B300" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C300" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D300" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E300" s="10" t="s">
-        <v>155</v>
+      <c r="D300" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E300" s="9" t="s">
+        <v>291</v>
       </c>
       <c r="F300">
         <v>4</v>
       </c>
-      <c r="G300" s="20">
-        <v>0</v>
+      <c r="G300" s="20" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="301" ht="15.15" spans="2:7">
       <c r="B301" s="10" t="s">
-        <v>177</v>
+        <v>292</v>
       </c>
       <c r="C301" s="10" t="s">
         <v>94</v>
@@ -9416,18 +9407,18 @@
         <v>55</v>
       </c>
       <c r="E301" s="10" t="s">
-        <v>178</v>
+        <v>294</v>
       </c>
       <c r="F301">
         <v>4</v>
       </c>
-      <c r="G301" s="20">
-        <v>0</v>
+      <c r="G301" s="20" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="302" ht="15.15" spans="2:7">
       <c r="B302" s="10" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="C302" s="10" t="s">
         <v>94</v>
@@ -9436,27 +9427,27 @@
         <v>55</v>
       </c>
       <c r="E302" s="10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F302">
         <v>4</v>
       </c>
-      <c r="G302" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" ht="15.15" spans="2:7">
-      <c r="B303" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="C303" s="9" t="s">
+      <c r="G302" s="20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="303" spans="2:7">
+      <c r="B303" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C303" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D303" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E303" s="9" t="s">
-        <v>292</v>
+      <c r="D303" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E303" s="10" t="s">
+        <v>293</v>
       </c>
       <c r="F303">
         <v>4</v>
@@ -9466,77 +9457,77 @@
       </c>
     </row>
     <row r="304" ht="15.15" spans="2:7">
-      <c r="B304" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="C304" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D304" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E304" s="10" t="s">
-        <v>294</v>
+      <c r="B304" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C304" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D304" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E304" s="9">
+        <v>7994322927</v>
       </c>
       <c r="F304">
         <v>4</v>
       </c>
-      <c r="G304" s="20" t="s">
-        <v>146</v>
+      <c r="G304">
+        <v>0</v>
       </c>
     </row>
     <row r="305" ht="15.15" spans="2:7">
       <c r="B305" s="10" t="s">
-        <v>177</v>
+        <v>86</v>
       </c>
       <c r="C305" s="10" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D305" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E305" s="10" t="s">
-        <v>178</v>
+      <c r="E305" s="10">
+        <v>9539231717</v>
       </c>
       <c r="F305">
         <v>4</v>
       </c>
-      <c r="G305" s="20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="306" spans="2:7">
+      <c r="G305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" ht="15.15" spans="2:7">
       <c r="B306" s="10" t="s">
-        <v>98</v>
+        <v>295</v>
       </c>
       <c r="C306" s="10" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D306" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E306" s="10" t="s">
-        <v>181</v>
+      <c r="E306" s="10">
+        <v>8891418626</v>
       </c>
       <c r="F306">
         <v>4</v>
       </c>
-      <c r="G306" s="20" t="s">
-        <v>146</v>
+      <c r="G306">
+        <v>0</v>
       </c>
     </row>
     <row r="307" ht="15.15" spans="2:7">
-      <c r="B307" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C307" s="9" t="s">
+      <c r="B307" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C307" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D307" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E307" s="9">
-        <v>7994322927</v>
+      <c r="D307" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E307" s="10">
+        <v>9188025758</v>
       </c>
       <c r="F307">
         <v>4</v>
@@ -9545,9 +9536,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" ht="15.15" spans="2:7">
+    <row r="308" spans="2:7">
       <c r="B308" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C308" s="10" t="s">
         <v>85</v>
@@ -9556,72 +9547,12 @@
         <v>55</v>
       </c>
       <c r="E308" s="10">
-        <v>9539231717</v>
+        <v>9946312522</v>
       </c>
       <c r="F308">
         <v>4</v>
       </c>
       <c r="G308">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" ht="15.15" spans="2:7">
-      <c r="B309" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="C309" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D309" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E309" s="10">
-        <v>8891418626</v>
-      </c>
-      <c r="F309">
-        <v>4</v>
-      </c>
-      <c r="G309">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" ht="15.15" spans="2:7">
-      <c r="B310" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C310" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D310" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E310" s="10">
-        <v>9188025758</v>
-      </c>
-      <c r="F310">
-        <v>4</v>
-      </c>
-      <c r="G310">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="2:7">
-      <c r="B311" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C311" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D311" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E311" s="10">
-        <v>9946312522</v>
-      </c>
-      <c r="F311">
-        <v>4</v>
-      </c>
-      <c r="G311">
         <v>0</v>
       </c>
     </row>

--- a/assets/certificate.xlsx
+++ b/assets/certificate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="410">
   <si>
     <t>SI</t>
   </si>
@@ -1341,20 +1341,362 @@
   <si>
     <t>AnanthaKrishnan</t>
   </si>
+  <si>
+    <t>Manukrishna M S</t>
+  </si>
+  <si>
+    <t>Sinan niyas</t>
+  </si>
+  <si>
+    <t>Muhammed Fayaz</t>
+  </si>
+  <si>
+    <t>Jipin Joseph</t>
+  </si>
+  <si>
+    <t>Indrajith PK</t>
+  </si>
+  <si>
+    <t>Ameen Ahsan Lakkal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sagar sreedhar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeeson James </t>
+  </si>
+  <si>
+    <t>Arjun T S</t>
+  </si>
+  <si>
+    <t>Viswanath.j</t>
+  </si>
+  <si>
+    <t>Akshay s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zidhan Ismail </t>
+  </si>
+  <si>
+    <t>SANJAY S</t>
+  </si>
+  <si>
+    <t>Sanooj raj</t>
+  </si>
+  <si>
+    <t>Prince Alphonse Joy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saran Sreekumar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDRAJITH MC </t>
+  </si>
+  <si>
+    <t>Adithyan udayakumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandal Sabu Thomas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hilal vh </t>
+  </si>
+  <si>
+    <t>Sreedarsh S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riyash Robinson </t>
+  </si>
+  <si>
+    <t>Senil Ahamed C P</t>
+  </si>
+  <si>
+    <t>Libin</t>
+  </si>
+  <si>
+    <t>Nandikesh P Nair</t>
+  </si>
+  <si>
+    <t>Romin Roy</t>
+  </si>
+  <si>
+    <t>Karthik Sethu V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U GOPISH KRISHNA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anandakrishnan </t>
+  </si>
+  <si>
+    <t>Adharsh S</t>
+  </si>
+  <si>
+    <t>Nuhman Daris</t>
+  </si>
+  <si>
+    <t>SREERAG SURESH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarun Shaji </t>
+  </si>
+  <si>
+    <t>AJMAL SUHAIL P P</t>
+  </si>
+  <si>
+    <t>Ananthu s</t>
+  </si>
+  <si>
+    <t>Navaneeth M S</t>
+  </si>
+  <si>
+    <t>Ananthakrishnan</t>
+  </si>
+  <si>
+    <t>Amir mohammed</t>
+  </si>
+  <si>
+    <t>MOHAMED FARHAN K S</t>
+  </si>
+  <si>
+    <t>Vivek M Venu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharon Xavier </t>
+  </si>
+  <si>
+    <t>Arjun A</t>
+  </si>
+  <si>
+    <t>Abhishek.A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ronaldo k.o </t>
+  </si>
+  <si>
+    <t>A.R.Gautham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhamed Nahshan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shyamraj K R </t>
+  </si>
+  <si>
+    <t>Mohammed Jafri U</t>
+  </si>
+  <si>
+    <t>Nishanth v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Didi Kumploli </t>
+  </si>
+  <si>
+    <t>Arunkrishna ku</t>
+  </si>
+  <si>
+    <t>Nidhin raj</t>
+  </si>
+  <si>
+    <t>Sachin Thomas</t>
+  </si>
+  <si>
+    <t>Devanandan s</t>
+  </si>
+  <si>
+    <t>AJAI BABU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amal Satheesan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAJAGOPAL V M </t>
+  </si>
+  <si>
+    <t>AJAYKRISNA</t>
+  </si>
+  <si>
+    <t>Akshay lal kr</t>
+  </si>
+  <si>
+    <t>Gokul S Kumar</t>
+  </si>
+  <si>
+    <t>AnandaKrishnan R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEVIN ANTONY </t>
+  </si>
+  <si>
+    <t>Advaith R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Midhun Vinod </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohammed waseem </t>
+  </si>
+  <si>
+    <t>Rishiraj R</t>
+  </si>
+  <si>
+    <t>Sachin s</t>
+  </si>
+  <si>
+    <t>Adarsh A S</t>
+  </si>
+  <si>
+    <t>SETHUMADHAVAN N S</t>
+  </si>
+  <si>
+    <t>MIDHUN MOHAN</t>
+  </si>
+  <si>
+    <t>HARIKRISHNAN KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adithyan M S </t>
+  </si>
+  <si>
+    <t>Nevin Michael</t>
+  </si>
+  <si>
+    <t>Madhav VM</t>
+  </si>
+  <si>
+    <t>Althaj. N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad yasim </t>
+  </si>
+  <si>
+    <t>SREEHARI CR</t>
+  </si>
+  <si>
+    <t>SuryaNarayanan</t>
+  </si>
+  <si>
+    <t>Muhammed kaif</t>
+  </si>
+  <si>
+    <t>Musammil mujeeb</t>
+  </si>
+  <si>
+    <t>Sanith s</t>
+  </si>
+  <si>
+    <t>Akash. P. Prakash</t>
+  </si>
+  <si>
+    <t>Nikhil sankar cs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aswin </t>
+  </si>
+  <si>
+    <t>Bilal</t>
+  </si>
+  <si>
+    <t>Aromal .A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AKHIL HARIS </t>
+  </si>
+  <si>
+    <t>Aromal Santhosh</t>
+  </si>
+  <si>
+    <t>Ebrahim Roshan U</t>
+  </si>
+  <si>
+    <t>Akhilkumar A</t>
+  </si>
+  <si>
+    <t>Joel Nixon</t>
+  </si>
+  <si>
+    <t>Abhinav vishnu p s</t>
+  </si>
+  <si>
+    <t>Aswin VB</t>
+  </si>
+  <si>
+    <t>ROHIT H</t>
+  </si>
+  <si>
+    <t>Adhith V</t>
+  </si>
+  <si>
+    <t>Al Ameen N</t>
+  </si>
+  <si>
+    <t>REJO RAJU</t>
+  </si>
+  <si>
+    <t>Amith Murali</t>
+  </si>
+  <si>
+    <t>Aromal Babu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hishamsha </t>
+  </si>
+  <si>
+    <t>HARI DARSSAN M</t>
+  </si>
+  <si>
+    <t>VINAYAK K R</t>
+  </si>
+  <si>
+    <t>Aswin v</t>
+  </si>
+  <si>
+    <t>VIGNESH K</t>
+  </si>
+  <si>
+    <t>Ananda krishnan K</t>
+  </si>
+  <si>
+    <t>Akhil P</t>
+  </si>
+  <si>
+    <t>AbinAlex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeevan Benny Devasia </t>
+  </si>
+  <si>
+    <t>Akshai lal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rishi A </t>
+  </si>
+  <si>
+    <t>Sagar sreedhar</t>
+  </si>
+  <si>
+    <t>Jeeson James</t>
+  </si>
+  <si>
+    <t>Winners</t>
+  </si>
+  <si>
+    <t>Muhammad yasim</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="\+0;\-0"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="\+#,##0;\-#,##0"/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="\+#,##0;\-#,##0"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="\+0;\-0"/>
+    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1416,11 +1758,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1431,8 +1785,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1446,14 +1816,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1463,7 +1825,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1474,6 +1836,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1508,36 +1878,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1547,7 +1887,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1586,7 +1941,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1598,180 +2115,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1879,50 +2234,92 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFCCCCCC"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1944,11 +2341,57 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1970,9 +2413,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1981,152 +2426,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2180,13 +2625,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2209,6 +2654,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2535,10 +3003,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G308"/>
+  <dimension ref="A1:G444"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="H184" sqref="H184"/>
+    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="C448" sqref="C448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -6572,7 +7040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" ht="15.15" spans="1:7">
       <c r="A176">
         <v>175</v>
       </c>
@@ -6595,7 +7063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" ht="15.15" spans="1:7">
       <c r="A177">
         <v>177</v>
       </c>
@@ -6618,7 +7086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" ht="15.15" spans="1:7">
       <c r="A178">
         <v>178</v>
       </c>
@@ -6779,7 +7247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" ht="15.15" spans="1:7">
       <c r="A185">
         <v>185</v>
       </c>
@@ -6848,7 +7316,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" ht="15.15" spans="1:7">
       <c r="A188">
         <v>190</v>
       </c>
@@ -7078,7 +7546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" ht="15.15" spans="1:7">
       <c r="A198">
         <v>200</v>
       </c>
@@ -7101,7 +7569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" ht="15.15" spans="1:7">
       <c r="A199">
         <v>201</v>
       </c>
@@ -7124,7 +7592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" ht="15.15" spans="1:7">
       <c r="A200">
         <v>202</v>
       </c>
@@ -7147,7 +7615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" ht="15.15" spans="1:7">
       <c r="A201">
         <v>203</v>
       </c>
@@ -7170,7 +7638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" ht="15.15" spans="1:7">
       <c r="A202">
         <v>204</v>
       </c>
@@ -9033,7 +9501,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="283" ht="15.15" spans="1:7">
+    <row r="283" spans="1:7">
       <c r="A283">
         <v>285</v>
       </c>
@@ -9056,7 +9524,10 @@
         <v>147</v>
       </c>
     </row>
-    <row r="284" ht="15.15" spans="2:7">
+    <row r="284" spans="1:7">
+      <c r="A284">
+        <v>286</v>
+      </c>
       <c r="B284" s="27" t="s">
         <v>184</v>
       </c>
@@ -9066,7 +9537,7 @@
       <c r="D284" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E284" s="29" t="s">
+      <c r="E284" s="38" t="s">
         <v>277</v>
       </c>
       <c r="F284" s="20">
@@ -9076,7 +9547,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" ht="15.15" spans="2:7">
+    <row r="285" spans="1:7">
+      <c r="A285">
+        <v>287</v>
+      </c>
       <c r="B285" s="28" t="s">
         <v>185</v>
       </c>
@@ -9086,7 +9560,7 @@
       <c r="D285" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E285" s="30" t="s">
+      <c r="E285" s="39" t="s">
         <v>278</v>
       </c>
       <c r="F285" s="20">
@@ -9096,7 +9570,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" ht="15.15" spans="2:7">
+    <row r="286" spans="1:7">
+      <c r="A286">
+        <v>288</v>
+      </c>
       <c r="B286" s="28" t="s">
         <v>186</v>
       </c>
@@ -9116,7 +9593,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" ht="15.15" spans="2:7">
+    <row r="287" spans="1:7">
+      <c r="A287">
+        <v>289</v>
+      </c>
       <c r="B287" s="28" t="s">
         <v>187</v>
       </c>
@@ -9136,7 +9616,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" ht="15.15" spans="2:7">
+    <row r="288" spans="1:7">
+      <c r="A288">
+        <v>290</v>
+      </c>
       <c r="B288" s="28" t="s">
         <v>188</v>
       </c>
@@ -9156,7 +9639,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" ht="15.15" spans="2:7">
+    <row r="289" spans="1:7">
+      <c r="A289">
+        <v>291</v>
+      </c>
       <c r="B289" s="28" t="s">
         <v>189</v>
       </c>
@@ -9176,7 +9662,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" ht="15.15" spans="2:7">
+    <row r="290" spans="1:7">
+      <c r="A290">
+        <v>292</v>
+      </c>
       <c r="B290" s="15" t="s">
         <v>279</v>
       </c>
@@ -9196,7 +9685,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" ht="15.15" spans="2:7">
+    <row r="291" spans="1:7">
+      <c r="A291">
+        <v>293</v>
+      </c>
       <c r="B291" s="16" t="s">
         <v>281</v>
       </c>
@@ -9216,7 +9708,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" ht="15.15" spans="2:7">
+    <row r="292" spans="1:7">
+      <c r="A292">
+        <v>294</v>
+      </c>
       <c r="B292" s="16" t="s">
         <v>283</v>
       </c>
@@ -9236,7 +9731,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" ht="15.15" spans="2:7">
+    <row r="293" spans="1:7">
+      <c r="A293">
+        <v>295</v>
+      </c>
       <c r="B293" s="16" t="s">
         <v>285</v>
       </c>
@@ -9256,7 +9754,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" ht="15.15" spans="2:7">
+    <row r="294" spans="1:7">
+      <c r="A294">
+        <v>296</v>
+      </c>
       <c r="B294" s="16" t="s">
         <v>286</v>
       </c>
@@ -9276,7 +9777,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" ht="15.15" spans="2:7">
+    <row r="295" spans="1:7">
+      <c r="A295">
+        <v>297</v>
+      </c>
       <c r="B295" s="16" t="s">
         <v>288</v>
       </c>
@@ -9296,7 +9800,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" ht="15.15" spans="2:7">
+    <row r="296" spans="1:7">
+      <c r="A296">
+        <v>298</v>
+      </c>
       <c r="B296" s="9" t="s">
         <v>290</v>
       </c>
@@ -9316,7 +9823,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" ht="15.15" spans="2:7">
+    <row r="297" spans="1:7">
+      <c r="A297">
+        <v>299</v>
+      </c>
       <c r="B297" s="10" t="s">
         <v>292</v>
       </c>
@@ -9336,7 +9846,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" ht="15.15" spans="2:7">
+    <row r="298" spans="1:7">
+      <c r="A298">
+        <v>300</v>
+      </c>
       <c r="B298" s="10" t="s">
         <v>177</v>
       </c>
@@ -9356,7 +9869,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" ht="15.15" spans="2:7">
+    <row r="299" spans="1:7">
+      <c r="A299">
+        <v>301</v>
+      </c>
       <c r="B299" s="10" t="s">
         <v>98</v>
       </c>
@@ -9376,7 +9892,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" ht="15.15" spans="2:7">
+    <row r="300" spans="1:7">
+      <c r="A300">
+        <v>302</v>
+      </c>
       <c r="B300" s="9" t="s">
         <v>290</v>
       </c>
@@ -9396,7 +9915,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="301" ht="15.15" spans="2:7">
+    <row r="301" spans="1:7">
+      <c r="A301">
+        <v>303</v>
+      </c>
       <c r="B301" s="10" t="s">
         <v>292</v>
       </c>
@@ -9416,7 +9938,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="302" ht="15.15" spans="2:7">
+    <row r="302" spans="1:7">
+      <c r="A302">
+        <v>304</v>
+      </c>
       <c r="B302" s="10" t="s">
         <v>177</v>
       </c>
@@ -9436,7 +9961,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="303" spans="2:7">
+    <row r="303" spans="1:7">
+      <c r="A303">
+        <v>305</v>
+      </c>
       <c r="B303" s="10" t="s">
         <v>98</v>
       </c>
@@ -9456,7 +9984,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="304" ht="15.15" spans="2:7">
+    <row r="304" spans="1:7">
+      <c r="A304">
+        <v>306</v>
+      </c>
       <c r="B304" s="9" t="s">
         <v>87</v>
       </c>
@@ -9476,7 +10007,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" ht="15.15" spans="2:7">
+    <row r="305" spans="1:7">
+      <c r="A305">
+        <v>307</v>
+      </c>
       <c r="B305" s="10" t="s">
         <v>86</v>
       </c>
@@ -9496,7 +10030,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" ht="15.15" spans="2:7">
+    <row r="306" spans="1:7">
+      <c r="A306">
+        <v>308</v>
+      </c>
       <c r="B306" s="10" t="s">
         <v>295</v>
       </c>
@@ -9516,7 +10053,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" ht="15.15" spans="2:7">
+    <row r="307" spans="1:7">
+      <c r="A307">
+        <v>309</v>
+      </c>
       <c r="B307" s="10" t="s">
         <v>88</v>
       </c>
@@ -9536,7 +10076,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="2:7">
+    <row r="308" ht="15.15" spans="1:7">
+      <c r="A308">
+        <v>310</v>
+      </c>
       <c r="B308" s="10" t="s">
         <v>91</v>
       </c>
@@ -9554,6 +10097,3134 @@
       </c>
       <c r="G308">
         <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309">
+        <v>311</v>
+      </c>
+      <c r="B309" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="C309" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D309" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E309" s="29">
+        <v>6282985023</v>
+      </c>
+      <c r="F309">
+        <v>5</v>
+      </c>
+      <c r="G309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310">
+        <v>312</v>
+      </c>
+      <c r="B310" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="C310" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D310" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E310" s="29">
+        <v>8606700284</v>
+      </c>
+      <c r="F310">
+        <v>5</v>
+      </c>
+      <c r="G310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311">
+        <v>313</v>
+      </c>
+      <c r="B311" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="C311" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D311" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E311" s="29">
+        <v>9995602471</v>
+      </c>
+      <c r="F311">
+        <v>5</v>
+      </c>
+      <c r="G311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312">
+        <v>314</v>
+      </c>
+      <c r="B312" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C312" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D312" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E312" s="29">
+        <v>8129148382</v>
+      </c>
+      <c r="F312">
+        <v>5</v>
+      </c>
+      <c r="G312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313">
+        <v>315</v>
+      </c>
+      <c r="B313" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="C313" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D313" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E313" s="29">
+        <v>6238431443</v>
+      </c>
+      <c r="F313">
+        <v>5</v>
+      </c>
+      <c r="G313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314">
+        <v>316</v>
+      </c>
+      <c r="B314" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="C314" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D314" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E314" s="29">
+        <v>8590304953</v>
+      </c>
+      <c r="F314">
+        <v>5</v>
+      </c>
+      <c r="G314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315">
+        <v>317</v>
+      </c>
+      <c r="B315" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="C315" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D315" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E315" s="29">
+        <v>7025003190</v>
+      </c>
+      <c r="F315">
+        <v>5</v>
+      </c>
+      <c r="G315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316">
+        <v>318</v>
+      </c>
+      <c r="B316" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="C316" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D316" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E316" s="29">
+        <v>8590716493</v>
+      </c>
+      <c r="F316">
+        <v>5</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317">
+        <v>319</v>
+      </c>
+      <c r="B317" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="C317" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D317" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E317" s="29">
+        <v>9072233341</v>
+      </c>
+      <c r="F317">
+        <v>5</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318">
+        <v>320</v>
+      </c>
+      <c r="B318" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="C318" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D318" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E318" s="29">
+        <v>7907284779</v>
+      </c>
+      <c r="F318">
+        <v>5</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319">
+        <v>321</v>
+      </c>
+      <c r="B319" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="C319" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D319" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E319" s="29">
+        <v>8075786761</v>
+      </c>
+      <c r="F319">
+        <v>5</v>
+      </c>
+      <c r="G319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320">
+        <v>322</v>
+      </c>
+      <c r="B320" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="C320" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D320" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E320" s="29">
+        <v>9778396441</v>
+      </c>
+      <c r="F320">
+        <v>5</v>
+      </c>
+      <c r="G320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321">
+        <v>323</v>
+      </c>
+      <c r="B321" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="C321" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D321" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E321" s="29">
+        <v>9188032966</v>
+      </c>
+      <c r="F321">
+        <v>5</v>
+      </c>
+      <c r="G321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322">
+        <v>324</v>
+      </c>
+      <c r="B322" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="C322" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D322" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E322" s="29">
+        <v>7511135015</v>
+      </c>
+      <c r="F322">
+        <v>5</v>
+      </c>
+      <c r="G322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323">
+        <v>325</v>
+      </c>
+      <c r="B323" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="C323" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D323" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E323" s="29">
+        <v>9846114320</v>
+      </c>
+      <c r="F323">
+        <v>5</v>
+      </c>
+      <c r="G323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324">
+        <v>326</v>
+      </c>
+      <c r="B324" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="C324" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D324" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E324" s="29">
+        <v>7593996528</v>
+      </c>
+      <c r="F324">
+        <v>5</v>
+      </c>
+      <c r="G324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325">
+        <v>327</v>
+      </c>
+      <c r="B325" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="C325" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D325" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E325" s="29">
+        <v>7592829017</v>
+      </c>
+      <c r="F325">
+        <v>5</v>
+      </c>
+      <c r="G325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326">
+        <v>328</v>
+      </c>
+      <c r="B326" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="C326" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D326" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E326" s="29">
+        <v>9562875205</v>
+      </c>
+      <c r="F326">
+        <v>5</v>
+      </c>
+      <c r="G326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327">
+        <v>329</v>
+      </c>
+      <c r="B327" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="C327" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D327" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E327" s="29">
+        <v>9037747674</v>
+      </c>
+      <c r="F327">
+        <v>5</v>
+      </c>
+      <c r="G327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328">
+        <v>330</v>
+      </c>
+      <c r="B328" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="C328" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D328" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E328" s="29">
+        <v>9747128209</v>
+      </c>
+      <c r="F328">
+        <v>5</v>
+      </c>
+      <c r="G328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329">
+        <v>331</v>
+      </c>
+      <c r="B329" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="C329" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D329" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E329" s="29">
+        <v>9744087257</v>
+      </c>
+      <c r="F329">
+        <v>5</v>
+      </c>
+      <c r="G329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330">
+        <v>332</v>
+      </c>
+      <c r="B330" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="C330" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D330" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E330" s="29">
+        <v>9037303974</v>
+      </c>
+      <c r="F330">
+        <v>5</v>
+      </c>
+      <c r="G330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331">
+        <v>333</v>
+      </c>
+      <c r="B331" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="C331" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D331" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E331" s="29">
+        <v>9562099310</v>
+      </c>
+      <c r="F331">
+        <v>5</v>
+      </c>
+      <c r="G331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332">
+        <v>334</v>
+      </c>
+      <c r="B332" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C332" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D332" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E332" s="29">
+        <v>7306760367</v>
+      </c>
+      <c r="F332">
+        <v>5</v>
+      </c>
+      <c r="G332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333">
+        <v>335</v>
+      </c>
+      <c r="B333" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="C333" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D333" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E333" s="29">
+        <v>8547242798</v>
+      </c>
+      <c r="F333">
+        <v>5</v>
+      </c>
+      <c r="G333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334">
+        <v>336</v>
+      </c>
+      <c r="B334" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="C334" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D334" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E334" s="29">
+        <v>7902808675</v>
+      </c>
+      <c r="F334">
+        <v>5</v>
+      </c>
+      <c r="G334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335">
+        <v>337</v>
+      </c>
+      <c r="B335" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="C335" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D335" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E335" s="29">
+        <v>9562794647</v>
+      </c>
+      <c r="F335">
+        <v>5</v>
+      </c>
+      <c r="G335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336">
+        <v>338</v>
+      </c>
+      <c r="B336" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="C336" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D336" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E336" s="29">
+        <v>7356047011</v>
+      </c>
+      <c r="F336">
+        <v>5</v>
+      </c>
+      <c r="G336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337">
+        <v>339</v>
+      </c>
+      <c r="B337" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="C337" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D337" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E337" s="29">
+        <v>8281961005</v>
+      </c>
+      <c r="F337">
+        <v>5</v>
+      </c>
+      <c r="G337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338">
+        <v>340</v>
+      </c>
+      <c r="B338" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="C338" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D338" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E338" s="29">
+        <v>8590700314</v>
+      </c>
+      <c r="F338">
+        <v>5</v>
+      </c>
+      <c r="G338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339">
+        <v>341</v>
+      </c>
+      <c r="B339" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="C339" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D339" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E339" s="29">
+        <v>9744781583</v>
+      </c>
+      <c r="F339">
+        <v>5</v>
+      </c>
+      <c r="G339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340">
+        <v>342</v>
+      </c>
+      <c r="B340" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="C340" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D340" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E340" s="29">
+        <v>7306983081</v>
+      </c>
+      <c r="F340">
+        <v>5</v>
+      </c>
+      <c r="G340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341">
+        <v>343</v>
+      </c>
+      <c r="B341" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="C341" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D341" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E341" s="29">
+        <v>9207602764</v>
+      </c>
+      <c r="F341">
+        <v>5</v>
+      </c>
+      <c r="G341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342">
+        <v>344</v>
+      </c>
+      <c r="B342" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="C342" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D342" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E342" s="29">
+        <v>9946725737</v>
+      </c>
+      <c r="F342">
+        <v>5</v>
+      </c>
+      <c r="G342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="A343">
+        <v>345</v>
+      </c>
+      <c r="B343" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="C343" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D343" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E343" s="29">
+        <v>9747563742</v>
+      </c>
+      <c r="F343">
+        <v>5</v>
+      </c>
+      <c r="G343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="A344">
+        <v>346</v>
+      </c>
+      <c r="B344" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="C344" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D344" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E344" s="29">
+        <v>7306162569</v>
+      </c>
+      <c r="F344">
+        <v>5</v>
+      </c>
+      <c r="G344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345">
+        <v>347</v>
+      </c>
+      <c r="B345" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="C345" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D345" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E345" s="29">
+        <v>7306520052</v>
+      </c>
+      <c r="F345">
+        <v>5</v>
+      </c>
+      <c r="G345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346">
+        <v>348</v>
+      </c>
+      <c r="B346" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C346" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D346" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E346" s="29">
+        <v>7736750537</v>
+      </c>
+      <c r="F346">
+        <v>5</v>
+      </c>
+      <c r="G346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347">
+        <v>349</v>
+      </c>
+      <c r="B347" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="C347" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D347" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E347" s="29">
+        <v>8113037547</v>
+      </c>
+      <c r="F347">
+        <v>5</v>
+      </c>
+      <c r="G347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348">
+        <v>350</v>
+      </c>
+      <c r="B348" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="C348" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D348" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E348" s="29">
+        <v>9497072437</v>
+      </c>
+      <c r="F348">
+        <v>5</v>
+      </c>
+      <c r="G348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349">
+        <v>351</v>
+      </c>
+      <c r="B349" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="C349" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D349" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E349" s="29">
+        <v>8129114096</v>
+      </c>
+      <c r="F349">
+        <v>5</v>
+      </c>
+      <c r="G349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350">
+        <v>352</v>
+      </c>
+      <c r="B350" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="C350" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D350" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E350" s="29">
+        <v>7994159394</v>
+      </c>
+      <c r="F350">
+        <v>5</v>
+      </c>
+      <c r="G350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351">
+        <v>353</v>
+      </c>
+      <c r="B351" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="C351" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D351" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E351" s="29">
+        <v>8606380771</v>
+      </c>
+      <c r="F351">
+        <v>5</v>
+      </c>
+      <c r="G351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352">
+        <v>354</v>
+      </c>
+      <c r="B352" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="C352" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D352" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E352" s="29">
+        <v>9567028780</v>
+      </c>
+      <c r="F352">
+        <v>5</v>
+      </c>
+      <c r="G352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
+      <c r="A353">
+        <v>355</v>
+      </c>
+      <c r="B353" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="C353" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D353" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E353" s="29">
+        <v>8943877530</v>
+      </c>
+      <c r="F353">
+        <v>5</v>
+      </c>
+      <c r="G353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
+      <c r="A354">
+        <v>356</v>
+      </c>
+      <c r="B354" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="C354" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D354" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E354" s="29">
+        <v>8592813206</v>
+      </c>
+      <c r="F354">
+        <v>5</v>
+      </c>
+      <c r="G354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
+      <c r="A355">
+        <v>357</v>
+      </c>
+      <c r="B355" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="C355" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D355" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E355" s="29">
+        <v>8891488601</v>
+      </c>
+      <c r="F355">
+        <v>5</v>
+      </c>
+      <c r="G355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
+      <c r="A356">
+        <v>358</v>
+      </c>
+      <c r="B356" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="C356" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D356" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E356" s="29">
+        <v>7356009025</v>
+      </c>
+      <c r="F356">
+        <v>5</v>
+      </c>
+      <c r="G356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
+      <c r="A357">
+        <v>359</v>
+      </c>
+      <c r="B357" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="C357" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D357" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E357" s="29">
+        <v>8137983444</v>
+      </c>
+      <c r="F357">
+        <v>5</v>
+      </c>
+      <c r="G357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
+      <c r="A358">
+        <v>360</v>
+      </c>
+      <c r="B358" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="C358" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D358" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E358" s="29">
+        <v>7025991106</v>
+      </c>
+      <c r="F358">
+        <v>5</v>
+      </c>
+      <c r="G358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
+      <c r="A359">
+        <v>361</v>
+      </c>
+      <c r="B359" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="C359" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D359" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E359" s="29">
+        <v>7034503921</v>
+      </c>
+      <c r="F359">
+        <v>5</v>
+      </c>
+      <c r="G359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
+      <c r="A360">
+        <v>362</v>
+      </c>
+      <c r="B360" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="C360" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D360" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E360" s="29">
+        <v>7025940386</v>
+      </c>
+      <c r="F360">
+        <v>5</v>
+      </c>
+      <c r="G360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
+      <c r="A361">
+        <v>363</v>
+      </c>
+      <c r="B361" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="C361" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D361" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E361" s="29">
+        <v>9633082570</v>
+      </c>
+      <c r="F361">
+        <v>5</v>
+      </c>
+      <c r="G361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7">
+      <c r="A362">
+        <v>364</v>
+      </c>
+      <c r="B362" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="C362" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D362" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E362" s="29">
+        <v>7510842291</v>
+      </c>
+      <c r="F362">
+        <v>5</v>
+      </c>
+      <c r="G362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7">
+      <c r="A363">
+        <v>365</v>
+      </c>
+      <c r="B363" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="C363" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D363" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E363" s="29">
+        <v>6282998927</v>
+      </c>
+      <c r="F363">
+        <v>5</v>
+      </c>
+      <c r="G363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
+      <c r="A364">
+        <v>366</v>
+      </c>
+      <c r="B364" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="C364" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D364" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E364" s="29">
+        <v>8113833189</v>
+      </c>
+      <c r="F364">
+        <v>5</v>
+      </c>
+      <c r="G364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7">
+      <c r="A365">
+        <v>367</v>
+      </c>
+      <c r="B365" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C365" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D365" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E365" s="29">
+        <v>8921351102</v>
+      </c>
+      <c r="F365">
+        <v>5</v>
+      </c>
+      <c r="G365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7">
+      <c r="A366">
+        <v>368</v>
+      </c>
+      <c r="B366" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C366" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D366" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E366" s="29">
+        <v>8301975837</v>
+      </c>
+      <c r="F366">
+        <v>5</v>
+      </c>
+      <c r="G366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7">
+      <c r="A367">
+        <v>369</v>
+      </c>
+      <c r="B367" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="C367" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D367" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E367" s="29">
+        <v>8304061566</v>
+      </c>
+      <c r="F367">
+        <v>5</v>
+      </c>
+      <c r="G367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
+      <c r="A368">
+        <v>370</v>
+      </c>
+      <c r="B368" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="C368" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D368" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E368" s="29">
+        <v>7012953996</v>
+      </c>
+      <c r="F368">
+        <v>5</v>
+      </c>
+      <c r="G368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7">
+      <c r="A369">
+        <v>371</v>
+      </c>
+      <c r="B369" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="C369" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D369" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E369" s="29">
+        <v>9061769935</v>
+      </c>
+      <c r="F369">
+        <v>5</v>
+      </c>
+      <c r="G369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7">
+      <c r="A370">
+        <v>372</v>
+      </c>
+      <c r="B370" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="C370" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D370" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E370" s="29">
+        <v>9072980414</v>
+      </c>
+      <c r="F370">
+        <v>5</v>
+      </c>
+      <c r="G370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7">
+      <c r="A371">
+        <v>373</v>
+      </c>
+      <c r="B371" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="C371" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D371" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E371" s="29">
+        <v>6282220849</v>
+      </c>
+      <c r="F371">
+        <v>5</v>
+      </c>
+      <c r="G371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7">
+      <c r="A372">
+        <v>374</v>
+      </c>
+      <c r="B372" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="C372" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D372" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E372" s="29">
+        <v>7593903701</v>
+      </c>
+      <c r="F372">
+        <v>5</v>
+      </c>
+      <c r="G372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7">
+      <c r="A373">
+        <v>375</v>
+      </c>
+      <c r="B373" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="C373" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D373" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E373" s="29">
+        <v>9746629197</v>
+      </c>
+      <c r="F373">
+        <v>5</v>
+      </c>
+      <c r="G373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7">
+      <c r="A374">
+        <v>376</v>
+      </c>
+      <c r="B374" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="C374" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D374" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E374" s="29">
+        <v>8129124526</v>
+      </c>
+      <c r="F374">
+        <v>5</v>
+      </c>
+      <c r="G374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7">
+      <c r="A375">
+        <v>377</v>
+      </c>
+      <c r="B375" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="C375" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D375" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E375" s="29">
+        <v>9037800885</v>
+      </c>
+      <c r="F375">
+        <v>5</v>
+      </c>
+      <c r="G375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7">
+      <c r="A376">
+        <v>378</v>
+      </c>
+      <c r="B376" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="C376" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D376" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E376" s="29">
+        <v>8590664863</v>
+      </c>
+      <c r="F376">
+        <v>5</v>
+      </c>
+      <c r="G376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7">
+      <c r="A377">
+        <v>379</v>
+      </c>
+      <c r="B377" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="C377" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D377" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E377" s="29">
+        <v>9633686397</v>
+      </c>
+      <c r="F377">
+        <v>5</v>
+      </c>
+      <c r="G377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7">
+      <c r="A378">
+        <v>380</v>
+      </c>
+      <c r="B378" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="C378" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D378" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E378" s="29">
+        <v>6238877438</v>
+      </c>
+      <c r="F378">
+        <v>5</v>
+      </c>
+      <c r="G378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7">
+      <c r="A379">
+        <v>381</v>
+      </c>
+      <c r="B379" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="C379" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D379" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E379" s="29">
+        <v>8157074195</v>
+      </c>
+      <c r="F379">
+        <v>5</v>
+      </c>
+      <c r="G379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7">
+      <c r="A380">
+        <v>382</v>
+      </c>
+      <c r="B380" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="C380" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D380" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E380" s="29">
+        <v>9961690690</v>
+      </c>
+      <c r="F380">
+        <v>5</v>
+      </c>
+      <c r="G380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7">
+      <c r="A381">
+        <v>383</v>
+      </c>
+      <c r="B381" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="C381" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D381" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E381" s="29">
+        <v>9961732138</v>
+      </c>
+      <c r="F381">
+        <v>5</v>
+      </c>
+      <c r="G381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7">
+      <c r="A382">
+        <v>384</v>
+      </c>
+      <c r="B382" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="C382" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D382" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E382" s="29">
+        <v>7907328029</v>
+      </c>
+      <c r="F382">
+        <v>5</v>
+      </c>
+      <c r="G382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7">
+      <c r="A383">
+        <v>385</v>
+      </c>
+      <c r="B383" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="C383" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D383" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E383" s="29">
+        <v>8714984780</v>
+      </c>
+      <c r="F383">
+        <v>5</v>
+      </c>
+      <c r="G383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7">
+      <c r="A384">
+        <v>386</v>
+      </c>
+      <c r="B384" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="C384" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D384" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E384" s="29">
+        <v>8281567366</v>
+      </c>
+      <c r="F384">
+        <v>5</v>
+      </c>
+      <c r="G384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7">
+      <c r="A385">
+        <v>387</v>
+      </c>
+      <c r="B385" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="C385" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D385" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E385" s="29">
+        <v>9847334947</v>
+      </c>
+      <c r="F385">
+        <v>5</v>
+      </c>
+      <c r="G385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7">
+      <c r="A386">
+        <v>388</v>
+      </c>
+      <c r="B386" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="C386" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D386" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E386" s="29">
+        <v>8547500275</v>
+      </c>
+      <c r="F386">
+        <v>5</v>
+      </c>
+      <c r="G386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7">
+      <c r="A387">
+        <v>389</v>
+      </c>
+      <c r="B387" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="C387" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D387" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E387" s="29">
+        <v>7356232595</v>
+      </c>
+      <c r="F387">
+        <v>5</v>
+      </c>
+      <c r="G387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7">
+      <c r="A388">
+        <v>390</v>
+      </c>
+      <c r="B388" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="C388" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D388" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E388" s="29">
+        <v>9747269331</v>
+      </c>
+      <c r="F388">
+        <v>5</v>
+      </c>
+      <c r="G388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7">
+      <c r="A389">
+        <v>391</v>
+      </c>
+      <c r="B389" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="C389" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D389" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E389" s="29">
+        <v>7736568577</v>
+      </c>
+      <c r="F389">
+        <v>5</v>
+      </c>
+      <c r="G389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7">
+      <c r="A390">
+        <v>392</v>
+      </c>
+      <c r="B390" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="C390" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D390" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E390" s="29">
+        <v>8138841418</v>
+      </c>
+      <c r="F390">
+        <v>5</v>
+      </c>
+      <c r="G390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7">
+      <c r="A391">
+        <v>393</v>
+      </c>
+      <c r="B391" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="C391" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D391" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E391" s="29">
+        <v>7736211034</v>
+      </c>
+      <c r="F391">
+        <v>5</v>
+      </c>
+      <c r="G391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7">
+      <c r="A392">
+        <v>394</v>
+      </c>
+      <c r="B392" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="C392" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D392" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E392" s="29">
+        <v>9188213618</v>
+      </c>
+      <c r="F392">
+        <v>5</v>
+      </c>
+      <c r="G392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7">
+      <c r="A393">
+        <v>395</v>
+      </c>
+      <c r="B393" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="C393" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D393" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E393" s="29">
+        <v>8129477995</v>
+      </c>
+      <c r="F393">
+        <v>5</v>
+      </c>
+      <c r="G393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7">
+      <c r="A394">
+        <v>396</v>
+      </c>
+      <c r="B394" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="C394" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D394" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E394" s="29">
+        <v>9495651878</v>
+      </c>
+      <c r="F394">
+        <v>5</v>
+      </c>
+      <c r="G394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7">
+      <c r="A395">
+        <v>397</v>
+      </c>
+      <c r="B395" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="C395" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D395" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E395" s="29">
+        <v>7736978446</v>
+      </c>
+      <c r="F395">
+        <v>5</v>
+      </c>
+      <c r="G395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7">
+      <c r="A396">
+        <v>398</v>
+      </c>
+      <c r="B396" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="C396" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D396" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E396" s="29">
+        <v>7510931712</v>
+      </c>
+      <c r="F396">
+        <v>5</v>
+      </c>
+      <c r="G396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7">
+      <c r="A397">
+        <v>399</v>
+      </c>
+      <c r="B397" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="C397" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D397" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E397" s="29">
+        <v>9778302821</v>
+      </c>
+      <c r="F397">
+        <v>5</v>
+      </c>
+      <c r="G397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7">
+      <c r="A398">
+        <v>400</v>
+      </c>
+      <c r="B398" s="29" t="s">
+        <v>380</v>
+      </c>
+      <c r="C398" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D398" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E398" s="29">
+        <v>7736173627</v>
+      </c>
+      <c r="F398">
+        <v>5</v>
+      </c>
+      <c r="G398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7">
+      <c r="A399">
+        <v>401</v>
+      </c>
+      <c r="B399" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="C399" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D399" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E399" s="29">
+        <v>7356236532</v>
+      </c>
+      <c r="F399">
+        <v>5</v>
+      </c>
+      <c r="G399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7">
+      <c r="A400">
+        <v>402</v>
+      </c>
+      <c r="B400" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C400" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D400" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E400" s="29">
+        <v>9497281498</v>
+      </c>
+      <c r="F400">
+        <v>5</v>
+      </c>
+      <c r="G400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7">
+      <c r="A401">
+        <v>403</v>
+      </c>
+      <c r="B401" s="29" t="s">
+        <v>382</v>
+      </c>
+      <c r="C401" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D401" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E401" s="29">
+        <v>6235932573</v>
+      </c>
+      <c r="F401">
+        <v>5</v>
+      </c>
+      <c r="G401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7">
+      <c r="A402">
+        <v>404</v>
+      </c>
+      <c r="B402" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="C402" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D402" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E402" s="29">
+        <v>7306157217</v>
+      </c>
+      <c r="F402">
+        <v>5</v>
+      </c>
+      <c r="G402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7">
+      <c r="A403">
+        <v>405</v>
+      </c>
+      <c r="B403" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="C403" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D403" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E403" s="29">
+        <v>9961840533</v>
+      </c>
+      <c r="F403">
+        <v>5</v>
+      </c>
+      <c r="G403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7">
+      <c r="A404">
+        <v>406</v>
+      </c>
+      <c r="B404" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="C404" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D404" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E404" s="29">
+        <v>9037438264</v>
+      </c>
+      <c r="F404">
+        <v>5</v>
+      </c>
+      <c r="G404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7">
+      <c r="A405">
+        <v>407</v>
+      </c>
+      <c r="B405" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="C405" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D405" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E405" s="29">
+        <v>9497580715</v>
+      </c>
+      <c r="F405">
+        <v>5</v>
+      </c>
+      <c r="G405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7">
+      <c r="A406">
+        <v>408</v>
+      </c>
+      <c r="B406" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="C406" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D406" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E406" s="29">
+        <v>8136967433</v>
+      </c>
+      <c r="F406">
+        <v>5</v>
+      </c>
+      <c r="G406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7">
+      <c r="A407">
+        <v>409</v>
+      </c>
+      <c r="B407" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="C407" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D407" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E407" s="29">
+        <v>9746600177</v>
+      </c>
+      <c r="F407">
+        <v>5</v>
+      </c>
+      <c r="G407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7">
+      <c r="A408">
+        <v>410</v>
+      </c>
+      <c r="B408" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="C408" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D408" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E408" s="29">
+        <v>9188365445</v>
+      </c>
+      <c r="F408">
+        <v>5</v>
+      </c>
+      <c r="G408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7">
+      <c r="A409">
+        <v>411</v>
+      </c>
+      <c r="B409" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="C409" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D409" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E409" s="29">
+        <v>9995740606</v>
+      </c>
+      <c r="F409">
+        <v>5</v>
+      </c>
+      <c r="G409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7">
+      <c r="A410">
+        <v>412</v>
+      </c>
+      <c r="B410" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="C410" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D410" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E410" s="29">
+        <v>9072550338</v>
+      </c>
+      <c r="F410">
+        <v>5</v>
+      </c>
+      <c r="G410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7">
+      <c r="A411">
+        <v>413</v>
+      </c>
+      <c r="B411" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="C411" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D411" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E411" s="29">
+        <v>8921996250</v>
+      </c>
+      <c r="F411">
+        <v>5</v>
+      </c>
+      <c r="G411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7">
+      <c r="A412">
+        <v>414</v>
+      </c>
+      <c r="B412" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="C412" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D412" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E412" s="29">
+        <v>6238365175</v>
+      </c>
+      <c r="F412">
+        <v>5</v>
+      </c>
+      <c r="G412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7">
+      <c r="A413">
+        <v>415</v>
+      </c>
+      <c r="B413" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="C413" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D413" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E413" s="29">
+        <v>9061321636</v>
+      </c>
+      <c r="F413">
+        <v>5</v>
+      </c>
+      <c r="G413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7">
+      <c r="A414">
+        <v>416</v>
+      </c>
+      <c r="B414" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C414" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D414" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E414" s="29">
+        <v>7356812910</v>
+      </c>
+      <c r="F414">
+        <v>5</v>
+      </c>
+      <c r="G414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7">
+      <c r="A415">
+        <v>417</v>
+      </c>
+      <c r="B415" s="29" t="s">
+        <v>395</v>
+      </c>
+      <c r="C415" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D415" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E415" s="29">
+        <v>9188504295</v>
+      </c>
+      <c r="F415">
+        <v>5</v>
+      </c>
+      <c r="G415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7">
+      <c r="A416">
+        <v>418</v>
+      </c>
+      <c r="B416" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="C416" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D416" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E416" s="29">
+        <v>7736124331</v>
+      </c>
+      <c r="F416">
+        <v>5</v>
+      </c>
+      <c r="G416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7">
+      <c r="A417">
+        <v>419</v>
+      </c>
+      <c r="B417" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C417" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D417" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E417" s="29">
+        <v>9207995289</v>
+      </c>
+      <c r="F417">
+        <v>5</v>
+      </c>
+      <c r="G417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7">
+      <c r="A418">
+        <v>420</v>
+      </c>
+      <c r="B418" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="C418" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D418" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E418" s="29">
+        <v>8593937916</v>
+      </c>
+      <c r="F418">
+        <v>5</v>
+      </c>
+      <c r="G418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7">
+      <c r="A419">
+        <v>421</v>
+      </c>
+      <c r="B419" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C419" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D419" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E419" s="29">
+        <v>8139824787</v>
+      </c>
+      <c r="F419">
+        <v>5</v>
+      </c>
+      <c r="G419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7">
+      <c r="A420">
+        <v>422</v>
+      </c>
+      <c r="B420" s="29" t="s">
+        <v>398</v>
+      </c>
+      <c r="C420" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D420" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E420" s="29">
+        <v>8593920843</v>
+      </c>
+      <c r="F420">
+        <v>5</v>
+      </c>
+      <c r="G420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7">
+      <c r="A421">
+        <v>423</v>
+      </c>
+      <c r="B421" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="C421" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D421" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E421" s="29">
+        <v>9400116311</v>
+      </c>
+      <c r="F421">
+        <v>5</v>
+      </c>
+      <c r="G421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7">
+      <c r="A422">
+        <v>424</v>
+      </c>
+      <c r="B422" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C422" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D422" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E422" s="29">
+        <v>8590529974</v>
+      </c>
+      <c r="F422">
+        <v>5</v>
+      </c>
+      <c r="G422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7">
+      <c r="A423">
+        <v>425</v>
+      </c>
+      <c r="B423" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="C423" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D423" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E423" s="29">
+        <v>9207523797</v>
+      </c>
+      <c r="F423">
+        <v>5</v>
+      </c>
+      <c r="G423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7">
+      <c r="A424">
+        <v>426</v>
+      </c>
+      <c r="B424" s="29" t="s">
+        <v>401</v>
+      </c>
+      <c r="C424" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D424" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E424" s="29">
+        <v>6282579453</v>
+      </c>
+      <c r="F424">
+        <v>5</v>
+      </c>
+      <c r="G424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7">
+      <c r="A425">
+        <v>427</v>
+      </c>
+      <c r="B425" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="C425" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D425" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E425" s="29">
+        <v>6282944718</v>
+      </c>
+      <c r="F425">
+        <v>5</v>
+      </c>
+      <c r="G425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7">
+      <c r="A426">
+        <v>428</v>
+      </c>
+      <c r="B426" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="C426" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D426" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E426" s="29">
+        <v>9744455155</v>
+      </c>
+      <c r="F426">
+        <v>5</v>
+      </c>
+      <c r="G426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7">
+      <c r="A427">
+        <v>429</v>
+      </c>
+      <c r="B427" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="C427" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D427" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E427" s="29">
+        <v>7902736011</v>
+      </c>
+      <c r="F427">
+        <v>5</v>
+      </c>
+      <c r="G427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7">
+      <c r="A428">
+        <v>430</v>
+      </c>
+      <c r="B428" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="C428" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D428" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E428" s="29">
+        <v>7012207366</v>
+      </c>
+      <c r="F428">
+        <v>5</v>
+      </c>
+      <c r="G428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7">
+      <c r="A429">
+        <v>431</v>
+      </c>
+      <c r="B429" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="C429" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D429" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E429" s="31">
+        <v>6282985023</v>
+      </c>
+      <c r="F429" s="32">
+        <v>5</v>
+      </c>
+      <c r="G429" s="33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7">
+      <c r="A430">
+        <v>432</v>
+      </c>
+      <c r="B430" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="C430" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D430" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E430" s="31">
+        <v>8606700284</v>
+      </c>
+      <c r="F430" s="32">
+        <v>5</v>
+      </c>
+      <c r="G430" s="33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7">
+      <c r="A431">
+        <v>433</v>
+      </c>
+      <c r="B431" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="C431" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D431" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E431" s="31">
+        <v>9995602471</v>
+      </c>
+      <c r="F431" s="32">
+        <v>5</v>
+      </c>
+      <c r="G431" s="33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7">
+      <c r="A432">
+        <v>434</v>
+      </c>
+      <c r="B432" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="C432" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D432" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E432" s="31">
+        <v>8129148382</v>
+      </c>
+      <c r="F432" s="32">
+        <v>5</v>
+      </c>
+      <c r="G432" s="33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7">
+      <c r="A433">
+        <v>435</v>
+      </c>
+      <c r="B433" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="C433" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D433" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E433" s="31">
+        <v>6238431443</v>
+      </c>
+      <c r="F433" s="32">
+        <v>5</v>
+      </c>
+      <c r="G433" s="33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7">
+      <c r="A434">
+        <v>436</v>
+      </c>
+      <c r="B434" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="C434" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D434" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E434" s="31">
+        <v>8590304953</v>
+      </c>
+      <c r="F434" s="32">
+        <v>5</v>
+      </c>
+      <c r="G434" s="33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7">
+      <c r="A435">
+        <v>437</v>
+      </c>
+      <c r="B435" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="C435" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D435" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E435" s="31">
+        <v>7025003190</v>
+      </c>
+      <c r="F435" s="32">
+        <v>5</v>
+      </c>
+      <c r="G435" s="33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7">
+      <c r="A436">
+        <v>438</v>
+      </c>
+      <c r="B436" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="C436" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D436" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E436" s="35">
+        <v>8590716493</v>
+      </c>
+      <c r="F436" s="32">
+        <v>5</v>
+      </c>
+      <c r="G436" s="33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7">
+      <c r="A437">
+        <v>439</v>
+      </c>
+      <c r="B437" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="C437" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D437" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E437" s="37">
+        <v>7356232595</v>
+      </c>
+      <c r="F437" s="32">
+        <v>5</v>
+      </c>
+      <c r="G437" s="33" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7">
+      <c r="A438">
+        <v>440</v>
+      </c>
+      <c r="B438" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="C438" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D438" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E438" s="31">
+        <v>9747269331</v>
+      </c>
+      <c r="F438" s="32">
+        <v>5</v>
+      </c>
+      <c r="G438" s="33" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7">
+      <c r="A439">
+        <v>441</v>
+      </c>
+      <c r="B439" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="C439" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D439" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E439" s="31">
+        <v>7736568577</v>
+      </c>
+      <c r="F439" s="32">
+        <v>5</v>
+      </c>
+      <c r="G439" s="33" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7">
+      <c r="A440">
+        <v>442</v>
+      </c>
+      <c r="B440" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="C440" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D440" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E440" s="31">
+        <v>8138841418</v>
+      </c>
+      <c r="F440" s="32">
+        <v>5</v>
+      </c>
+      <c r="G440" s="33" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7">
+      <c r="A441">
+        <v>443</v>
+      </c>
+      <c r="B441" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="C441" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D441" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E441" s="31">
+        <v>7736211034</v>
+      </c>
+      <c r="F441" s="32">
+        <v>5</v>
+      </c>
+      <c r="G441" s="33" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7">
+      <c r="A442">
+        <v>444</v>
+      </c>
+      <c r="B442" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="C442" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D442" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E442" s="31">
+        <v>9188213618</v>
+      </c>
+      <c r="F442" s="32">
+        <v>5</v>
+      </c>
+      <c r="G442" s="33" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7">
+      <c r="A443">
+        <v>445</v>
+      </c>
+      <c r="B443" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="C443" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D443" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E443" s="31">
+        <v>8129477995</v>
+      </c>
+      <c r="F443" s="32">
+        <v>5</v>
+      </c>
+      <c r="G443" s="33" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7">
+      <c r="A444">
+        <v>446</v>
+      </c>
+      <c r="B444" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="C444" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D444" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E444" s="35">
+        <v>9495651878</v>
+      </c>
+      <c r="F444" s="32">
+        <v>5</v>
+      </c>
+      <c r="G444" s="33" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
